--- a/Data/PR_Data/PaperRead_RSS2025.xlsx
+++ b/Data/PR_Data/PaperRead_RSS2025.xlsx
@@ -108,7 +108,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -124,9 +124,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -138,9 +135,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -514,6239 +508,6325 @@
   </sheetPr>
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="D104" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A115" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D163" activeCellId="0" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="18.93" customWidth="1" style="6" min="1" max="1"/>
-    <col width="17.89" customWidth="1" style="6" min="2" max="2"/>
-    <col width="44.11" customWidth="1" style="6" min="3" max="3"/>
-    <col width="42.02" customWidth="1" style="6" min="4" max="4"/>
-    <col width="44.23" customWidth="1" style="6" min="5" max="5"/>
-    <col width="33.72" customWidth="1" style="6" min="6" max="6"/>
-    <col width="38.39" customWidth="1" style="6" min="7" max="7"/>
+    <col width="21.4" customWidth="1" style="5" min="1" max="1"/>
+    <col width="23.6" customWidth="1" style="5" min="2" max="2"/>
+    <col width="39.95" customWidth="1" style="5" min="3" max="3"/>
+    <col width="42.02" customWidth="1" style="5" min="4" max="4"/>
+    <col width="44.23" customWidth="1" style="5" min="5" max="5"/>
+    <col width="33.72" customWidth="1" style="5" min="6" max="6"/>
+    <col width="38.39" customWidth="1" style="5" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="7">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>PDF文件名称</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>论文标题</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>研究主题关键词</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>应用场景关键词</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>主要方法关键词</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>创新点关键词</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>主要结论关键词</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="7">
-      <c r="A2" s="6" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Behavior Synthesis via Contact-Aware Fisher Information Maximization.pdf</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Behavior Synthesis via Contact-Aware Fisher Information Maximization</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>参数学习</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>机器人学习物体属性</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>接触感知的Fisher信息量最大化</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>接触感知的实验设计</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
         <is>
           <t>参数估计</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="7">
-      <c r="A3" s="6" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LangWBC Language-directed Humanoid Whole-Body Control via End-to-end Learning.pdf</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LangWBC: Language-directed Humanoid Whole-Body Control via End-to-end Learning</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>人形机器人控制</t>
         </is>
       </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>日常生活中的机器人交互</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>端到端学习</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>语言指导</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>敏捷且稳健的全身运动</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="7">
-      <c r="A4" s="6" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Adaptive Locomotion on Mud through Proprioceptive Sensing of Substrate Properties.pdf</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Adaptive Locomotion on Mud through Proprioceptive Sensing of Substrate Properties</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>机器人适应性行走, 泥地环境</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>泥地行走, 机器人适应性行走</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>本体感受传感, 泥地特性估计</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>泥地适应性行走策略</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>泥地适应性行走</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="7">
-      <c r="A5" s="6" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Demonstrating Arena 5.0 A Photorealistic ROS2 Simulation Framework for Developing and Benchmarking S.pdf</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Demonstrating Arena 5.0: A Photorealistic ROS2 Simulation Framework for Developing and Benchmarking Social Navigation</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>社会导航</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>ROS2仿真框架</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Isaac Gym集成</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>生成式AI场景生成</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G5" s="9" t="inlineStr">
         <is>
           <t>逼真度提升</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="7">
-      <c r="A6" s="6" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Prompting with the Future Open-World Model Predictive Control with Interactive Digital Twins.pdf</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Prompting with the Future: Open-World Model Predictive Control with Interactive Digital Twins</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>开放世界机器人操作</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>机器人控制</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>模型预测控制</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>交互式数字孪生</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="G6" s="9" t="inlineStr">
         <is>
           <t>语义推理</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="7">
-      <c r="A7" s="6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Provably-Safe, Online System Identification.pdf</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Provably-Safe, Online System Identification</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>系统辨识</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>机器人系统</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>安全轨迹规划</t>
         </is>
       </c>
-      <c r="F7" s="10" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>安全保证</t>
         </is>
       </c>
-      <c r="G7" s="10" t="inlineStr">
+      <c r="G7" s="9" t="inlineStr">
         <is>
           <t>实时系统辨识</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="7">
-      <c r="A8" s="6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Discrete-Time Hybrid Automata Learning Legged Locomotion Meets Skateboarding.pdf</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Discrete-Time Hybrid Automata Learning: Legged Locomotion Meets Skateboarding</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>混合动力系统</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>四足机器人滑板</t>
         </is>
       </c>
-      <c r="E8" s="10" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>离散时间混合自动机</t>
         </is>
       </c>
-      <c r="F8" s="10" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>多批评家强化学习</t>
         </is>
       </c>
-      <c r="G8" s="10" t="inlineStr">
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>模式识别</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="7">
-      <c r="A9" s="6" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>FEAST A Flexible Mealtime-Assistance System Towards In-the-Wild Personalization.pdf</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>FEAST: A Flexible Mealtime-Assistance System Towards In-the-WILD Personal素. 机器人辅助进食系统</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>机器人辅助进食系统</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>家庭环境</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>LLM</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>个性化</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="G9" s="9" t="inlineStr">
         <is>
           <t>个性化</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="7">
-      <c r="A10" s="6" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LiDAR Registration with Visual Foundation Models.pdf</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LiDAR Registration with Visual Foundation Models</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>LiDAR配准</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>机器人建图与定位</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>DINOv2特征</t>
         </is>
       </c>
-      <c r="F10" s="10" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>视觉基础模型</t>
         </is>
       </c>
-      <c r="G10" s="10" t="inlineStr">
+      <c r="G10" s="9" t="inlineStr">
         <is>
           <t>长期场景配准</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="7">
-      <c r="A11" s="6" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Bridging Perception and Action Spatially-Grounded Mid-Level Representations for Robot Generalization.pdf</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Bridging Perception and Action: Spatially-Grounded Mid-Level Representations for Robot Generalization</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>机器人泛化</t>
         </is>
       </c>
-      <c r="D11" s="10" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>灵巧操作</t>
         </is>
       </c>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>扩散策略</t>
         </is>
       </c>
-      <c r="F11" s="10" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>空间锚定</t>
         </is>
       </c>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="9" t="inlineStr">
         <is>
           <t>任务特定性</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="7">
-      <c r="A12" s="6" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Curating Demonstrations using Online Experience.pdf</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Curating Demonstrations using Online Experience</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>机器人演示数据集筛选</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>机器人操作任务</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>基于在线经验的演示筛选</t>
         </is>
       </c>
-      <c r="F12" s="10" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>自动筛选不可靠演示</t>
         </is>
       </c>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>提高策略性能</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="7">
-      <c r="A13" s="6" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>RAMEN Real-time Asynchronous Multi-agent Neural Implicit Mapping.pdf</t>
         </is>
       </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>RAMEN: Real-time Asynchronous Multi-agent Neural Implicit Mapping</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>多智能体神经网络隐式映射</t>
         </is>
       </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>机器人协作感知</t>
         </is>
       </c>
-      <c r="E13" s="10" t="inlineStr">
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>异步分布式优化</t>
         </is>
       </c>
-      <c r="F13" s="10" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr">
         <is>
           <t>不确定性加权</t>
         </is>
       </c>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="G13" s="9" t="inlineStr">
         <is>
           <t>异步通信下的鲁棒性</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="7">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Self-supervised Multi-future Occupancy Forecasting for Autonomous Driving.pdf</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Self-supervised Multi-future Occupancy Forecasting for Autonomous Driving</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>环境预测框架</t>
         </is>
       </c>
-      <c r="D14" s="10" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>自动驾驶</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>自编码器</t>
         </is>
       </c>
-      <c r="F14" s="10" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>生成式模型</t>
         </is>
       </c>
-      <c r="G14" s="10" t="inlineStr">
+      <c r="G14" s="9" t="inlineStr">
         <is>
           <t>多模态推理</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="7">
-      <c r="A15" s="6" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Distilling Contact Planning for Fast Trajectory Optimization in Robot Air Hockey.pdf</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Distilling Contact Planning for Fast Trajectory Optimization in Robot Air Hockey</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>机器人控制</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>机器人空气曲棍球</t>
         </is>
       </c>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <t>模型预测控制</t>
         </is>
       </c>
-      <c r="F15" s="10" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr">
         <is>
           <t>隐式模型蒸馏</t>
         </is>
       </c>
-      <c r="G15" s="10" t="inlineStr">
+      <c r="G15" s="9" t="inlineStr">
         <is>
           <t>实时操作</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="7">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Demonstrating DVS Dynamic Virtual-Real Simulation Platform for Mobile Robotic Tasks.pdf</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Demonstrating DVS: Dynamic Virtual-Real Simulation Platform for Mobile Robotic Tasks</t>
         </is>
       </c>
-      <c r="C16" s="10" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>虚拟-现实融合</t>
         </is>
       </c>
-      <c r="D16" s="10" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>移动机器人任务</t>
         </is>
       </c>
-      <c r="E16" s="10" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>动态场景生成</t>
         </is>
       </c>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>虚拟-现实同步</t>
         </is>
       </c>
-      <c r="G16" s="10" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>机器人导航</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="7">
-      <c r="A17" s="6" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="6">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>ConRFT A Reinforced Fine-tuning Method for VLA Models via Consistency Policy.pdf</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>ConRFT: A Reinforced Fine-tuning Method for VLA Models via Consistency Policy</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>VLA模型微调</t>
         </is>
       </c>
-      <c r="D17" s="10" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E17" s="10" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <t>一致性策略</t>
         </is>
       </c>
-      <c r="F17" s="10" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr">
         <is>
           <t>离线到在线微调</t>
         </is>
       </c>
-      <c r="G17" s="10" t="inlineStr">
+      <c r="G17" s="9" t="inlineStr">
         <is>
           <t>样本效率</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="7">
-      <c r="A18" s="6" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="6">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Safety with Agency Human-Centered Safety Filter with Application to AI-Assisted Motorsports.pdf</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Safety with Agency: Human-Centered Safety Filter with Application to AI-Assisted Motorsports</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>安全</t>
         </is>
       </c>
-      <c r="D18" s="10" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>赛车</t>
         </is>
       </c>
-      <c r="E18" s="10" t="inlineStr">
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>安全过滤器</t>
         </is>
       </c>
-      <c r="F18" s="10" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>人类中心</t>
         </is>
       </c>
-      <c r="G18" s="10" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>用户满意度</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="7">
-      <c r="A19" s="6" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="6">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>CodeDiffuser Attention-Enhanced Diffusion Policy via VLM-Generated Code for Instruction Ambiguity.pdf</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>CodeDiffuser: Attention-Enhanced Diffusion Policy via VLM-Generated Code for Instruction Ambiguity</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr">
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>模拟环境, 真实世界</t>
         </is>
       </c>
-      <c r="E19" s="10" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <t>扩散策略, 视觉语言模型, 视觉基础模型</t>
         </is>
       </c>
-      <c r="F19" s="10" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr">
         <is>
           <t>代码生成, 3D注意力图</t>
         </is>
       </c>
-      <c r="G19" s="10" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
         <is>
           <t>语言歧义处理, 接触丰富操作, 多对象交互</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="7">
-      <c r="A20" s="6" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="6">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>emg2tendon From sEMG Signals to Tendon Control in Musculoskeletal Hands.pdf</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>emg2tendon: From sEMG Signals to Tendon Control in Musculoskeletal Hands</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>肌电信号控制</t>
         </is>
       </c>
-      <c r="D20" s="10" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>肌骨手</t>
         </is>
       </c>
-      <c r="E20" s="10" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>扩散模型</t>
         </is>
       </c>
-      <c r="F20" s="10" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>肌骨手模型</t>
         </is>
       </c>
-      <c r="G20" s="10" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>肌电信号</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="7">
-      <c r="A21" s="6" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="6">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Demonstrating MuJoCo Playground.pdf</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Demonstrating MuJoCo Playground</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr">
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D21" s="10" t="inlineStr">
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <t>模拟到现实</t>
         </is>
       </c>
-      <c r="E21" s="10" t="inlineStr">
+      <c r="E21" s="9" t="inlineStr">
         <is>
           <t>强化学习</t>
         </is>
       </c>
-      <c r="F21" s="10" t="inlineStr">
+      <c r="F21" s="9" t="inlineStr">
         <is>
           <t>高吞吐量批量渲染</t>
         </is>
       </c>
-      <c r="G21" s="10" t="inlineStr">
+      <c r="G21" s="9" t="inlineStr">
         <is>
           <t>零样本模拟到现实转移</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="7">
-      <c r="A22" s="6" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="6">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Demonstrating REASSEMBLE A Multimodal Dataset for Contact-rich Robotic Assembly and Disassembly.pdf</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Demonstrating REASSEMBLE: A Multimodal Dataset for Contact-rich Robotic Assembly and Disassembly</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>接触丰富</t>
         </is>
       </c>
-      <c r="D22" s="10" t="inlineStr">
+      <c r="D22" s="9" t="inlineStr">
         <is>
           <t>机器人装配</t>
         </is>
       </c>
-      <c r="E22" s="10" t="inlineStr">
+      <c r="E22" s="9" t="inlineStr">
         <is>
           <t>动态运动策略学习</t>
         </is>
       </c>
-      <c r="F22" s="10" t="inlineStr">
+      <c r="F22" s="9" t="inlineStr">
         <is>
           <t>多模态数据</t>
         </is>
       </c>
-      <c r="G22" s="10" t="inlineStr">
+      <c r="G22" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="13.5" customHeight="1" s="7">
-      <c r="A23" s="6" t="inlineStr">
+    <row r="23" ht="13.5" customHeight="1" s="6">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>HOMIE Humanoid Loco-Manipulation with Isomorphic Exoskeleton Cockpit.pdf</t>
         </is>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>HOMIE: Humanoid Loco-Manipulation with Isomorphic Exoskeleton Cockpit</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>人形机器人全身控制</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>日常生活中的任务执行</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>强化学习</t>
         </is>
       </c>
-      <c r="F23" s="10" t="inlineStr">
+      <c r="F23" s="9" t="inlineStr">
         <is>
           <t>同构外骨骼</t>
         </is>
       </c>
-      <c r="G23" s="10" t="inlineStr">
+      <c r="G23" s="9" t="inlineStr">
         <is>
           <t>高效任务完成</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1" s="7">
-      <c r="A24" s="6" t="inlineStr">
+    <row r="24" ht="13.5" customHeight="1" s="6">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Robot Learning with Super-Linear Scaling.pdf</t>
         </is>
       </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Robot Learning with Super-Linear Scaling</t>
         </is>
       </c>
-      <c r="C24" s="10" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D24" s="10" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>模拟环境</t>
         </is>
       </c>
-      <c r="E24" s="10" t="inlineStr">
+      <c r="E24" s="9" t="inlineStr">
         <is>
           <t>模拟到现实</t>
         </is>
       </c>
-      <c r="F24" s="10" t="inlineStr">
+      <c r="F24" s="9" t="inlineStr">
         <is>
           <t>持续数据收集</t>
         </is>
       </c>
-      <c r="G24" s="10" t="inlineStr">
+      <c r="G24" s="9" t="inlineStr">
         <is>
           <t>零样本转移</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1" s="7">
-      <c r="A25" s="6" t="inlineStr">
+    <row r="25" ht="13.5" customHeight="1" s="6">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>RAPID Robust and Agile Planner Using Inverse Reinforcement Learning for Vision-Based Drone Navigatio.pdf</t>
         </is>
       </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>RAPID: Robust and Agile Planner Using Inverse Reinforcement Learning for Vision-Based Drone Navigation</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr">
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>视觉导航</t>
         </is>
       </c>
-      <c r="D25" s="10" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>无人机</t>
         </is>
       </c>
-      <c r="E25" s="10" t="inlineStr">
+      <c r="E25" s="9" t="inlineStr">
         <is>
           <t>逆强化学习</t>
         </is>
       </c>
-      <c r="F25" s="10" t="inlineStr">
+      <c r="F25" s="9" t="inlineStr">
         <is>
           <t>鲁棒性</t>
         </is>
       </c>
-      <c r="G25" s="10" t="inlineStr">
+      <c r="G25" s="9" t="inlineStr">
         <is>
           <t>高速</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="13.5" customHeight="1" s="7">
-      <c r="A26" s="6" t="inlineStr">
+    <row r="26" ht="13.5" customHeight="1" s="6">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Generalizing Safety Beyond Collision-Avoidance via Latent-Space Reachability Analysis.pdf</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Generalizing Safety Beyond Collision-Avoidance via Latent-Safety Filters</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>安全控制</t>
         </is>
       </c>
-      <c r="D26" s="10" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E26" s="10" t="inlineStr">
+      <c r="E26" s="9" t="inlineStr">
         <is>
           <t>隐空间可及性分析</t>
         </is>
       </c>
-      <c r="F26" s="10" t="inlineStr">
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>隐空间安全过滤器</t>
         </is>
       </c>
-      <c r="G26" s="10" t="inlineStr">
+      <c r="G26" s="9" t="inlineStr">
         <is>
           <t>安全过滤器性能</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1" s="7">
-      <c r="A27" s="6" t="inlineStr">
+    <row r="27" ht="16.5" customHeight="1" s="6">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>π₀ A Vision-Language-Action Flow Model for General Robot Control.pdf</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>π : A Vision-Language-Action Flow Model for General Robot Control</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr">
+      <c r="C27" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D27" s="10" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
         <is>
           <t>机器人控制</t>
         </is>
       </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>VLM预训练和流匹配</t>
         </is>
       </c>
-      <c r="F27" s="10" t="inlineStr">
+      <c r="F27" s="9" t="inlineStr">
         <is>
           <t>多模态机器人模型</t>
         </is>
       </c>
-      <c r="G27" s="10" t="inlineStr">
+      <c r="G27" s="9" t="inlineStr">
         <is>
           <t>多阶段任务学习</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="16.5" customHeight="1" s="7">
-      <c r="A28" s="6" t="inlineStr">
+    <row r="28" ht="16.5" customHeight="1" s="6">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>SafeMimic Towards Safe and Autonomous Human-to-Robot Imitation for Mobile Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>SafeMimic: Towards Safe and Autonomous Human-to-Robot Imitation for Mobile Manipulation</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="C28" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D28" s="10" t="inlineStr">
+      <c r="D28" s="9" t="inlineStr">
         <is>
           <t>家庭环境</t>
         </is>
       </c>
-      <c r="E28" s="10" t="inlineStr">
+      <c r="E28" s="9" t="inlineStr">
         <is>
           <t>安全探索</t>
         </is>
       </c>
-      <c r="F28" s="10" t="inlineStr">
+      <c r="F28" s="9" t="inlineStr">
         <is>
           <t>安全Q函数</t>
         </is>
       </c>
-      <c r="G28" s="10" t="inlineStr">
+      <c r="G28" s="9" t="inlineStr">
         <is>
           <t>多步骤任务学习</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="13.5" customHeight="1" s="7">
-      <c r="A29" s="6" t="inlineStr">
+    <row r="29" ht="13.5" customHeight="1" s="6">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>Effective Sampling for Robot Motion Planning Through the Lens of Lattices.pdf</t>
         </is>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Effective Sampling for Robot Motion Planning Through the Lens of Lattices</t>
         </is>
       </c>
-      <c r="C29" s="10" t="inlineStr">
+      <c r="C29" s="9" t="inlineStr">
         <is>
           <t>运动规划</t>
         </is>
       </c>
-      <c r="D29" s="10" t="inlineStr">
+      <c r="D29" s="9" t="inlineStr">
         <is>
           <t>机器人运动规划</t>
         </is>
       </c>
-      <c r="E29" s="10" t="inlineStr">
+      <c r="E29" s="9" t="inlineStr">
         <is>
           <t>基于格</t>
         </is>
       </c>
-      <c r="F29" s="10" t="inlineStr">
+      <c r="F29" s="9" t="inlineStr">
         <is>
           <t>有限时间保证</t>
         </is>
       </c>
-      <c r="G29" s="10" t="inlineStr">
+      <c r="G29" s="9" t="inlineStr">
         <is>
           <t>样本复杂性</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1" s="7">
-      <c r="A30" s="6" t="inlineStr">
+    <row r="30" ht="13.5" customHeight="1" s="6">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Can We Detect Failures Without Failure Data Uncertainty-Aware Runtime Failure Detection for Imitatio.pdf</t>
         </is>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Can We Detect Failures Without Failure Data?</t>
         </is>
       </c>
-      <c r="C30" s="10" t="inlineStr">
+      <c r="C30" s="9" t="inlineStr">
         <is>
           <t>失败检测</t>
         </is>
       </c>
-      <c r="D30" s="10" t="inlineStr">
+      <c r="D30" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E30" s="10" t="inlineStr">
+      <c r="E30" s="9" t="inlineStr">
         <is>
           <t>流匹配</t>
         </is>
       </c>
-      <c r="F30" s="10" t="inlineStr">
+      <c r="F30" s="9" t="inlineStr">
         <is>
           <t>无失败数据</t>
         </is>
       </c>
-      <c r="G30" s="10" t="inlineStr">
+      <c r="G30" s="9" t="inlineStr">
         <is>
           <t>失败检测</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="16.5" customHeight="1" s="7">
-      <c r="A31" s="6" t="inlineStr">
+    <row r="31" ht="16.5" customHeight="1" s="6">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Reactive Diffusion Policy Slow-Fast Visual-Tactile Policy Learning for Contact-Rich Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Reactive Diffusion Policy: Slow-Fast Visual-Tactile Policy Learning for Contact-Rich Manipulation</t>
         </is>
       </c>
-      <c r="C31" s="10" t="inlineStr">
+      <c r="C31" s="9" t="inlineStr">
         <is>
           <t>视觉-触觉模仿学习</t>
         </is>
       </c>
-      <c r="D31" s="10" t="inlineStr">
+      <c r="D31" s="9" t="inlineStr">
         <is>
           <t>接触丰富操作</t>
         </is>
       </c>
-      <c r="E31" s="10" t="inlineStr">
+      <c r="E31" s="9" t="inlineStr">
         <is>
           <t>慢-快策略</t>
         </is>
       </c>
-      <c r="F31" s="10" t="inlineStr">
+      <c r="F31" s="9" t="inlineStr">
         <is>
           <t>快速反应</t>
         </is>
       </c>
-      <c r="G31" s="10" t="inlineStr">
+      <c r="G31" s="9" t="inlineStr">
         <is>
           <t>接触力控制</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="13.5" customHeight="1" s="7">
-      <c r="A32" s="6" t="inlineStr">
+    <row r="32" ht="13.5" customHeight="1" s="6">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>A Generic Continuous Multi-Joint Spinal Robotic System for Agile and Accurate Behaviors with GNN-MPC.pdf</t>
         </is>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>A Generic Continuous Multi-Joint Spinal Robotic System for Agile and Accurate Behaviors with GNN-MPC method</t>
         </is>
       </c>
-      <c r="C32" s="10" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>生物仿生学</t>
         </is>
       </c>
-      <c r="D32" s="10" t="inlineStr">
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t>机器人脊柱</t>
         </is>
       </c>
-      <c r="E32" s="10" t="inlineStr">
+      <c r="E32" s="9" t="inlineStr">
         <is>
           <t>图神经网络</t>
         </is>
       </c>
-      <c r="F32" s="10" t="inlineStr">
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t>连续多关节脊柱系统</t>
         </is>
       </c>
-      <c r="G32" s="10" t="inlineStr">
+      <c r="G32" s="9" t="inlineStr">
         <is>
           <t>动态性能</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="13.5" customHeight="1" s="7">
-      <c r="A33" s="6" t="inlineStr">
+    <row r="33" ht="13.5" customHeight="1" s="6">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Learning to Act Anywhere with Task-centric Latent Actions.pdf</t>
         </is>
       </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Learning to Act Anywhere with Task-centric Latent Actions</t>
         </is>
       </c>
-      <c r="C33" s="10" t="inlineStr">
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>机器人动作学习</t>
         </is>
       </c>
-      <c r="D33" s="10" t="inlineStr">
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E33" s="10" t="inlineStr">
+      <c r="E33" s="9" t="inlineStr">
         <is>
           <t>任务中心潜在动作学习</t>
         </is>
       </c>
-      <c r="F33" s="10" t="inlineStr">
+      <c r="F33" s="9" t="inlineStr">
         <is>
           <t>跨领域动作表示</t>
         </is>
       </c>
-      <c r="G33" s="10" t="inlineStr">
+      <c r="G33" s="9" t="inlineStr">
         <is>
           <t>跨领域知识迁移</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="13.5" customHeight="1" s="7">
-      <c r="A34" s="6" t="inlineStr">
+    <row r="34" ht="13.5" customHeight="1" s="6">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Verti-Bench A General and Scalable Off-Road Mobility Benchmark for Vertically Challenging Terrain.pdf</t>
         </is>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Verti-Bench: A General and Scalable Off-Road Mobility Benchmark for Vertically Challenging Terrain</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>越野移动性</t>
         </is>
       </c>
-      <c r="D34" s="10" t="inlineStr">
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>垂直挑战地形</t>
         </is>
       </c>
-      <c r="E34" s="10" t="inlineStr">
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>多物理仿真</t>
         </is>
       </c>
-      <c r="F34" s="10" t="inlineStr">
+      <c r="F34" s="9" t="inlineStr">
         <is>
           <t>可扩展基准</t>
         </is>
       </c>
-      <c r="G34" s="10" t="inlineStr">
+      <c r="G34" s="9" t="inlineStr">
         <is>
           <t>移动性评估</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="13.5" customHeight="1" s="7">
-      <c r="A35" s="6" t="inlineStr">
+    <row r="35" ht="13.5" customHeight="1" s="6">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>Manual2Skill Learning to Read Manuals and Acquire Robotic Skills for Furniture Assembly Using Vision.pdf</t>
         </is>
       </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Manual2Skill: Learning to Read Manuals and Acquire Robotic Skills for Furniture Assembly Using Vision-Language Models</t>
         </is>
       </c>
-      <c r="C35" s="10" t="inlineStr">
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>家具组装</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr">
+      <c r="D35" s="9" t="inlineStr">
         <is>
           <t>机器人组装</t>
         </is>
       </c>
-      <c r="E35" s="10" t="inlineStr">
+      <c r="E35" s="9" t="inlineStr">
         <is>
           <t>视觉语言模型</t>
         </is>
       </c>
-      <c r="F35" s="10" t="inlineStr">
+      <c r="F35" s="9" t="inlineStr">
         <is>
           <t>层次化组装图</t>
         </is>
       </c>
-      <c r="G35" s="10" t="inlineStr">
+      <c r="G35" s="9" t="inlineStr">
         <is>
           <t>机器人技能学习</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="13.5" customHeight="1" s="7">
-      <c r="A36" s="6" t="inlineStr">
+    <row r="36" ht="13.5" customHeight="1" s="6">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>Hierarchical and Modular Network on Non-prehensile Manipulation in General Environments.pdf</t>
         </is>
       </c>
-      <c r="B36" s="6" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Hierarchical and Modular Network on Non-prehensile Manipulation in General Environments</t>
         </is>
       </c>
-      <c r="C36" s="10" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>非抓握操作</t>
         </is>
       </c>
-      <c r="D36" s="10" t="inlineStr">
+      <c r="D36" s="9" t="inlineStr">
         <is>
           <t>一般环境</t>
         </is>
       </c>
-      <c r="E36" s="10" t="inlineStr">
+      <c r="E36" s="9" t="inlineStr">
         <is>
           <t>分层和模块化网络</t>
         </is>
       </c>
-      <c r="F36" s="10" t="inlineStr">
+      <c r="F36" s="9" t="inlineStr">
         <is>
           <t>模块化架构</t>
         </is>
       </c>
-      <c r="G36" s="10" t="inlineStr">
+      <c r="G36" s="9" t="inlineStr">
         <is>
           <t>泛化能力</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="13.5" customHeight="1" s="7">
-      <c r="A37" s="6" t="inlineStr">
+    <row r="37" ht="13.5" customHeight="1" s="6">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Demonstrating GPU Parallelized Robot Simulation and Rendering for Generalizable Embodied AI with Man.pdf</t>
         </is>
       </c>
-      <c r="B37" s="6" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>ManiSkill3: The Fastest State-of-the-Art GPU Parallelized Robotics Simulator for Generalizable Manipulation</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr">
+      <c r="D37" s="9" t="inlineStr">
         <is>
           <t>模拟环境</t>
         </is>
       </c>
-      <c r="E37" s="6" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>GPU并行模拟和渲染</t>
         </is>
       </c>
-      <c r="F37" s="10" t="inlineStr">
+      <c r="F37" s="9" t="inlineStr">
         <is>
           <t>异构模拟</t>
         </is>
       </c>
-      <c r="G37" s="10" t="inlineStr">
+      <c r="G37" s="9" t="inlineStr">
         <is>
           <t>视觉强化学习</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1" s="7">
-      <c r="A38" s="6" t="inlineStr">
+    <row r="38" ht="13.5" customHeight="1" s="6">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>CREStE Scalable Mapless Navigation with Internet Scale Priors and Counterfactual Guidance.pdf</t>
         </is>
       </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>CRES E: Scalable Mapless Navigation with Internet Scale Priors and Counterfactual Guidance</t>
         </is>
       </c>
-      <c r="C38" s="10" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>开放世界导航</t>
         </is>
       </c>
-      <c r="D38" s="10" t="inlineStr">
+      <c r="D38" s="9" t="inlineStr">
         <is>
           <t>城市环境导航</t>
         </is>
       </c>
-      <c r="E38" s="10" t="inlineStr">
+      <c r="E38" s="9" t="inlineStr">
         <is>
           <t>视觉基础模型蒸馏</t>
         </is>
       </c>
-      <c r="F38" s="10" t="inlineStr">
+      <c r="F38" s="9" t="inlineStr">
         <is>
           <t>反事实指导</t>
         </is>
       </c>
-      <c r="G38" s="10" t="inlineStr">
+      <c r="G38" s="9" t="inlineStr">
         <is>
           <t>长期导航</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="13.5" customHeight="1" s="7">
-      <c r="A39" s="6" t="inlineStr">
+    <row r="39" ht="13.5" customHeight="1" s="6">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Solving Multi-Agent Safe Optimal Control with Distributed Epigraph Form MARL.pdf</t>
         </is>
       </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Solving Multi-Agent Safe Optimal Control with Distributed Epigraph Form MARL</t>
         </is>
       </c>
-      <c r="C39" s="10" t="inlineStr">
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>多智能体安全最优控制</t>
         </is>
       </c>
-      <c r="D39" s="10" t="inlineStr">
+      <c r="D39" s="9" t="inlineStr">
         <is>
           <t>多智能体系统</t>
         </is>
       </c>
-      <c r="E39" s="10" t="inlineStr">
+      <c r="E39" s="9" t="inlineStr">
         <is>
           <t>分布式图神经网络</t>
         </is>
       </c>
-      <c r="F39" s="10" t="inlineStr">
+      <c r="F39" s="9" t="inlineStr">
         <is>
           <t>图神经网络引导的安全值函数</t>
         </is>
       </c>
-      <c r="G39" s="10" t="inlineStr">
+      <c r="G39" s="9" t="inlineStr">
         <is>
           <t>安全约束</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1" s="7">
-      <c r="A40" s="6" t="inlineStr">
+    <row r="40" ht="13.5" customHeight="1" s="6">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>PIN-WM Learning Physics-INformed World Models for Non-Prehensile Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>PIN-WM: Learning Physics-INformed World Models for Non-Prehensile Manipulation</t>
         </is>
       </c>
-      <c r="C40" s="10" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>非抓握操作</t>
         </is>
       </c>
-      <c r="D40" s="10" t="inlineStr">
+      <c r="D40" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E40" s="10" t="inlineStr">
+      <c r="E40" s="9" t="inlineStr">
         <is>
           <t>物理信息世界模型</t>
         </is>
       </c>
-      <c r="F40" s="10" t="inlineStr">
+      <c r="F40" s="9" t="inlineStr">
         <is>
           <t>差分渲染</t>
         </is>
       </c>
-      <c r="G40" s="10" t="inlineStr">
+      <c r="G40" s="9" t="inlineStr">
         <is>
           <t>模拟到现实</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="13.5" customHeight="1" s="7">
-      <c r="A41" s="6" t="inlineStr">
+    <row r="41" ht="13.5" customHeight="1" s="6">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>Sim-and-Real Co-Training A Simple Recipe for Vision-Based Robotic Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Sim-and-Real Co-Training: A Simple Recipe for Vision-Based Robotic Manipulation</t>
         </is>
       </c>
-      <c r="C41" s="10" t="inlineStr">
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="D41" s="10" t="inlineStr">
+      <c r="D41" s="9" t="inlineStr">
         <is>
           <t>真实世界任务</t>
         </is>
       </c>
-      <c r="E41" s="10" t="inlineStr">
+      <c r="E41" s="9" t="inlineStr">
         <is>
           <t>模拟-真实协同训练</t>
         </is>
       </c>
-      <c r="F41" s="10" t="inlineStr">
+      <c r="F41" s="9" t="inlineStr">
         <is>
           <t>模拟数据增强</t>
         </is>
       </c>
-      <c r="G41" s="10" t="inlineStr">
+      <c r="G41" s="9" t="inlineStr">
         <is>
           <t>性能提升</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="13.5" customHeight="1" s="7">
-      <c r="A42" s="6" t="inlineStr">
+    <row r="42" ht="13.5" customHeight="1" s="6">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>SpatialVLA Exploring Spatial Representations for Visual-Language-Action Models.pdf</t>
         </is>
       </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>SpatialVLA: Exploring Spatial Representations for Visual-Language-Action Model</t>
         </is>
       </c>
-      <c r="C42" s="10" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>视觉-语言-动作模型</t>
         </is>
       </c>
-      <c r="D42" s="10" t="inlineStr">
+      <c r="D42" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E42" s="10" t="inlineStr">
+      <c r="E42" s="9" t="inlineStr">
         <is>
           <t>自回归解码</t>
         </is>
       </c>
-      <c r="F42" s="10" t="inlineStr">
+      <c r="F42" s="9" t="inlineStr">
         <is>
           <t>自适应动作网格</t>
         </is>
       </c>
-      <c r="G42" s="6" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>3D场景空间理解</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="13.5" customHeight="1" s="7">
-      <c r="A43" s="6" t="inlineStr">
+    <row r="43" ht="13.5" customHeight="1" s="6">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Sketch-to-Skill Bootstrapping Robot Learning with Human Drawn Trajectory Sketches.pdf</t>
         </is>
       </c>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Sketch-to-Skill: Bootstrapping Robot Learning with Human Drawn Trajectory Sketches</t>
         </is>
       </c>
-      <c r="C43" s="10" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D43" s="10" t="inlineStr">
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E43" s="10" t="inlineStr">
+      <c r="E43" s="9" t="inlineStr">
         <is>
           <t>强化学习</t>
         </is>
       </c>
-      <c r="F43" s="10" t="inlineStr">
+      <c r="F43" s="9" t="inlineStr">
         <is>
           <t>草图生成技能</t>
         </is>
       </c>
-      <c r="G43" s="10" t="inlineStr">
+      <c r="G43" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="13.5" customHeight="1" s="7">
-      <c r="A44" s="6" t="inlineStr">
+    <row r="44" ht="13.5" customHeight="1" s="6">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>STDArm Transfer Visuomotor Policy From Static Data Training to Dynamic Robot Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>STDArm: Transferring Visuomotor Policies From Static Data Training to Dynamic Robot Manipulation</t>
         </is>
       </c>
-      <c r="C44" s="10" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="D44" s="10" t="inlineStr">
+      <c r="D44" s="9" t="inlineStr">
         <is>
           <t>动态平台</t>
         </is>
       </c>
-      <c r="E44" s="10" t="inlineStr">
+      <c r="E44" s="9" t="inlineStr">
         <is>
           <t>动作管理器</t>
         </is>
       </c>
-      <c r="F44" s="10" t="inlineStr">
+      <c r="F44" s="9" t="inlineStr">
         <is>
           <t>实时动作校正</t>
         </is>
       </c>
-      <c r="G44" s="10" t="inlineStr">
+      <c r="G44" s="9" t="inlineStr">
         <is>
           <t>厘米级精度</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="13.5" customHeight="1" s="7">
-      <c r="A45" s="6" t="inlineStr">
+    <row r="45" ht="13.5" customHeight="1" s="6">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>IMLE Policy Fast and Sample Efficient Visuomotor Policy Learning via Implicit Maximum Likelihood Est.pdf</t>
         </is>
       </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>IMLE Policy: Fast and Sample Efficient Visuomotor Policy Learning via Implicit Maximum Likelihood Estimation</t>
         </is>
       </c>
-      <c r="C45" s="10" t="inlineStr">
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>行为克隆</t>
         </is>
       </c>
-      <c r="D45" s="10" t="inlineStr">
+      <c r="D45" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E45" s="10" t="inlineStr">
+      <c r="E45" s="9" t="inlineStr">
         <is>
           <t>隐式最大似然估计</t>
         </is>
       </c>
-      <c r="F45" s="10" t="inlineStr">
+      <c r="F45" s="9" t="inlineStr">
         <is>
           <t>样本高效</t>
         </is>
       </c>
-      <c r="G45" s="10" t="inlineStr">
+      <c r="G45" s="9" t="inlineStr">
         <is>
           <t>多模态动作分布</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="13.5" customHeight="1" s="7">
-      <c r="A46" s="6" t="inlineStr">
+    <row r="46" ht="13.5" customHeight="1" s="6">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>Global Contact-Rich Planning with Sparsity-Rich Semidefinite Relaxations.pdf</t>
         </is>
       </c>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>Global Contact-Rich Planning with Sparsity-Rich Semidefinite Relaxations</t>
         </is>
       </c>
-      <c r="C46" s="10" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>接触丰富的规划</t>
         </is>
       </c>
-      <c r="D46" s="10" t="inlineStr">
+      <c r="D46" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E46" s="10" t="inlineStr">
+      <c r="E46" s="9" t="inlineStr">
         <is>
           <t>稀疏半定松弛</t>
         </is>
       </c>
-      <c r="F46" s="10" t="inlineStr">
+      <c r="F46" s="9" t="inlineStr">
         <is>
           <t>稀疏性利用</t>
         </is>
       </c>
-      <c r="G46" s="10" t="inlineStr">
+      <c r="G46" s="9" t="inlineStr">
         <is>
           <t>全局最优轨迹</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="13.5" customHeight="1" s="7">
-      <c r="A47" s="6" t="inlineStr">
+    <row r="47" ht="13.5" customHeight="1" s="6">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>Joint State and Noise Covariance Estimation.pdf</t>
         </is>
       </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Joint State and Noise Covariance Estimation</t>
         </is>
       </c>
-      <c r="C47" s="10" t="inlineStr">
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>噪声协方差估计</t>
         </is>
       </c>
-      <c r="D47" s="6" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>SLAM</t>
         </is>
       </c>
-      <c r="E47" s="10" t="inlineStr">
+      <c r="E47" s="9" t="inlineStr">
         <is>
           <t>凸优化</t>
         </is>
       </c>
-      <c r="F47" s="10" t="inlineStr">
+      <c r="F47" s="9" t="inlineStr">
         <is>
           <t>联合最大后验估计</t>
         </is>
       </c>
-      <c r="G47" s="10" t="inlineStr">
+      <c r="G47" s="9" t="inlineStr">
         <is>
           <t>噪声协方差矩阵</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="13.5" customHeight="1" s="7">
-      <c r="A48" s="6" t="inlineStr">
+    <row r="48" ht="13.5" customHeight="1" s="6">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>PartInstruct Part-level Instruction Following for Fine-grained Robot Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>PartInstruct: A Large-Scale Benchmark for Fine-Grained Robot Manipulation with Part-Level Instructions</t>
         </is>
       </c>
-      <c r="C48" s="10" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="D48" s="10" t="inlineStr">
+      <c r="D48" s="9" t="inlineStr">
         <is>
           <t>细粒度操作</t>
         </is>
       </c>
-      <c r="E48" s="10" t="inlineStr">
+      <c r="E48" s="9" t="inlineStr">
         <is>
           <t>视觉-语言策略学习</t>
         </is>
       </c>
-      <c r="F48" s="10" t="inlineStr">
+      <c r="F48" s="9" t="inlineStr">
         <is>
           <t>部件级指令</t>
         </is>
       </c>
-      <c r="G48" s="10" t="inlineStr">
+      <c r="G48" s="9" t="inlineStr">
         <is>
           <t>部件级推理</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="13.5" customHeight="1" s="7">
-      <c r="A49" s="6" t="inlineStr">
+    <row r="49" ht="13.5" customHeight="1" s="6">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>RoboVerse A Unified Platform, Benchmark and Dataset for Scalable and Generalizable Robot Learning.pdf</t>
         </is>
       </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Benchmark for Scalable and Generalizable Robot Learning</t>
         </is>
       </c>
-      <c r="C49" s="10" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D49" s="10" t="inlineStr">
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>模拟环境</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>METASIM</t>
         </is>
       </c>
-      <c r="F49" s="10" t="inlineStr">
+      <c r="F49" s="9" t="inlineStr">
         <is>
           <t>可扩展的模拟平台</t>
         </is>
       </c>
-      <c r="G49" s="10" t="inlineStr">
+      <c r="G49" s="9" t="inlineStr">
         <is>
           <t>模拟到现实的转移</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="13.5" customHeight="1" s="7">
-      <c r="A50" s="6" t="inlineStr">
+    <row r="50" ht="13.5" customHeight="1" s="6">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>DRO Doppler-Aware Direct Radar Odometry with Gyroscope.pdf</t>
         </is>
       </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>Autonomous Space Robotics Lab University of Toronto Institute for Aerospace Studies (UTIAS), Toronto, Ontario, Canada Department of Computer, Control, and Management Engineering Antonio Ruberti Sapienza University of Rome</t>
         </is>
       </c>
-      <c r="C50" s="10" t="inlineStr">
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>雷达测姿</t>
         </is>
       </c>
-      <c r="D50" s="10" t="inlineStr">
+      <c r="D50" s="9" t="inlineStr">
         <is>
           <t>自动驾驶</t>
         </is>
       </c>
-      <c r="E50" s="10" t="inlineStr">
+      <c r="E50" s="9" t="inlineStr">
         <is>
           <t>直接雷达测姿</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>Doppler效应</t>
         </is>
       </c>
-      <c r="G50" s="10" t="inlineStr">
+      <c r="G50" s="9" t="inlineStr">
         <is>
           <t>性能提升</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="13.5" customHeight="1" s="7">
-      <c r="A51" s="6" t="inlineStr">
+    <row r="51" ht="13.5" customHeight="1" s="6">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>A low-cost and lightweight 6 DoF bimanual arm for dynamic and contact-rich manipulation.pdf</t>
         </is>
       </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>A low-cost and lightweight 6 DoF bimanual arm for dynamic and contact-rich manipulation</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>动态操作</t>
         </is>
       </c>
-      <c r="D51" s="10" t="inlineStr">
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>动态和接触丰富的操作</t>
         </is>
       </c>
-      <c r="E51" s="10" t="inlineStr">
+      <c r="E51" s="9" t="inlineStr">
         <is>
           <t>低惯性</t>
         </is>
       </c>
-      <c r="F51" s="10" t="inlineStr">
+      <c r="F51" s="9" t="inlineStr">
         <is>
           <t>低成本</t>
         </is>
       </c>
-      <c r="G51" s="10" t="inlineStr">
+      <c r="G51" s="9" t="inlineStr">
         <is>
           <t>动态操作</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="13.5" customHeight="1" s="7">
-      <c r="A52" s="6" t="inlineStr">
+    <row r="52" ht="13.5" customHeight="1" s="6">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>You Only Teach Once Learn One-Shot Bimanual Robotic Manipulation from Video Demonstrations.pdf</t>
         </is>
       </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>You Only Teach Once: Learn One-Shot Bimanual Robotic Manipulation from Video Demonstrations</t>
         </is>
       </c>
-      <c r="C52" s="10" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>双臂机器人操作</t>
         </is>
       </c>
-      <c r="D52" s="10" t="inlineStr">
+      <c r="D52" s="9" t="inlineStr">
         <is>
           <t>视频演示学习</t>
         </is>
       </c>
-      <c r="E52" s="10" t="inlineStr">
+      <c r="E52" s="9" t="inlineStr">
         <is>
           <t>扩散策略</t>
         </is>
       </c>
-      <c r="F52" s="10" t="inlineStr">
+      <c r="F52" s="9" t="inlineStr">
         <is>
           <t>单次教学</t>
         </is>
       </c>
-      <c r="G52" s="10" t="inlineStr">
+      <c r="G52" s="9" t="inlineStr">
         <is>
           <t>长时复杂任务</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="13.5" customHeight="1" s="7">
-      <c r="A53" s="6" t="inlineStr">
+    <row r="53" ht="13.5" customHeight="1" s="6">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>Meta-Learning Online Dynamics Model Adaptation in Off-Road Autonomous Driving.pdf</t>
         </is>
       </c>
-      <c r="B53" s="6" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>Meta-Learning Online Dynamics Model Adaptation in Off-Road Autonomous Driving</t>
         </is>
       </c>
-      <c r="C53" s="10" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>离线元学习</t>
         </is>
       </c>
-      <c r="D53" s="10" t="inlineStr">
+      <c r="D53" s="9" t="inlineStr">
         <is>
           <t>越野自动驾驶</t>
         </is>
       </c>
-      <c r="E53" s="10" t="inlineStr">
+      <c r="E53" s="9" t="inlineStr">
         <is>
           <t>卡尔曼滤波</t>
         </is>
       </c>
-      <c r="F53" s="10" t="inlineStr">
+      <c r="F53" s="9" t="inlineStr">
         <is>
           <t>元学习参数</t>
         </is>
       </c>
-      <c r="G53" s="10" t="inlineStr">
+      <c r="G53" s="9" t="inlineStr">
         <is>
           <t>模型预测精度</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="13.5" customHeight="1" s="7">
-      <c r="A54" s="6" t="inlineStr">
+    <row r="54" ht="13.5" customHeight="1" s="6">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>Coherance-based Approximate Derivatives via Web of Affine Spaces Optimization.pdf</t>
         </is>
       </c>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>Coherence-based Approximate Derivatives via Web of Affine Spaces Optimization</t>
         </is>
       </c>
-      <c r="C54" s="10" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>导数计算</t>
         </is>
       </c>
-      <c r="D54" s="10" t="inlineStr">
+      <c r="D54" s="9" t="inlineStr">
         <is>
           <t>机器人优化</t>
         </is>
       </c>
-      <c r="E54" s="10" t="inlineStr">
+      <c r="E54" s="9" t="inlineStr">
         <is>
           <t>仿射空间优化</t>
         </is>
       </c>
-      <c r="F54" s="10" t="inlineStr">
+      <c r="F54" s="9" t="inlineStr">
         <is>
           <t>一致性</t>
         </is>
       </c>
-      <c r="G54" s="10" t="inlineStr">
+      <c r="G54" s="9" t="inlineStr">
         <is>
           <t>效率提升</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="13.5" customHeight="1" s="7">
-      <c r="A55" s="6" t="inlineStr">
+    <row r="55" ht="13.5" customHeight="1" s="6">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>Learning Interpretable Features from Interventions.pdf</t>
         </is>
       </c>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>Learning Interpretable Features from Interventions</t>
         </is>
       </c>
-      <c r="C55" s="10" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>机器人学习, 人机交互</t>
         </is>
       </c>
-      <c r="D55" s="10" t="inlineStr">
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>家庭任务, 助老机器人</t>
         </is>
       </c>
-      <c r="E55" s="10" t="inlineStr">
+      <c r="E55" s="9" t="inlineStr">
         <is>
           <t>特征预测网络, 策略网络</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr">
+      <c r="F55" s="9" t="inlineStr">
         <is>
           <t>可解释性, 特征学习</t>
         </is>
       </c>
-      <c r="G55" s="10" t="inlineStr">
+      <c r="G55" s="9" t="inlineStr">
         <is>
           <t>性能提升, 信任增强</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="13.5" customHeight="1" s="7">
-      <c r="A56" s="6" t="inlineStr">
+    <row r="56" ht="13.5" customHeight="1" s="6">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>Interface-level Intent Inference for Environment-agnostic Robot Teleoperation Assistance.pdf</t>
         </is>
       </c>
-      <c r="B56" s="6" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>Interface-Level Intent Inference for Environment-Agnostic Robot Teleoperation Assistance</t>
         </is>
       </c>
-      <c r="C56" s="10" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>机器人遥操作</t>
         </is>
       </c>
-      <c r="D56" s="10" t="inlineStr">
+      <c r="D56" s="9" t="inlineStr">
         <is>
           <t>辅助机器人</t>
         </is>
       </c>
-      <c r="E56" s="10" t="inlineStr">
+      <c r="E56" s="9" t="inlineStr">
         <is>
           <t>数据驱动建模</t>
         </is>
       </c>
-      <c r="F56" s="10" t="inlineStr">
+      <c r="F56" s="9" t="inlineStr">
         <is>
           <t>接口级意图推理</t>
         </is>
       </c>
-      <c r="G56" s="10" t="inlineStr">
+      <c r="G56" s="9" t="inlineStr">
         <is>
           <t>减少碰撞</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="13.5" customHeight="1" s="7">
-      <c r="A57" s="6" t="inlineStr">
+    <row r="57" ht="13.5" customHeight="1" s="6">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>Collaborative Object Transportation in Space via Impact Interactions.pdf</t>
         </is>
       </c>
-      <c r="B57" s="6" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>Collaborative Object Transportation in Space via Impact Interactions</t>
         </is>
       </c>
-      <c r="C57" s="10" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>空间环境下的协作运输</t>
         </is>
       </c>
-      <c r="D57" s="10" t="inlineStr">
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>微重力环境</t>
         </is>
       </c>
-      <c r="E57" s="10" t="inlineStr">
+      <c r="E57" s="9" t="inlineStr">
         <is>
           <t>基于碰撞的交互</t>
         </is>
       </c>
-      <c r="F57" s="10" t="inlineStr">
+      <c r="F57" s="9" t="inlineStr">
         <is>
           <t>碰撞鲁棒的规划</t>
         </is>
       </c>
-      <c r="G57" s="10" t="inlineStr">
+      <c r="G57" s="9" t="inlineStr">
         <is>
           <t>协作机器人通过碰撞改变物体运动状态</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="13.5" customHeight="1" s="7">
-      <c r="A58" s="6" t="inlineStr">
+    <row r="58" ht="13.5" customHeight="1" s="6">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>AMO Adaptive Motion Optimization for Hyper-Dexterous Humanoid Whole-Body Control.pdf</t>
         </is>
       </c>
-      <c r="B58" s="6" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>Hyper-Dexterous Humanoid Whole-Body Control</t>
         </is>
       </c>
-      <c r="C58" s="10" t="inlineStr">
+      <c r="C58" s="9" t="inlineStr">
         <is>
           <t>人形机器人</t>
         </is>
       </c>
-      <c r="D58" s="10" t="inlineStr">
+      <c r="D58" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E58" s="10" t="inlineStr">
+      <c r="E58" s="9" t="inlineStr">
         <is>
           <t>强化学习</t>
         </is>
       </c>
-      <c r="F58" s="10" t="inlineStr">
+      <c r="F58" s="9" t="inlineStr">
         <is>
           <t>自适应运动优化</t>
         </is>
       </c>
-      <c r="G58" s="10" t="inlineStr">
+      <c r="G58" s="9" t="inlineStr">
         <is>
           <t>全身控制</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="13.5" customHeight="1" s="7">
-      <c r="A59" s="6" t="inlineStr">
+    <row r="59" ht="13.5" customHeight="1" s="6">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>DexWild Dexterous Human Interactions for In-the-Wild Robot Policies.pdf</t>
         </is>
       </c>
-      <c r="B59" s="6" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>In-the-Wild Robot Policies</t>
         </is>
       </c>
-      <c r="C59" s="10" t="inlineStr">
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>机器人政策</t>
         </is>
       </c>
-      <c r="D59" s="10" t="inlineStr">
+      <c r="D59" s="9" t="inlineStr">
         <is>
           <t>真实世界环境</t>
         </is>
       </c>
-      <c r="E59" s="10" t="inlineStr">
+      <c r="E59" s="9" t="inlineStr">
         <is>
           <t>行为克隆</t>
         </is>
       </c>
-      <c r="F59" s="10" t="inlineStr">
+      <c r="F59" s="9" t="inlineStr">
         <is>
           <t>大规模人类数据收集</t>
         </is>
       </c>
-      <c r="G59" s="10" t="inlineStr">
+      <c r="G59" s="9" t="inlineStr">
         <is>
           <t>泛化性能提升</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="13.5" customHeight="1" s="7">
-      <c r="A60" s="6" t="inlineStr">
+    <row r="60" ht="13.5" customHeight="1" s="6">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>Flying Hand End-Effector-Centric Framework for Versatile Aerial Manipulation Teleoperation and Polic.pdf</t>
         </is>
       </c>
-      <c r="B60" s="6" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>Flying Hand: End-Effector-Centric Framework for Versatile Aerial Manipulation Teleoperation and Policy Learning</t>
         </is>
       </c>
-      <c r="C60" s="10" t="inlineStr">
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>空中操作</t>
         </is>
       </c>
-      <c r="D60" s="10" t="inlineStr">
+      <c r="D60" s="9" t="inlineStr">
         <is>
           <t>远程操作</t>
         </is>
       </c>
-      <c r="E60" s="10" t="inlineStr">
+      <c r="E60" s="9" t="inlineStr">
         <is>
           <t>末端执行器为中心</t>
         </is>
       </c>
-      <c r="F60" s="10" t="inlineStr">
+      <c r="F60" s="9" t="inlineStr">
         <is>
           <t>模仿学习</t>
         </is>
       </c>
-      <c r="G60" s="10" t="inlineStr">
+      <c r="G60" s="9" t="inlineStr">
         <is>
           <t>末端执行器跟踪</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="13.5" customHeight="1" s="7">
-      <c r="A61" s="6" t="inlineStr">
+    <row r="61" ht="13.5" customHeight="1" s="6">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>Dynamic Safety in Complex Environments Synthesizing Safety Filters with Poisson’s Equation.pdf</t>
         </is>
       </c>
-      <c r="B61" s="6" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Dynamic Safety in Complex Environments: Synthesizing Safety Filters with Poisson Equation</t>
         </is>
       </c>
-      <c r="C61" s="10" t="inlineStr">
+      <c r="C61" s="9" t="inlineStr">
         <is>
           <t>动态安全</t>
         </is>
       </c>
-      <c r="D61" s="10" t="inlineStr">
+      <c r="D61" s="9" t="inlineStr">
         <is>
           <t>复杂环境</t>
         </is>
       </c>
-      <c r="E61" s="10" t="inlineStr">
+      <c r="E61" s="9" t="inlineStr">
         <is>
           <t>泊松方程</t>
         </is>
       </c>
-      <c r="F61" s="10" t="inlineStr">
+      <c r="F61" s="9" t="inlineStr">
         <is>
           <t>安全滤波器合成</t>
         </is>
       </c>
-      <c r="G61" s="10" t="inlineStr">
+      <c r="G61" s="9" t="inlineStr">
         <is>
           <t>安全集生成</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="13.5" customHeight="1" s="7">
-      <c r="A62" s="6" t="inlineStr">
+    <row r="62" ht="13.5" customHeight="1" s="6">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>RLDG Robotic Generalist Policy Distillation via Reinforcement Learning.pdf</t>
         </is>
       </c>
-      <c r="B62" s="6" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>Reinforcement Learning Distilled Generalists (RLDG)</t>
         </is>
       </c>
-      <c r="C62" s="10" t="inlineStr">
+      <c r="C62" s="9" t="inlineStr">
         <is>
           <t>机器人基础模型</t>
         </is>
       </c>
-      <c r="D62" s="10" t="inlineStr">
+      <c r="D62" s="9" t="inlineStr">
         <is>
           <t>精确操作任务</t>
         </is>
       </c>
-      <c r="E62" s="10" t="inlineStr">
+      <c r="E62" s="9" t="inlineStr">
         <is>
           <t>强化学习</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>RLDG</t>
         </is>
       </c>
-      <c r="G62" s="10" t="inlineStr">
+      <c r="G62" s="9" t="inlineStr">
         <is>
           <t>性能提升</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="13.5" customHeight="1" s="7">
-      <c r="A63" s="6" t="inlineStr">
+    <row r="63" ht="13.5" customHeight="1" s="6">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>Safe Beyond the Horizon Efficient Sampling-based MPC with Neural Control Barrier Functions.pdf</t>
         </is>
       </c>
-      <c r="B63" s="6" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>Safe Beyond the Horizon: Efficient Sampling-based MPC with Neural Control Barrier Functions</t>
         </is>
       </c>
-      <c r="C63" s="10" t="inlineStr">
+      <c r="C63" s="9" t="inlineStr">
         <is>
           <t>模型预测控制</t>
         </is>
       </c>
-      <c r="D63" s="10" t="inlineStr">
+      <c r="D63" s="9" t="inlineStr">
         <is>
           <t>自动驾驶</t>
         </is>
       </c>
-      <c r="E63" s="10" t="inlineStr">
+      <c r="E63" s="9" t="inlineStr">
         <is>
           <t>采样</t>
         </is>
       </c>
-      <c r="F63" s="10" t="inlineStr">
+      <c r="F63" s="9" t="inlineStr">
         <is>
           <t>神经网络控制屏障函数</t>
         </is>
       </c>
-      <c r="G63" s="10" t="inlineStr">
+      <c r="G63" s="9" t="inlineStr">
         <is>
           <t>安全性</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="13.5" customHeight="1" s="7">
-      <c r="A64" s="6" t="inlineStr">
+    <row r="64" ht="13.5" customHeight="1" s="6">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>BeamDojo Learning Agile Humanoid Locomotion on Sparse Footholds.pdf</t>
         </is>
       </c>
-      <c r="B64" s="6" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>Locomotion on Sparse Footholds</t>
         </is>
       </c>
-      <c r="C64" s="10" t="inlineStr">
+      <c r="C64" s="9" t="inlineStr">
         <is>
           <t>稀疏立足点地形</t>
         </is>
       </c>
-      <c r="D64" s="10" t="inlineStr">
+      <c r="D64" s="9" t="inlineStr">
         <is>
           <t>人形机器人</t>
         </is>
       </c>
-      <c r="E64" s="10" t="inlineStr">
+      <c r="E64" s="9" t="inlineStr">
         <is>
           <t>强化学习</t>
         </is>
       </c>
-      <c r="F64" s="10" t="inlineStr">
+      <c r="F64" s="9" t="inlineStr">
         <is>
           <t>双评论家</t>
         </is>
       </c>
-      <c r="G64" s="10" t="inlineStr">
+      <c r="G64" s="9" t="inlineStr">
         <is>
           <t>精确的脚部放置</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="13.5" customHeight="1" s="7">
-      <c r="A65" s="6" t="inlineStr">
+    <row r="65" ht="13.5" customHeight="1" s="6">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>Robot Data Curation with Mutual Information Estimators.pdf</t>
         </is>
       </c>
-      <c r="B65" s="6" t="inlineStr">
+      <c r="B65" s="5" t="inlineStr">
         <is>
           <t>Robot Data Curation with Mutual Information Estimators</t>
         </is>
       </c>
-      <c r="C65" s="10" t="inlineStr">
+      <c r="C65" s="9" t="inlineStr">
         <is>
           <t>数据质量评估</t>
         </is>
       </c>
-      <c r="D65" s="10" t="inlineStr">
+      <c r="D65" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="E65" s="10" t="inlineStr">
+      <c r="E65" s="9" t="inlineStr">
         <is>
           <t>互信息估计</t>
         </is>
       </c>
-      <c r="F65" s="6" t="inlineStr">
+      <c r="F65" s="5" t="inlineStr">
         <is>
           <t>DemInf方法</t>
         </is>
       </c>
-      <c r="G65" s="10" t="inlineStr">
+      <c r="G65" s="9" t="inlineStr">
         <is>
           <t>提高策略性能</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="13.5" customHeight="1" s="7">
-      <c r="A66" s="6" t="inlineStr">
+    <row r="66" ht="13.5" customHeight="1" s="6">
+      <c r="A66" s="5" t="inlineStr">
         <is>
           <t>Enhancing Autonomous Driving Systems with On-Board Deployed Large Language Models.pdf</t>
         </is>
       </c>
-      <c r="B66" s="6" t="inlineStr">
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>Enhancing Autonomous Driving Systems with On-Board Deployed Large Language Models</t>
         </is>
       </c>
-      <c r="C66" s="10" t="inlineStr">
+      <c r="C66" s="9" t="inlineStr">
         <is>
           <t>自主驾驶系统</t>
         </is>
       </c>
-      <c r="D66" s="10" t="inlineStr">
+      <c r="D66" s="9" t="inlineStr">
         <is>
           <t>人机交互</t>
         </is>
       </c>
-      <c r="E66" s="10" t="inlineStr">
+      <c r="E66" s="9" t="inlineStr">
         <is>
           <t>模型预测控制</t>
         </is>
       </c>
-      <c r="F66" s="10" t="inlineStr">
+      <c r="F66" s="9" t="inlineStr">
         <is>
           <t>边缘部署</t>
         </is>
       </c>
-      <c r="G66" s="10" t="inlineStr">
+      <c r="G66" s="9" t="inlineStr">
         <is>
           <t>决策准确性</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="13.5" customHeight="1" s="7">
-      <c r="A67" s="6" t="inlineStr">
+    <row r="67" ht="13.5" customHeight="1" s="6">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>Vysics Object Reconstruction Under Occlusion by Fusing Vision and Contact-Rich Physics.pdf</t>
         </is>
       </c>
-      <c r="B67" s="6" t="inlineStr">
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>Fusing Vision and Contact-Rich Physics</t>
         </is>
       </c>
-      <c r="C67" s="10" t="inlineStr">
+      <c r="C67" s="9" t="inlineStr">
         <is>
           <t>物体建模</t>
         </is>
       </c>
-      <c r="D67" s="10" t="inlineStr">
+      <c r="D67" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E67" s="10" t="inlineStr">
+      <c r="E67" s="9" t="inlineStr">
         <is>
           <t>视觉与物理融合</t>
         </is>
       </c>
-      <c r="F67" s="10" t="inlineStr">
+      <c r="F67" s="9" t="inlineStr">
         <is>
           <t>接触丰富的物理信息融合</t>
         </is>
       </c>
-      <c r="G67" s="10" t="inlineStr">
+      <c r="G67" s="9" t="inlineStr">
         <is>
           <t>几何精度提升</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="13.5" customHeight="1" s="7">
-      <c r="A68" s="6" t="inlineStr">
+    <row r="68" ht="13.5" customHeight="1" s="6">
+      <c r="A68" s="5" t="inlineStr">
         <is>
           <t>Optimal Interactive Learning on the Job via Facility Location Planning.pdf</t>
         </is>
       </c>
-      <c r="B68" s="6" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>Optimal Interactive Learning on the Job via Facility Location Planning</t>
         </is>
       </c>
-      <c r="C68" s="10" t="inlineStr">
+      <c r="C68" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D68" s="10" t="inlineStr">
+      <c r="D68" s="9" t="inlineStr">
         <is>
           <t>协作机器人</t>
         </is>
       </c>
-      <c r="E68" s="10" t="inlineStr">
+      <c r="E68" s="9" t="inlineStr">
         <is>
           <t>设施选址规划</t>
         </is>
       </c>
-      <c r="F68" s="10" t="inlineStr">
+      <c r="F68" s="9" t="inlineStr">
         <is>
           <t>多任务交互式机器人学习</t>
         </is>
       </c>
-      <c r="G68" s="10" t="inlineStr">
+      <c r="G68" s="9" t="inlineStr">
         <is>
           <t>最小化人类负担</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="13.5" customHeight="1" s="7">
-      <c r="A69" s="6" t="inlineStr">
+    <row r="69" ht="13.5" customHeight="1" s="6">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>Gain Tuning Is Not What You Need Reward Gain Adaptation for Constrained Locomotion Learning.pdf</t>
         </is>
       </c>
-      <c r="B69" s="6" t="inlineStr">
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>Gain Tuning Is Not What You Need: Reward Gain Adaptation for Constrained Locomotion Learning</t>
         </is>
       </c>
-      <c r="C69" s="10" t="inlineStr">
+      <c r="C69" s="9" t="inlineStr">
         <is>
           <t>机器人步态学习</t>
         </is>
       </c>
-      <c r="D69" s="10" t="inlineStr">
+      <c r="D69" s="9" t="inlineStr">
         <is>
           <t>四足机器人</t>
         </is>
       </c>
-      <c r="E69" s="10" t="inlineStr">
+      <c r="E69" s="9" t="inlineStr">
         <is>
           <t>强化学习</t>
         </is>
       </c>
-      <c r="F69" s="10" t="inlineStr">
+      <c r="F69" s="9" t="inlineStr">
         <is>
           <t>奖励增益调节</t>
         </is>
       </c>
-      <c r="G69" s="10" t="inlineStr">
+      <c r="G69" s="9" t="inlineStr">
         <is>
           <t>约束满足</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="13.5" customHeight="1" s="7">
-      <c r="A70" s="6" t="inlineStr">
+    <row r="70" ht="13.5" customHeight="1" s="6">
+      <c r="A70" s="5" t="inlineStr">
         <is>
           <t>Human2LocoMan Learning Versatile Quadrupedal Manipulation with Human Pretraining.pdf</t>
         </is>
       </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>Manipulation with Human Pretraining</t>
         </is>
       </c>
-      <c r="C70" s="10" t="inlineStr">
+      <c r="C70" s="9" t="inlineStr">
         <is>
           <t>四足机器人操作</t>
         </is>
       </c>
-      <c r="D70" s="10" t="inlineStr">
+      <c r="D70" s="9" t="inlineStr">
         <is>
           <t>家庭任务</t>
         </is>
       </c>
-      <c r="E70" s="10" t="inlineStr">
+      <c r="E70" s="9" t="inlineStr">
         <is>
           <t>模块化跨形态Transformer (MXT)</t>
         </is>
       </c>
-      <c r="F70" s="10" t="inlineStr">
+      <c r="F70" s="9" t="inlineStr">
         <is>
           <t>人类预训练</t>
         </is>
       </c>
-      <c r="G70" s="10" t="inlineStr">
+      <c r="G70" s="9" t="inlineStr">
         <is>
           <t>正迁移</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="13.5" customHeight="1" s="7">
-      <c r="A71" s="6" t="inlineStr">
+    <row r="71" ht="13.5" customHeight="1" s="6">
+      <c r="A71" s="5" t="inlineStr">
         <is>
           <t>Particle-Grid Neural Dynamics for Learning Deformable Object Models from RGB-D Videos.pdf</t>
         </is>
       </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>Particle-Grid Neural Dynamics for Learning Deformable Object Models from RGB-D Videos</t>
         </is>
       </c>
-      <c r="C71" s="10" t="inlineStr">
+      <c r="C71" s="9" t="inlineStr">
         <is>
           <t>可变形物体建模</t>
         </is>
       </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="D71" s="5" t="inlineStr">
         <is>
           <t>RGB-D视频</t>
         </is>
       </c>
-      <c r="E71" s="10" t="inlineStr">
+      <c r="E71" s="9" t="inlineStr">
         <is>
           <t>粒子-网格神经网络动力学</t>
         </is>
       </c>
-      <c r="F71" s="10" t="inlineStr">
+      <c r="F71" s="9" t="inlineStr">
         <is>
           <t>混合粒子-网格表示</t>
         </is>
       </c>
-      <c r="G71" s="10" t="inlineStr">
+      <c r="G71" s="9" t="inlineStr">
         <is>
           <t>高精度动力学预测</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="13.5" customHeight="1" s="7">
-      <c r="A72" s="6" t="inlineStr">
+    <row r="72" ht="13.5" customHeight="1" s="6">
+      <c r="A72" s="5" t="inlineStr">
         <is>
           <t>Interruption Handling for Conversational Robots.pdf</t>
         </is>
       </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>Interruption Handling for Conversational Robots</t>
         </is>
       </c>
-      <c r="C72" s="10" t="inlineStr">
+      <c r="C72" s="9" t="inlineStr">
         <is>
           <t>人机交互</t>
         </is>
       </c>
-      <c r="D72" s="10" t="inlineStr">
+      <c r="D72" s="9" t="inlineStr">
         <is>
           <t>对话机器人</t>
         </is>
       </c>
-      <c r="E72" s="10" t="inlineStr">
+      <c r="E72" s="9" t="inlineStr">
         <is>
           <t>意图分类</t>
         </is>
       </c>
-      <c r="F72" s="10" t="inlineStr">
+      <c r="F72" s="9" t="inlineStr">
         <is>
           <t>实时中断处理</t>
         </is>
       </c>
-      <c r="G72" s="10" t="inlineStr">
+      <c r="G72" s="9" t="inlineStr">
         <is>
           <t>中断处理策略</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="13.5" customHeight="1" s="7">
-      <c r="A73" s="6" t="inlineStr">
+    <row r="73" ht="13.5" customHeight="1" s="6">
+      <c r="A73" s="5" t="inlineStr">
         <is>
           <t>Demonstrating a Control Framework for Physical Human-Robot Interaction Toward Industrial Application.pdf</t>
         </is>
       </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>Demonstrating a Control Framework for Physical Human-Robot Interaction Toward Industrial Applications</t>
         </is>
       </c>
-      <c r="C73" s="10" t="inlineStr">
+      <c r="C73" s="9" t="inlineStr">
         <is>
           <t>物理人机交互</t>
         </is>
       </c>
-      <c r="D73" s="10" t="inlineStr">
+      <c r="D73" s="9" t="inlineStr">
         <is>
           <t>工业应用</t>
         </is>
       </c>
-      <c r="E73" s="10" t="inlineStr">
+      <c r="E73" s="9" t="inlineStr">
         <is>
           <t>力矩控制</t>
         </is>
       </c>
-      <c r="F73" s="10" t="inlineStr">
+      <c r="F73" s="9" t="inlineStr">
         <is>
           <t>低级力矩控制器</t>
         </is>
       </c>
-      <c r="G73" s="10" t="inlineStr">
+      <c r="G73" s="9" t="inlineStr">
         <is>
           <t>工业级性能</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="13.5" customHeight="1" s="7">
-      <c r="A74" s="6" t="inlineStr">
+    <row r="74" ht="13.5" customHeight="1" s="6">
+      <c r="A74" s="5" t="inlineStr">
         <is>
           <t>Tactile sensing enables vertical obstacle negotiation for elongate many-legged robots.pdf</t>
         </is>
       </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="B74" s="5" t="inlineStr">
         <is>
           <t>Tactile sensing enables vertical obstacle negotiation for elongate many-legged robots</t>
         </is>
       </c>
-      <c r="C74" s="10" t="inlineStr">
+      <c r="C74" s="9" t="inlineStr">
         <is>
           <t>多足机器人</t>
         </is>
       </c>
-      <c r="D74" s="10" t="inlineStr">
+      <c r="D74" s="9" t="inlineStr">
         <is>
           <t>复杂地形</t>
         </is>
       </c>
-      <c r="E74" s="10" t="inlineStr">
+      <c r="E74" s="9" t="inlineStr">
         <is>
           <t>触觉传感</t>
         </is>
       </c>
-      <c r="F74" s="10" t="inlineStr">
+      <c r="F74" s="9" t="inlineStr">
         <is>
           <t>垂直障碍攀爬</t>
         </is>
       </c>
-      <c r="G74" s="10" t="inlineStr">
+      <c r="G74" s="9" t="inlineStr">
         <is>
           <t>触觉感知</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="13.5" customHeight="1" s="7">
-      <c r="A75" s="6" t="inlineStr">
+    <row r="75" ht="13.5" customHeight="1" s="6">
+      <c r="A75" s="5" t="inlineStr">
         <is>
           <t>FERMI Flexible Radio Mapping with a Hybrid Propagation Model and Scalable Autonomous Data Collection.pdf</t>
         </is>
       </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="B75" s="5" t="inlineStr">
         <is>
           <t>A Hybrid Propagation Model and Scalable Autonomous Data Collection</t>
         </is>
       </c>
-      <c r="C75" s="10" t="inlineStr">
+      <c r="C75" s="9" t="inlineStr">
         <is>
           <t>无线信号传播建模</t>
         </is>
       </c>
-      <c r="D75" s="10" t="inlineStr">
+      <c r="D75" s="9" t="inlineStr">
         <is>
           <t>多机器人协作</t>
         </is>
       </c>
-      <c r="E75" s="10" t="inlineStr">
+      <c r="E75" s="9" t="inlineStr">
         <is>
           <t>混合传播模型</t>
         </is>
       </c>
-      <c r="F75" s="10" t="inlineStr">
+      <c r="F75" s="9" t="inlineStr">
         <is>
           <t>稀疏数据下的泛化能力</t>
         </is>
       </c>
-      <c r="G75" s="10" t="inlineStr">
+      <c r="G75" s="9" t="inlineStr">
         <is>
           <t>信号强度预测</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="13.5" customHeight="1" s="7">
-      <c r="A76" s="6" t="inlineStr">
+    <row r="76" ht="13.5" customHeight="1" s="6">
+      <c r="A76" s="5" t="inlineStr">
         <is>
           <t>Demonstrating LEAP Hand v2 Low-Cost, Easy-to-Assemble, High-Performance Hand for Robot Learning.pdf</t>
         </is>
       </c>
-      <c r="B76" s="6" t="inlineStr">
+      <c r="B76" s="5" t="inlineStr">
         <is>
           <t>Demonstrating LEAP Hand v2: Hand for Robot Learning</t>
         </is>
       </c>
-      <c r="C76" s="10" t="inlineStr">
+      <c r="C76" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D76" s="10" t="inlineStr">
+      <c r="D76" s="9" t="inlineStr">
         <is>
           <t>机器人手</t>
         </is>
       </c>
-      <c r="E76" s="10" t="inlineStr">
+      <c r="E76" s="9" t="inlineStr">
         <is>
           <t>混合刚柔结构</t>
         </is>
       </c>
-      <c r="F76" s="10" t="inlineStr">
+      <c r="F76" s="9" t="inlineStr">
         <is>
           <t>低成本</t>
         </is>
       </c>
-      <c r="G76" s="10" t="inlineStr">
+      <c r="G76" s="9" t="inlineStr">
         <is>
           <t>高灵巧性</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="13.5" customHeight="1" s="7">
-      <c r="A77" s="6" t="inlineStr">
+    <row r="77" ht="13.5" customHeight="1" s="6">
+      <c r="A77" s="5" t="inlineStr">
         <is>
           <t>Morpheus A Neural-driven Animatronic Face with Hybrid Actuation and Diverse Emotion Control.pdf</t>
         </is>
       </c>
-      <c r="B77" s="6" t="inlineStr">
+      <c r="B77" s="5" t="inlineStr">
         <is>
           <t>Hybrid Actuation and Diverse Emotion Control</t>
         </is>
       </c>
-      <c r="C77" s="10" t="inlineStr">
+      <c r="C77" s="9" t="inlineStr">
         <is>
           <t>情感控制</t>
         </is>
       </c>
-      <c r="D77" s="10" t="inlineStr">
+      <c r="D77" s="9" t="inlineStr">
         <is>
           <t>人机交互</t>
         </is>
       </c>
-      <c r="E77" s="10" t="inlineStr">
+      <c r="E77" s="9" t="inlineStr">
         <is>
           <t>混合驱动</t>
         </is>
       </c>
-      <c r="F77" s="10" t="inlineStr">
+      <c r="F77" s="9" t="inlineStr">
         <is>
           <t>自我建模网络</t>
         </is>
       </c>
-      <c r="G77" s="10" t="inlineStr">
+      <c r="G77" s="9" t="inlineStr">
         <is>
           <t>多样化表情</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="13.5" customHeight="1" s="7">
-      <c r="A78" s="6" t="inlineStr">
+    <row r="78" ht="13.5" customHeight="1" s="6">
+      <c r="A78" s="5" t="inlineStr">
         <is>
           <t>SKIL Semantic Keypoint Imitation Learning for Generalizable Data-efficient Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B78" s="6" t="inlineStr">
+      <c r="B78" s="5" t="inlineStr">
         <is>
           <t>Generalizable Data-efficient Manipulation</t>
         </is>
       </c>
-      <c r="C78" s="10" t="inlineStr">
+      <c r="C78" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="D78" s="10" t="inlineStr">
+      <c r="D78" s="9" t="inlineStr">
         <is>
           <t>家庭任务</t>
         </is>
       </c>
-      <c r="E78" s="10" t="inlineStr">
+      <c r="E78" s="9" t="inlineStr">
         <is>
           <t>语义关键点模仿学习</t>
         </is>
       </c>
-      <c r="F78" s="10" t="inlineStr">
+      <c r="F78" s="9" t="inlineStr">
         <is>
           <t>语义关键点抽象</t>
         </is>
       </c>
-      <c r="G78" s="10" t="inlineStr">
+      <c r="G78" s="9" t="inlineStr">
         <is>
           <t>数据高效泛化</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="13.5" customHeight="1" s="7">
-      <c r="A79" s="6" t="inlineStr">
+    <row r="79" ht="13.5" customHeight="1" s="6">
+      <c r="A79" s="5" t="inlineStr">
         <is>
           <t>Riemannian Direct Trajectory Optimization of Rigid Bodies on Matrix Lie Groups.pdf</t>
         </is>
       </c>
-      <c r="B79" s="6" t="inlineStr">
+      <c r="B79" s="5" t="inlineStr">
         <is>
           <t>Riemannian Direct Trajectory Optimization of Rigid Bodies on Matrix Lie Groups</t>
         </is>
       </c>
-      <c r="C79" s="10" t="inlineStr">
+      <c r="C79" s="9" t="inlineStr">
         <is>
           <t>轨迹优化</t>
         </is>
       </c>
-      <c r="D79" s="10" t="inlineStr">
+      <c r="D79" s="9" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="E79" s="10" t="inlineStr">
+      <c r="E79" s="9" t="inlineStr">
         <is>
           <t>黎曼优化</t>
         </is>
       </c>
-      <c r="F79" s="10" t="inlineStr">
+      <c r="F79" s="9" t="inlineStr">
         <is>
           <t>矩阵李群</t>
         </is>
       </c>
-      <c r="G79" s="10" t="inlineStr">
+      <c r="G79" s="9" t="inlineStr">
         <is>
           <t>动态可行轨迹</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="13.5" customHeight="1" s="7">
-      <c r="A80" s="6" t="inlineStr">
+    <row r="80" ht="13.5" customHeight="1" s="6">
+      <c r="A80" s="5" t="inlineStr">
         <is>
           <t>Learned Perceptive Forward Dynamics Model for Safe and Platform-aware Robotic Navigation.pdf</t>
         </is>
       </c>
-      <c r="B80" s="6" t="inlineStr">
+      <c r="B80" s="5" t="inlineStr">
         <is>
           <t>Learned Perceptive Forward Dynamics Model for Safe and Platform-aware Robotic Navigation</t>
         </is>
       </c>
-      <c r="C80" s="10" t="inlineStr">
+      <c r="C80" s="9" t="inlineStr">
         <is>
           <t>机器人导航</t>
         </is>
       </c>
-      <c r="D80" s="10" t="inlineStr">
+      <c r="D80" s="9" t="inlineStr">
         <is>
           <t>复杂环境</t>
         </is>
       </c>
-      <c r="E80" s="10" t="inlineStr">
+      <c r="E80" s="9" t="inlineStr">
         <is>
           <t>感知前向动力学模型</t>
         </is>
       </c>
-      <c r="F80" s="10" t="inlineStr">
+      <c r="F80" s="9" t="inlineStr">
         <is>
           <t>平台感知</t>
         </is>
       </c>
-      <c r="G80" s="10" t="inlineStr">
+      <c r="G80" s="9" t="inlineStr">
         <is>
           <t>安全导航</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="13.5" customHeight="1" s="7">
-      <c r="A81" s="6" t="inlineStr">
+    <row r="81" ht="13.5" customHeight="1" s="6">
+      <c r="A81" s="5" t="inlineStr">
         <is>
           <t>ASTRID A Robotic Tutor for Nurse Training to Reduce Healthcare-Associated Infections.pdf</t>
         </is>
       </c>
-      <c r="B81" s="6" t="inlineStr">
+      <c r="B81" s="5" t="inlineStr">
         <is>
           <t>ASTRID: Automated Sterile Technique Review and Instruction Device for Reducing Healthcare-Associated Infections</t>
         </is>
       </c>
-      <c r="C81" s="10" t="inlineStr">
+      <c r="C81" s="9" t="inlineStr">
         <is>
           <t>护理教育</t>
         </is>
       </c>
-      <c r="D81" s="10" t="inlineStr">
+      <c r="D81" s="9" t="inlineStr">
         <is>
           <t>医院培训环境</t>
         </is>
       </c>
-      <c r="E81" s="10" t="inlineStr">
+      <c r="E81" s="9" t="inlineStr">
         <is>
           <t>机器人辅导系统</t>
         </is>
       </c>
-      <c r="F81" s="10" t="inlineStr">
+      <c r="F81" s="9" t="inlineStr">
         <is>
           <t>参与式设计</t>
         </is>
       </c>
-      <c r="G81" s="10" t="inlineStr">
+      <c r="G81" s="9" t="inlineStr">
         <is>
           <t>减少医疗相关感染</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="16.5" customHeight="1" s="7">
-      <c r="A82" s="6" t="inlineStr">
+    <row r="82" ht="16.5" customHeight="1" s="6">
+      <c r="A82" s="5" t="inlineStr">
         <is>
           <t>Hierarchical Temporal Logic Task and Motion Planning for Multi-Robot Systems.pdf</t>
         </is>
       </c>
-      <c r="B82" s="6" t="inlineStr">
+      <c r="B82" s="5" t="inlineStr">
         <is>
           <t>Hierarchical Temporal Logic Task and Motion Planning for Multi-Robot Systems</t>
         </is>
       </c>
-      <c r="C82" s="10" t="inlineStr">
+      <c r="C82" s="9" t="inlineStr">
         <is>
           <t>多机器人系统任务与运动规划</t>
         </is>
       </c>
-      <c r="D82" s="10" t="inlineStr">
+      <c r="D82" s="9" t="inlineStr">
         <is>
           <t>协作机器人系统</t>
         </is>
       </c>
-      <c r="E82" s="10" t="inlineStr">
+      <c r="E82" s="9" t="inlineStr">
         <is>
           <t>层次化时序逻辑</t>
         </is>
       </c>
-      <c r="F82" s="10" t="inlineStr">
+      <c r="F82" s="9" t="inlineStr">
         <is>
           <t>层次化sc-LTL</t>
         </is>
       </c>
-      <c r="G82" s="10" t="inlineStr">
+      <c r="G82" s="9" t="inlineStr">
         <is>
           <t>多机器人协作</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="13.5" customHeight="1" s="7">
-      <c r="A83" s="6" t="inlineStr">
+    <row r="83" ht="13.5" customHeight="1" s="6">
+      <c r="A83" s="5" t="inlineStr">
         <is>
           <t>Resolving Conflicting Constraints in Multi-Agent Reinforcement Learning with Layered Safety.pdf</t>
         </is>
       </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="B83" s="5" t="inlineStr">
         <is>
           <t>Resolving Conflicting Constraints in Multi-Agent Reinforcement Learning with Layered Safety</t>
         </is>
       </c>
-      <c r="C83" s="10" t="inlineStr">
+      <c r="C83" s="9" t="inlineStr">
         <is>
           <t>多智能体强化学习</t>
         </is>
       </c>
-      <c r="D83" s="10" t="inlineStr">
+      <c r="D83" s="9" t="inlineStr">
         <is>
           <t>无人机导航</t>
         </is>
       </c>
-      <c r="E83" s="10" t="inlineStr">
+      <c r="E83" s="9" t="inlineStr">
         <is>
           <t>分层安全框架</t>
         </is>
       </c>
-      <c r="F83" s="10" t="inlineStr">
+      <c r="F83" s="9" t="inlineStr">
         <is>
           <t>冲突约束解决</t>
         </is>
       </c>
-      <c r="G83" s="10" t="inlineStr">
+      <c r="G83" s="9" t="inlineStr">
         <is>
           <t>安全与效率提升</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="13.5" customHeight="1" s="7">
-      <c r="A84" s="6" t="inlineStr">
+    <row r="84" ht="13.5" customHeight="1" s="6">
+      <c r="A84" s="5" t="inlineStr">
         <is>
           <t>Physics-Driven Data Generation for Contact-Rich Manipulation via Trajectory Optimization.pdf</t>
         </is>
       </c>
-      <c r="B84" s="6" t="inlineStr">
+      <c r="B84" s="5" t="inlineStr">
         <is>
           <t>Physics-Driven Data Generation for Contact-Rich Manipulation via Trajectory Optimization</t>
         </is>
       </c>
-      <c r="C84" s="10" t="inlineStr">
+      <c r="C84" s="9" t="inlineStr">
         <is>
           <t>接触丰富的操作</t>
         </is>
       </c>
-      <c r="D84" s="10" t="inlineStr">
+      <c r="D84" s="9" t="inlineStr">
         <is>
           <t>模拟数据生成</t>
         </is>
       </c>
-      <c r="E84" s="10" t="inlineStr">
+      <c r="E84" s="9" t="inlineStr">
         <is>
           <t>轨迹优化</t>
         </is>
       </c>
-      <c r="F84" s="10" t="inlineStr">
+      <c r="F84" s="9" t="inlineStr">
         <is>
           <t>物理驱动的数据生成</t>
         </is>
       </c>
-      <c r="G84" s="10" t="inlineStr">
+      <c r="G84" s="9" t="inlineStr">
         <is>
           <t>行为克隆</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="13.5" customHeight="1" s="7">
-      <c r="A85" s="6" t="inlineStr">
+    <row r="85" ht="13.5" customHeight="1" s="6">
+      <c r="A85" s="5" t="inlineStr">
         <is>
           <t>DDAT Diffusion Policies Enforcing Dynamically Admissible Robot Trajectories.pdf</t>
         </is>
       </c>
-      <c r="B85" s="6" t="inlineStr">
+      <c r="B85" s="5" t="inlineStr">
         <is>
           <t>Admissible Robot Trajectories</t>
         </is>
       </c>
-      <c r="C85" s="10" t="inlineStr">
+      <c r="C85" s="9" t="inlineStr">
         <is>
           <t>动态可容许轨迹</t>
         </is>
       </c>
-      <c r="D85" s="10" t="inlineStr">
+      <c r="D85" s="9" t="inlineStr">
         <is>
           <t>机器人轨迹规划</t>
         </is>
       </c>
-      <c r="E85" s="10" t="inlineStr">
+      <c r="E85" s="9" t="inlineStr">
         <is>
           <t>扩散模型</t>
         </is>
       </c>
-      <c r="F85" s="10" t="inlineStr">
+      <c r="F85" s="9" t="inlineStr">
         <is>
           <t>动态可容许轨迹生成</t>
         </is>
       </c>
-      <c r="G85" s="10" t="inlineStr">
+      <c r="G85" s="9" t="inlineStr">
         <is>
           <t>动态可容许轨迹生成</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="16.5" customHeight="1" s="7">
-      <c r="A86" s="6" t="inlineStr">
+    <row r="86" ht="16.5" customHeight="1" s="6">
+      <c r="A86" s="5" t="inlineStr">
         <is>
           <t>Superfast Configuration-Space Convex Set Computation on GPUs for Online Motion Planning.pdf</t>
         </is>
       </c>
-      <c r="B86" s="6" t="inlineStr">
+      <c r="B86" s="5" t="inlineStr">
         <is>
           <t>Superfast Configuration-Space Convex Set Computation on GPUs for Online Motion Planning</t>
         </is>
       </c>
-      <c r="C86" s="10" t="inlineStr">
+      <c r="C86" s="9" t="inlineStr">
         <is>
           <t>运动规划</t>
         </is>
       </c>
-      <c r="D86" s="10" t="inlineStr">
+      <c r="D86" s="9" t="inlineStr">
         <is>
           <t>在线运动规划</t>
         </is>
       </c>
-      <c r="E86" s="6" t="inlineStr">
+      <c r="E86" s="5" t="inlineStr">
         <is>
           <t>GPU加速</t>
         </is>
       </c>
-      <c r="F86" s="10" t="inlineStr">
+      <c r="F86" s="9" t="inlineStr">
         <is>
           <t>边缘膨胀</t>
         </is>
       </c>
-      <c r="G86" s="10" t="inlineStr">
+      <c r="G86" s="9" t="inlineStr">
         <is>
           <t>可靠性提升</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="13.5" customHeight="1" s="7">
-      <c r="A87" s="6" t="inlineStr">
+    <row r="87" ht="13.5" customHeight="1" s="6">
+      <c r="A87" s="5" t="inlineStr">
         <is>
           <t>A Biconvex Method for Minimum-Time Motion Planning Through Sequences of Convex Sets.pdf</t>
         </is>
       </c>
-      <c r="B87" s="6" t="inlineStr">
+      <c r="B87" s="5" t="inlineStr">
         <is>
           <t>A Biconvex Method for Minimum-Time Motion Planning Through Sequences of Convex Sets</t>
         </is>
       </c>
-      <c r="C87" s="10" t="inlineStr">
+      <c r="C87" s="9" t="inlineStr">
         <is>
           <t>运动规划</t>
         </is>
       </c>
-      <c r="D87" s="10" t="inlineStr">
+      <c r="D87" s="9" t="inlineStr">
         <is>
           <t>机器人仓库分拣</t>
         </is>
       </c>
-      <c r="E87" s="10" t="inlineStr">
+      <c r="E87" s="9" t="inlineStr">
         <is>
           <t>双凸方法</t>
         </is>
       </c>
-      <c r="F87" s="10" t="inlineStr">
+      <c r="F87" s="9" t="inlineStr">
         <is>
           <t>快速生成初始轨迹</t>
         </is>
       </c>
-      <c r="G87" s="10" t="inlineStr">
+      <c r="G87" s="9" t="inlineStr">
         <is>
           <t>高质量轨迹</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="13.5" customHeight="1" s="7">
-      <c r="A88" s="6" t="inlineStr">
+    <row r="88" ht="13.5" customHeight="1" s="6">
+      <c r="A88" s="5" t="inlineStr">
         <is>
           <t>RoboMIND Benchmark on Multi-embodiment Intelligence Normative Data for Robot Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B88" s="6" t="inlineStr">
+      <c r="B88" s="5" t="inlineStr">
         <is>
           <t>Intelligence Normative Data for Robot Manipulation</t>
         </is>
       </c>
-      <c r="C88" s="10" t="inlineStr">
+      <c r="C88" s="9" t="inlineStr">
         <is>
           <t>机器人操作数据集</t>
         </is>
       </c>
-      <c r="D88" s="10" t="inlineStr">
+      <c r="D88" s="9" t="inlineStr">
         <is>
           <t>机器人抓取</t>
         </is>
       </c>
-      <c r="E88" s="10" t="inlineStr">
+      <c r="E88" s="9" t="inlineStr">
         <is>
           <t>模仿学习</t>
         </is>
       </c>
-      <c r="F88" s="10" t="inlineStr">
+      <c r="F88" s="9" t="inlineStr">
         <is>
           <t>多模态数据收集</t>
         </is>
       </c>
-      <c r="G88" s="10" t="inlineStr">
+      <c r="G88" s="9" t="inlineStr">
         <is>
           <t>任务成功率</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="16.5" customHeight="1" s="7">
-      <c r="A89" s="6" t="inlineStr">
+    <row r="89" ht="16.5" customHeight="1" s="6">
+      <c r="A89" s="5" t="inlineStr">
         <is>
           <t>ASAP Aligning Simulation and Real-World Physics for Learning Agile Humanoid Whole-Body Skills.pdf</t>
         </is>
       </c>
-      <c r="B89" s="6" t="inlineStr">
+      <c r="B89" s="5" t="inlineStr">
         <is>
           <t>ASAP: Aligning Simulation and Real Physics for Agile Humanoid Whole-Body Skills</t>
         </is>
       </c>
-      <c r="C89" s="10" t="inlineStr">
+      <c r="C89" s="9" t="inlineStr">
         <is>
           <t>人形机器人控制</t>
         </is>
       </c>
-      <c r="D89" s="10" t="inlineStr">
+      <c r="D89" s="9" t="inlineStr">
         <is>
           <t>模拟到现实（Sim-to-Real）</t>
         </is>
       </c>
-      <c r="E89" s="6" t="inlineStr">
+      <c r="E89" s="5" t="inlineStr">
         <is>
           <t>Delta动作模型</t>
         </is>
       </c>
-      <c r="F89" s="10" t="inlineStr">
+      <c r="F89" s="9" t="inlineStr">
         <is>
           <t>敏捷的人形全身技能</t>
         </is>
       </c>
-      <c r="G89" s="10" t="inlineStr">
+      <c r="G89" s="9" t="inlineStr">
         <is>
           <t>模拟与现实物理对齐</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="13.5" customHeight="1" s="7">
-      <c r="A90" s="6" t="inlineStr">
+    <row r="90" ht="13.5" customHeight="1" s="6">
+      <c r="A90" s="5" t="inlineStr">
         <is>
           <t>FACTR Force-Attending Curriculum Training for Contact-Rich Policy Learning.pdf</t>
         </is>
       </c>
-      <c r="B90" s="6" t="inlineStr">
+      <c r="B90" s="5" t="inlineStr">
         <is>
           <t>Contact-Rich Policy Learning</t>
         </is>
       </c>
-      <c r="C90" s="10" t="inlineStr">
+      <c r="C90" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D90" s="10" t="inlineStr">
+      <c r="D90" s="9" t="inlineStr">
         <is>
           <t>接触丰富的任务</t>
         </is>
       </c>
-      <c r="E90" s="6" t="inlineStr">
+      <c r="E90" s="5" t="inlineStr">
         <is>
           <t>FACTR</t>
         </is>
       </c>
-      <c r="F90" s="10" t="inlineStr">
+      <c r="F90" s="9" t="inlineStr">
         <is>
           <t>基于力的课程学习</t>
         </is>
       </c>
-      <c r="G90" s="10" t="inlineStr">
+      <c r="G90" s="9" t="inlineStr">
         <is>
           <t>泛化能力提升</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="13.5" customHeight="1" s="7">
-      <c r="A91" s="6" t="inlineStr">
+    <row r="91" ht="13.5" customHeight="1" s="6">
+      <c r="A91" s="5" t="inlineStr">
         <is>
           <t>Unified Video Action Model.pdf</t>
         </is>
       </c>
-      <c r="B91" s="6" t="inlineStr">
+      <c r="B91" s="5" t="inlineStr">
         <is>
           <t>Unied Video Action Model</t>
         </is>
       </c>
-      <c r="C91" s="10" t="inlineStr">
+      <c r="C91" s="9" t="inlineStr">
         <is>
           <t>视频动作模型</t>
         </is>
       </c>
-      <c r="D91" s="10" t="inlineStr">
+      <c r="D91" s="9" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="E91" s="10" t="inlineStr">
+      <c r="E91" s="9" t="inlineStr">
         <is>
           <t>扩散模型</t>
         </is>
       </c>
-      <c r="F91" s="10" t="inlineStr">
+      <c r="F91" s="9" t="inlineStr">
         <is>
           <t>联合视频动作表示</t>
         </is>
       </c>
-      <c r="G91" s="10" t="inlineStr">
+      <c r="G91" s="9" t="inlineStr">
         <is>
           <t>通用框架</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="13.5" customHeight="1" s="7">
-      <c r="A92" s="6" t="inlineStr">
+    <row r="92" ht="13.5" customHeight="1" s="6">
+      <c r="A92" s="5" t="inlineStr">
         <is>
           <t>Boxi Design Decisions in the Context of Algorithmic Performance for Robotics.pdf</t>
         </is>
       </c>
-      <c r="B92" s="6" t="inlineStr">
+      <c r="B92" s="5" t="inlineStr">
         <is>
           <t>Algorithmic Performance for Robotics</t>
         </is>
       </c>
-      <c r="C92" s="10" t="inlineStr">
+      <c r="C92" s="9" t="inlineStr">
         <is>
           <t>机器人算法性能</t>
         </is>
       </c>
-      <c r="D92" s="10" t="inlineStr">
+      <c r="D92" s="9" t="inlineStr">
         <is>
           <t>移动机器人</t>
         </is>
       </c>
-      <c r="E92" s="10" t="inlineStr">
+      <c r="E92" s="9" t="inlineStr">
         <is>
           <t>多传感器融合</t>
         </is>
       </c>
-      <c r="F92" s="10" t="inlineStr">
+      <c r="F92" s="9" t="inlineStr">
         <is>
           <t>多模态传感器载荷</t>
         </is>
       </c>
-      <c r="G92" s="10" t="inlineStr">
+      <c r="G92" s="9" t="inlineStr">
         <is>
           <t>传感器校准</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="13.5" customHeight="1" s="7">
-      <c r="A93" s="6" t="inlineStr">
+    <row r="93" ht="13.5" customHeight="1" s="6">
+      <c r="A93" s="5" t="inlineStr">
         <is>
           <t>Demonstrating CavePI Autonomous Exploration of Underwater Caves by Semantic Guidance.pdf</t>
         </is>
       </c>
-      <c r="B93" s="6" t="inlineStr">
+      <c r="B93" s="5" t="inlineStr">
         <is>
           <t>Demonstrating CavePI: Autonomous Exploration of Underwater Caves by Semantic Guidance</t>
         </is>
       </c>
-      <c r="C93" s="10" t="inlineStr">
+      <c r="C93" s="9" t="inlineStr">
         <is>
           <t>水下洞穴探索</t>
         </is>
       </c>
-      <c r="D93" s="10" t="inlineStr">
+      <c r="D93" s="9" t="inlineStr">
         <is>
           <t>水下洞穴导航</t>
         </is>
       </c>
-      <c r="E93" s="10" t="inlineStr">
+      <c r="E93" s="9" t="inlineStr">
         <is>
           <t>语义引导</t>
         </is>
       </c>
-      <c r="F93" s="10" t="inlineStr">
+      <c r="F93" s="9" t="inlineStr">
         <is>
           <t>语义理解</t>
         </is>
       </c>
-      <c r="G93" s="10" t="inlineStr">
+      <c r="G93" s="9" t="inlineStr">
         <is>
           <t>自主导航</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="13.5" customHeight="1" s="7">
-      <c r="A94" s="6" t="inlineStr">
+    <row r="94" ht="13.5" customHeight="1" s="6">
+      <c r="A94" s="5" t="inlineStr">
         <is>
           <t>DOGlove Dexterous Manipulation with a Low-Cost Open-Source Haptic Force Feedback Glove.pdf</t>
         </is>
       </c>
-      <c r="B94" s="6" t="inlineStr">
+      <c r="B94" s="5" t="inlineStr">
         <is>
           <t>Open-Source Haptic Force Feedback Glove</t>
         </is>
       </c>
-      <c r="C94" s="10" t="inlineStr">
+      <c r="C94" s="9" t="inlineStr">
         <is>
           <t>手部运动捕捉</t>
         </is>
       </c>
-      <c r="D94" s="10" t="inlineStr">
+      <c r="D94" s="9" t="inlineStr">
         <is>
           <t>遥操作</t>
         </is>
       </c>
-      <c r="E94" s="10" t="inlineStr">
+      <c r="E94" s="9" t="inlineStr">
         <is>
           <t>力反馈</t>
         </is>
       </c>
-      <c r="F94" s="10" t="inlineStr">
+      <c r="F94" s="9" t="inlineStr">
         <is>
           <t>低成本</t>
         </is>
       </c>
-      <c r="G94" s="10" t="inlineStr">
+      <c r="G94" s="9" t="inlineStr">
         <is>
           <t>灵巧操作</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="13.5" customHeight="1" s="7">
-      <c r="A95" s="6" t="inlineStr">
+    <row r="95" ht="13.5" customHeight="1" s="6">
+      <c r="A95" s="5" t="inlineStr">
         <is>
           <t>RoboPanoptes The All-Seeing Robot with Whole-body Dexterity.pdf</t>
         </is>
       </c>
-      <c r="B95" s="6" t="inlineStr">
+      <c r="B95" s="5" t="inlineStr">
         <is>
           <t>RoboPanoptes: An All-seeing Robot with Whole-body Dexterity</t>
         </is>
       </c>
-      <c r="C95" s="10" t="inlineStr">
+      <c r="C95" s="9" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="D95" s="10" t="inlineStr">
+      <c r="D95" s="9" t="inlineStr">
         <is>
           <t>物体抓取</t>
         </is>
       </c>
-      <c r="E95" s="10" t="inlineStr">
+      <c r="E95" s="9" t="inlineStr">
         <is>
           <t>多模态学习</t>
         </is>
       </c>
-      <c r="F95" s="10" t="inlineStr">
+      <c r="F95" s="9" t="inlineStr">
         <is>
           <t>全方位视觉</t>
         </is>
       </c>
-      <c r="G95" s="10" t="inlineStr">
+      <c r="G95" s="9" t="inlineStr">
         <is>
           <t>物体抓取</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="13.5" customHeight="1" s="7">
-      <c r="A96" s="6" t="inlineStr">
+    <row r="96" ht="13.5" customHeight="1" s="6">
+      <c r="A96" s="5" t="inlineStr">
         <is>
           <t>ViTaSCOPE Visuo-tactile Implicit Representation for In-hand Pose and Extrinsic Contact Estimation.pdf</t>
         </is>
       </c>
-      <c r="B96" s="6" t="inlineStr">
+      <c r="B96" s="5" t="inlineStr">
         <is>
           <t>ViTaSCOPE: Visuo-Tactile Simultaneous Contact and Object Pose Estimation</t>
         </is>
       </c>
-      <c r="C96" s="10" t="inlineStr">
+      <c r="C96" s="9" t="inlineStr">
         <is>
           <t>机器人抓取与操作</t>
         </is>
       </c>
-      <c r="D96" s="10" t="inlineStr">
+      <c r="D96" s="9" t="inlineStr">
         <is>
           <t>部分点云</t>
         </is>
       </c>
-      <c r="E96" s="10" t="inlineStr">
+      <c r="E96" s="9" t="inlineStr">
         <is>
           <t>隐式表示</t>
         </is>
       </c>
-      <c r="F96" s="10" t="inlineStr">
+      <c r="F96" s="9" t="inlineStr">
         <is>
           <t>接触感知隐式表示</t>
         </is>
       </c>
-      <c r="G96" s="10" t="inlineStr">
+      <c r="G96" s="9" t="inlineStr">
         <is>
           <t>零样本转移</t>
         </is>
       </c>
     </row>
-    <row r="97" ht="16.5" customHeight="1" s="7">
-      <c r="A97" s="6" t="inlineStr">
+    <row r="97" ht="16.5" customHeight="1" s="6">
+      <c r="A97" s="5" t="inlineStr">
         <is>
           <t>Demonstrating Berkeley Humanoid Lite An Open-source, Accessible, and Customizable 3D-printed Humanoi.pdf</t>
         </is>
       </c>
-      <c r="B97" s="6" t="inlineStr">
+      <c r="B97" s="5" t="inlineStr">
         <is>
           <t>Demonstrating Berkeley Humanoid Lite: An Open-source, Accessible, and Customizable 3D-printed Humanoid Robot</t>
         </is>
       </c>
-      <c r="C97" s="10" t="inlineStr">
+      <c r="C97" s="9" t="inlineStr">
         <is>
           <t>人形机器人</t>
         </is>
       </c>
-      <c r="D97" s="10" t="inlineStr">
+      <c r="D97" s="9" t="inlineStr">
         <is>
           <t>机器人研究</t>
         </is>
       </c>
-      <c r="E97" s="6" t="inlineStr">
+      <c r="E97" s="5" t="inlineStr">
         <is>
           <t>3D打印</t>
         </is>
       </c>
-      <c r="F97" s="10" t="inlineStr">
+      <c r="F97" s="9" t="inlineStr">
         <is>
           <t>开源设计</t>
         </is>
       </c>
-      <c r="G97" s="10" t="inlineStr">
+      <c r="G97" s="9" t="inlineStr">
         <is>
           <t>低成本</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="13.5" customHeight="1" s="7">
-      <c r="A98" s="6" t="inlineStr">
+    <row r="98" ht="13.5" customHeight="1" s="6">
+      <c r="A98" s="5" t="inlineStr">
         <is>
           <t>Complementarity-Free Multi-Contact Modeling and Optimization for Dexterous Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B98" s="6" t="inlineStr">
+      <c r="B98" s="5" t="inlineStr">
         <is>
           <t>Complementarity-Free Multi-Contact Modeling and Optimization for Dexterous Manipulation</t>
         </is>
       </c>
-      <c r="C98" s="10" t="inlineStr">
+      <c r="C98" s="9" t="inlineStr">
         <is>
           <t>多接触动力学建模与优化</t>
         </is>
       </c>
-      <c r="D98" s="10" t="inlineStr">
+      <c r="D98" s="9" t="inlineStr">
         <is>
           <t>灵巧操作</t>
         </is>
       </c>
-      <c r="E98" s="10" t="inlineStr">
+      <c r="E98" s="9" t="inlineStr">
         <is>
           <t>无互补性多接触模型</t>
         </is>
       </c>
-      <c r="F98" s="10" t="inlineStr">
+      <c r="F98" s="9" t="inlineStr">
         <is>
           <t>互补性消除</t>
         </is>
       </c>
-      <c r="G98" s="10" t="inlineStr">
+      <c r="G98" s="9" t="inlineStr">
         <is>
           <t>实时灵巧操作</t>
         </is>
       </c>
     </row>
-    <row r="99" ht="13.5" customHeight="1" s="7">
-      <c r="A99" s="6" t="inlineStr">
+    <row r="99" ht="13.5" customHeight="1" s="6">
+      <c r="A99" s="5" t="inlineStr">
         <is>
           <t>Vib2Move In-hand Object Reconfiguration via Fingertip Micro-vibrations.pdf</t>
         </is>
       </c>
-      <c r="B99" s="6" t="inlineStr">
+      <c r="B99" s="5" t="inlineStr">
         <is>
           <t>Fingertip Micro-Vibrations</t>
         </is>
       </c>
-      <c r="C99" s="10" t="inlineStr">
+      <c r="C99" s="9" t="inlineStr">
         <is>
           <t>机器人抓取</t>
         </is>
       </c>
-      <c r="D99" s="10" t="inlineStr">
+      <c r="D99" s="9" t="inlineStr">
         <is>
           <t>物体重新配置</t>
         </is>
       </c>
-      <c r="E99" s="10" t="inlineStr">
+      <c r="E99" s="9" t="inlineStr">
         <is>
           <t>振动控制</t>
         </is>
       </c>
-      <c r="F99" s="10" t="inlineStr">
+      <c r="F99" s="9" t="inlineStr">
         <is>
           <t>指尖微振动</t>
         </is>
       </c>
-      <c r="G99" s="10" t="inlineStr">
+      <c r="G99" s="9" t="inlineStr">
         <is>
           <t>精确物体定位</t>
         </is>
       </c>
     </row>
-    <row r="100" ht="13.5" customHeight="1" s="7">
-      <c r="A100" s="6" t="inlineStr">
+    <row r="100" ht="13.5" customHeight="1" s="6">
+      <c r="A100" s="5" t="inlineStr">
         <is>
           <t>Demonstrating the Octopi-1.5 Visual-Tactile-Language Model.pdf</t>
         </is>
       </c>
-      <c r="B100" s="6" t="inlineStr">
+      <c r="B100" s="5" t="inlineStr">
         <is>
           <t>Demonstrating the Octopi-1.5 Visual-Tactile-Language Model</t>
         </is>
       </c>
-      <c r="C100" s="10" t="inlineStr">
+      <c r="C100" s="9" t="inlineStr">
         <is>
           <t>多模态</t>
         </is>
       </c>
-      <c r="D100" s="10" t="inlineStr">
+      <c r="D100" s="9" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="E100" s="10" t="inlineStr">
+      <c r="E100" s="9" t="inlineStr">
         <is>
           <t>检索增强</t>
         </is>
       </c>
-      <c r="F100" s="10" t="inlineStr">
+      <c r="F100" s="9" t="inlineStr">
         <is>
           <t>触觉编码器</t>
         </is>
       </c>
-      <c r="G100" s="10" t="inlineStr">
+      <c r="G100" s="9" t="inlineStr">
         <is>
           <t>性能提升</t>
         </is>
       </c>
     </row>
-    <row r="101" ht="16.5" customHeight="1" s="7">
-      <c r="A101" s="6" t="inlineStr">
+    <row r="101" ht="16.5" customHeight="1" s="6">
+      <c r="A101" s="5" t="inlineStr">
         <is>
           <t>Building Rome with Convex Optimization.pdf</t>
         </is>
       </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="B101" s="5" t="inlineStr">
         <is>
           <t>Building Rome with Convex Optimization</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
+      <c r="C101" s="5" t="inlineStr">
         <is>
           <t>3D重建</t>
         </is>
       </c>
-      <c r="D101" s="10" t="inlineStr">
+      <c r="D101" s="9" t="inlineStr">
         <is>
           <t>计算机视觉</t>
         </is>
       </c>
-      <c r="E101" s="10" t="inlineStr">
+      <c r="E101" s="9" t="inlineStr">
         <is>
           <t>凸优化</t>
         </is>
       </c>
-      <c r="F101" s="10" t="inlineStr">
+      <c r="F101" s="9" t="inlineStr">
         <is>
           <t>凸半定规划松弛</t>
         </is>
       </c>
-      <c r="G101" s="10" t="inlineStr">
+      <c r="G101" s="9" t="inlineStr">
         <is>
           <t>全局最优解</t>
         </is>
       </c>
     </row>
-    <row r="102" ht="13.5" customHeight="1" s="7">
-      <c r="A102" s="6" t="inlineStr">
+    <row r="102" ht="13.5" customHeight="1" s="6">
+      <c r="A102" s="5" t="inlineStr">
         <is>
           <t>Efficient Hierarchical Any-Angle Path Planning on Multi-Resolution 3D Grids.pdf</t>
         </is>
       </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="B102" s="5" t="inlineStr">
         <is>
           <t>Efficient Hierarchical Any-Angle Path Planning on Multi-Resolution 3D Grids</t>
         </is>
       </c>
-      <c r="C102" s="10" t="inlineStr">
+      <c r="C102" s="9" t="inlineStr">
         <is>
           <t>路径规划</t>
         </is>
       </c>
-      <c r="D102" s="10" t="inlineStr">
+      <c r="D102" s="9" t="inlineStr">
         <is>
           <t>机器人导航</t>
         </is>
       </c>
-      <c r="E102" s="10" t="inlineStr">
+      <c r="E102" s="9" t="inlineStr">
         <is>
           <t>多分辨率</t>
         </is>
       </c>
-      <c r="F102" s="10" t="inlineStr">
+      <c r="F102" s="9" t="inlineStr">
         <is>
           <t>层次化搜索</t>
         </is>
       </c>
-      <c r="G102" s="10" t="inlineStr">
+      <c r="G102" s="9" t="inlineStr">
         <is>
           <t>路径质量</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="13.5" customHeight="1" s="7">
-      <c r="A103" s="6" t="inlineStr">
+    <row r="103" ht="13.5" customHeight="1" s="6">
+      <c r="A103" s="5" t="inlineStr">
         <is>
           <t>GeoDEx A Unified Geometric Framework for Tactile Dexterous and Extrinsic Manipulation under Force Un.pdf</t>
         </is>
       </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="B103" s="5" t="inlineStr">
         <is>
           <t>External Manipulation under Force Uncertainty</t>
         </is>
       </c>
-      <c r="C103" s="10" t="inlineStr">
+      <c r="C103" s="9" t="inlineStr">
         <is>
           <t>机器人触觉传感</t>
         </is>
       </c>
-      <c r="D103" s="10" t="inlineStr">
+      <c r="D103" s="9" t="inlineStr">
         <is>
           <t>灵巧操作</t>
         </is>
       </c>
-      <c r="E103" s="10" t="inlineStr">
+      <c r="E103" s="9" t="inlineStr">
         <is>
           <t>几何框架</t>
         </is>
       </c>
-      <c r="F103" s="10" t="inlineStr">
+      <c r="F103" s="9" t="inlineStr">
         <is>
           <t>力估计</t>
         </is>
       </c>
-      <c r="G103" s="10" t="inlineStr">
+      <c r="G103" s="9" t="inlineStr">
         <is>
           <t>力控制</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="13.5" customHeight="1" s="7">
-      <c r="A104" s="6" t="inlineStr">
+    <row r="104" ht="13.5" customHeight="1" s="6">
+      <c r="A104" s="5" t="inlineStr">
         <is>
           <t>Demonstrating Shared Force-Language Embeddings for Natural Human-Robot Communication.pdf</t>
         </is>
       </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="B104" s="5" t="inlineStr">
         <is>
           <t>Cross-modality Force and Language Embeddings for Natural Human-Robot Communication</t>
         </is>
       </c>
-      <c r="C104" s="10" t="inlineStr">
+      <c r="C104" s="9" t="inlineStr">
         <is>
           <t>人机交互</t>
         </is>
       </c>
-      <c r="D104" s="10" t="inlineStr">
+      <c r="D104" s="9" t="inlineStr">
         <is>
           <t>机器人控制</t>
         </is>
       </c>
-      <c r="E104" s="10" t="inlineStr">
+      <c r="E104" s="9" t="inlineStr">
         <is>
           <t>跨模态嵌入</t>
         </is>
       </c>
-      <c r="F104" s="10" t="inlineStr">
+      <c r="F104" s="9" t="inlineStr">
         <is>
           <t>共享潜在空间</t>
         </is>
       </c>
-      <c r="G104" s="10" t="inlineStr">
+      <c r="G104" s="9" t="inlineStr">
         <is>
           <t>多模态融合</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="13.5" customHeight="1" s="7">
-      <c r="A105" s="6" t="inlineStr">
+    <row r="105" ht="13.5" customHeight="1" s="6">
+      <c r="A105" s="5" t="inlineStr">
         <is>
           <t>Implicit Neural-Representation Learning for Elastic Deformable-Object Manipulations.pdf</t>
         </is>
       </c>
-      <c r="B105" s="6" t="inlineStr">
+      <c r="B105" s="5" t="inlineStr">
         <is>
           <t>Implicit Neural-Representation Learning for Elastic Deformable-Object Manipulations</t>
         </is>
       </c>
-      <c r="C105" s="10" t="inlineStr">
+      <c r="C105" s="9" t="inlineStr">
         <is>
           <t>可变形物体操作</t>
         </is>
       </c>
-      <c r="D105" s="10" t="inlineStr">
+      <c r="D105" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E105" s="10" t="inlineStr">
+      <c r="E105" s="9" t="inlineStr">
         <is>
           <t>隐式神经表示学习</t>
         </is>
       </c>
-      <c r="F105" s="10" t="inlineStr">
+      <c r="F105" s="9" t="inlineStr">
         <is>
           <t>一致性状态表示</t>
         </is>
       </c>
-      <c r="G105" s="10" t="inlineStr">
+      <c r="G105" s="9" t="inlineStr">
         <is>
           <t>任务成功率</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="13.5" customHeight="1" s="7">
-      <c r="A106" s="6" t="inlineStr">
+    <row r="106" ht="13.5" customHeight="1" s="6">
+      <c r="A106" s="5" t="inlineStr">
         <is>
           <t>CLIP-RT Learning Language-Conditioned Robotic Policies from Natural Language Supervision.pdf</t>
         </is>
       </c>
-      <c r="B106" s="6" t="inlineStr">
+      <c r="B106" s="5" t="inlineStr">
         <is>
           <t>Policies from Natural Language Supervision</t>
         </is>
       </c>
-      <c r="C106" s="10" t="inlineStr">
+      <c r="C106" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D106" s="10" t="inlineStr">
+      <c r="D106" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="E106" s="10" t="inlineStr">
+      <c r="E106" s="9" t="inlineStr">
         <is>
           <t>对比模仿学习</t>
         </is>
       </c>
-      <c r="F106" s="10" t="inlineStr">
+      <c r="F106" s="9" t="inlineStr">
         <is>
           <t>语言指导的遥操作</t>
         </is>
       </c>
-      <c r="G106" s="10" t="inlineStr">
+      <c r="G106" s="9" t="inlineStr">
         <is>
           <t>通用和可转移的政策</t>
         </is>
       </c>
     </row>
-    <row r="107" ht="13.5" customHeight="1" s="7">
-      <c r="A107" s="6" t="inlineStr">
+    <row r="107" ht="13.5" customHeight="1" s="6">
+      <c r="A107" s="5" t="inlineStr">
         <is>
           <t>Uncertainty-Aware Trajectory Prediction via Rule-Regularized Heteroscedastic Deep Classification.pdf</t>
         </is>
       </c>
-      <c r="B107" s="6" t="inlineStr">
+      <c r="B107" s="5" t="inlineStr">
         <is>
           <t>Uncertainty-Aware Trajectory Prediction via Rule-Regularized Heteroscedastic Deep Classification</t>
         </is>
       </c>
-      <c r="C107" s="10" t="inlineStr">
+      <c r="C107" s="9" t="inlineStr">
         <is>
           <t>轨迹预测</t>
         </is>
       </c>
-      <c r="D107" s="10" t="inlineStr">
+      <c r="D107" s="9" t="inlineStr">
         <is>
           <t>自动驾驶</t>
         </is>
       </c>
-      <c r="E107" s="10" t="inlineStr">
+      <c r="E107" s="9" t="inlineStr">
         <is>
           <t>不确定性建模</t>
         </is>
       </c>
-      <c r="F107" s="10" t="inlineStr">
+      <c r="F107" s="9" t="inlineStr">
         <is>
           <t>规则正则化</t>
         </is>
       </c>
-      <c r="G107" s="10" t="inlineStr">
+      <c r="G107" s="9" t="inlineStr">
         <is>
           <t>数据效率</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="13.5" customHeight="1" s="7">
-      <c r="A108" s="6" t="inlineStr">
+    <row r="108" ht="13.5" customHeight="1" s="6">
+      <c r="A108" s="5" t="inlineStr">
         <is>
           <t>SATA Safe and Adaptive Torque-Based Locomotion Policies Inspired by Animal Learning.pdf</t>
         </is>
       </c>
-      <c r="B108" s="6" t="inlineStr">
+      <c r="B108" s="5" t="inlineStr">
         <is>
           <t>Locomotion Policies Inspired by Animal Learning</t>
         </is>
       </c>
-      <c r="C108" s="10" t="inlineStr">
+      <c r="C108" s="9" t="inlineStr">
         <is>
           <t>动物学习</t>
         </is>
       </c>
-      <c r="D108" s="10" t="inlineStr">
+      <c r="D108" s="9" t="inlineStr">
         <is>
           <t>四足机器人</t>
         </is>
       </c>
-      <c r="E108" s="10" t="inlineStr">
+      <c r="E108" s="9" t="inlineStr">
         <is>
           <t>扭矩控制</t>
         </is>
       </c>
-      <c r="F108" s="10" t="inlineStr">
+      <c r="F108" s="9" t="inlineStr">
         <is>
           <t>生物启发</t>
         </is>
       </c>
-      <c r="G108" s="10" t="inlineStr">
+      <c r="G108" s="9" t="inlineStr">
         <is>
           <t>零样本模拟到现实</t>
         </is>
       </c>
     </row>
-    <row r="109" ht="13.5" customHeight="1" s="7">
-      <c r="A109" s="6" t="inlineStr">
+    <row r="109" ht="13.5" customHeight="1" s="6">
+      <c r="A109" s="5" t="inlineStr">
         <is>
           <t>Unified World Models Coupling Video and Action Diffusion for Pretraining on Large Robotic Datasets.pdf</t>
         </is>
       </c>
-      <c r="B109" s="6" t="inlineStr">
+      <c r="B109" s="5" t="inlineStr">
         <is>
           <t>Unified World Models: Coupling Video and Action Diffusion for Pretraining on Large Robotic Datasets</t>
         </is>
       </c>
-      <c r="C109" s="10" t="inlineStr">
+      <c r="C109" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D109" s="10" t="inlineStr">
+      <c r="D109" s="9" t="inlineStr">
         <is>
           <t>机器人控制</t>
         </is>
       </c>
-      <c r="E109" s="10" t="inlineStr">
+      <c r="E109" s="9" t="inlineStr">
         <is>
           <t>扩散模型</t>
         </is>
       </c>
-      <c r="F109" s="10" t="inlineStr">
+      <c r="F109" s="9" t="inlineStr">
         <is>
           <t>统一世界模型</t>
         </is>
       </c>
-      <c r="G109" s="10" t="inlineStr">
+      <c r="G109" s="9" t="inlineStr">
         <is>
           <t>预训练</t>
         </is>
       </c>
     </row>
-    <row r="110" ht="13.5" customHeight="1" s="7">
-      <c r="A110" s="6" t="inlineStr">
+    <row r="110" ht="13.5" customHeight="1" s="6">
+      <c r="A110" s="5" t="inlineStr">
         <is>
           <t>Demonstrating MOSART Opening Articulated Structures in the Real World.pdf</t>
         </is>
       </c>
-      <c r="B110" s="6" t="inlineStr">
+      <c r="B110" s="5" t="inlineStr">
         <is>
           <t>Demonstrating MOSART: Opening Articulated Structures in the Wild</t>
         </is>
       </c>
-      <c r="C110" s="10" t="inlineStr">
+      <c r="C110" s="9" t="inlineStr">
         <is>
           <t>移动操作</t>
         </is>
       </c>
-      <c r="D110" s="10" t="inlineStr">
+      <c r="D110" s="9" t="inlineStr">
         <is>
           <t>现实世界</t>
         </is>
       </c>
-      <c r="E110" s="10" t="inlineStr">
+      <c r="E110" s="9" t="inlineStr">
         <is>
           <t>模块化系统</t>
         </is>
       </c>
-      <c r="F110" s="10" t="inlineStr">
+      <c r="F110" s="9" t="inlineStr">
         <is>
           <t>零样本学习</t>
         </is>
       </c>
-      <c r="G110" s="10" t="inlineStr">
+      <c r="G110" s="9" t="inlineStr">
         <is>
           <t>感知瓶颈</t>
         </is>
       </c>
     </row>
-    <row r="111" ht="13.5" customHeight="1" s="7">
-      <c r="A111" s="6" t="inlineStr">
+    <row r="111" ht="13.5" customHeight="1" s="6">
+      <c r="A111" s="5" t="inlineStr">
         <is>
           <t>PP-Tac Paper Picking Using Omnidirectional Tactile Feedback in Dexterous Robotic Hands.pdf</t>
         </is>
       </c>
-      <c r="B111" s="6" t="inlineStr">
+      <c r="B111" s="5" t="inlineStr">
         <is>
           <t>Dexterous Robotic Hands</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr">
+      <c r="C111" s="5" t="inlineStr">
         <is>
           <t>Deformable Object Manipulation</t>
         </is>
       </c>
-      <c r="D111" s="6" t="inlineStr">
+      <c r="D111" s="5" t="inlineStr">
         <is>
           <t>Household Environments</t>
         </is>
       </c>
-      <c r="E111" s="6" t="inlineStr">
+      <c r="E111" s="5" t="inlineStr">
         <is>
           <t>Diffusion Policy</t>
         </is>
       </c>
-      <c r="F111" s="6" t="inlineStr">
+      <c r="F111" s="5" t="inlineStr">
         <is>
           <t>Hemispherical Tactile Sensor</t>
         </is>
       </c>
-      <c r="G111" s="6" t="inlineStr">
+      <c r="G111" s="5" t="inlineStr">
         <is>
           <t>Paper-like Object Picking</t>
         </is>
       </c>
     </row>
-    <row r="112" ht="13.5" customHeight="1" s="7">
-      <c r="A112" s="6" t="inlineStr">
+    <row r="112" ht="13.5" customHeight="1" s="6">
+      <c r="A112" s="5" t="inlineStr">
         <is>
           <t>Dex1B Learning with 1B Demonstrations for Dexterous Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B112" s="6" t="inlineStr">
+      <c r="B112" s="5" t="inlineStr">
         <is>
           <t>Dexterous Manipulation</t>
         </is>
       </c>
-      <c r="C112" s="11" t="inlineStr">
+      <c r="C112" s="9" t="inlineStr">
         <is>
           <t>机器人灵巧操作</t>
         </is>
       </c>
-      <c r="D112" s="11" t="inlineStr">
+      <c r="D112" s="9" t="inlineStr">
         <is>
           <t>抓取和操作任务</t>
         </is>
       </c>
-      <c r="E112" s="11" t="inlineStr">
+      <c r="E112" s="9" t="inlineStr">
         <is>
           <t>生成模型</t>
         </is>
       </c>
-      <c r="F112" s="11" t="inlineStr">
+      <c r="F112" s="9" t="inlineStr">
         <is>
           <t>大规模数据生成</t>
         </is>
       </c>
-      <c r="G112" s="11" t="inlineStr">
+      <c r="G112" s="9" t="inlineStr">
         <is>
           <t>性能提升</t>
         </is>
       </c>
     </row>
-    <row r="113" ht="13.5" customHeight="1" s="7">
-      <c r="A113" s="6" t="inlineStr">
+    <row r="113" ht="13.5" customHeight="1" s="6">
+      <c r="A113" s="5" t="inlineStr">
         <is>
           <t>Online Competitive Information Gathering for Partially Observable Trajectory Games.pdf</t>
         </is>
       </c>
-      <c r="B113" s="6" t="inlineStr">
+      <c r="B113" s="5" t="inlineStr">
         <is>
           <t>Online Competitive Information Gathering for Partially Observable Trajectory Games</t>
         </is>
       </c>
-      <c r="C113" s="11" t="inlineStr">
+      <c r="C113" s="9" t="inlineStr">
         <is>
           <t>信息收集</t>
         </is>
       </c>
-      <c r="D113" s="11" t="inlineStr">
+      <c r="D113" s="9" t="inlineStr">
         <is>
           <t>机器人</t>
         </is>
       </c>
-      <c r="E113" s="11" t="inlineStr">
+      <c r="E113" s="9" t="inlineStr">
         <is>
           <t>模型预测博弈</t>
         </is>
       </c>
-      <c r="F113" s="11" t="inlineStr">
+      <c r="F113" s="9" t="inlineStr">
         <is>
           <t>主动信息收集</t>
         </is>
       </c>
     </row>
-    <row r="114" ht="16.65" customHeight="1" s="7">
-      <c r="A114" s="6" t="inlineStr">
+    <row r="114" ht="16.5" customHeight="1" s="6">
+      <c r="A114" s="5" t="inlineStr">
         <is>
           <t>Debiasing 6-DOF IMU via Hierarchical Learning of Continuous Bias Dynamics.pdf</t>
         </is>
       </c>
-      <c r="B114" s="6" t="inlineStr">
+      <c r="B114" s="5" t="inlineStr">
         <is>
           <t>Debiasing 6-DOF IMU via Hierarchical Learning of Continuous Bias Dynamics</t>
         </is>
       </c>
-      <c r="C114" s="6" t="inlineStr">
+      <c r="C114" s="5" t="inlineStr">
         <is>
           <t>IMU偏差校准</t>
         </is>
       </c>
-      <c r="D114" s="11" t="inlineStr">
+      <c r="D114" s="9" t="inlineStr">
         <is>
           <t>视觉惯性里程计</t>
         </is>
       </c>
-      <c r="E114" s="11" t="inlineStr">
+      <c r="E114" s="9" t="inlineStr">
         <is>
           <t>神经网络常微分方程</t>
         </is>
       </c>
-      <c r="F114" s="11" t="inlineStr">
+      <c r="F114" s="9" t="inlineStr">
         <is>
           <t>连续偏差动力学</t>
         </is>
       </c>
-      <c r="G114" s="6" t="inlineStr">
+      <c r="G114" s="5" t="inlineStr">
         <is>
           <t>IMU测量精度提升</t>
         </is>
       </c>
     </row>
-    <row r="115" ht="13.5" customHeight="1" s="7">
-      <c r="A115" s="6" t="inlineStr">
+    <row r="115" ht="13.5" customHeight="1" s="6">
+      <c r="A115" s="5" t="inlineStr">
         <is>
           <t>ArticuBot Learning Universal Articulated Object Manipulation Policy via Large Scale Simulation.pdf</t>
         </is>
       </c>
-      <c r="B115" s="6" t="inlineStr">
+      <c r="B115" s="5" t="inlineStr">
         <is>
           <t>Manipulation Policy via Large Scale Simulation</t>
         </is>
       </c>
-      <c r="C115" s="11" t="inlineStr">
+      <c r="C115" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="D115" s="11" t="inlineStr">
+      <c r="D115" s="9" t="inlineStr">
         <is>
           <t>模拟到现实</t>
         </is>
       </c>
-      <c r="E115" s="11" t="inlineStr">
+      <c r="E115" s="9" t="inlineStr">
         <is>
           <t>分层策略学习</t>
         </is>
       </c>
-      <c r="F115" s="11" t="inlineStr">
+      <c r="F115" s="9" t="inlineStr">
         <is>
           <t>加权位移模型</t>
         </is>
       </c>
-      <c r="G115" s="11" t="inlineStr">
+      <c r="G115" s="9" t="inlineStr">
         <is>
           <t>通用策略</t>
         </is>
       </c>
     </row>
-    <row r="116" ht="13.5" customHeight="1" s="7">
-      <c r="A116" s="6" t="inlineStr">
+    <row r="116" ht="13.5" customHeight="1" s="6">
+      <c r="A116" s="5" t="inlineStr">
         <is>
           <t>Influence of Static and Dynamic Downwash Interactions on Multi-Quadrotor Systems.pdf</t>
         </is>
       </c>
-      <c r="B116" s="6" t="inlineStr">
+      <c r="B116" s="5" t="inlineStr">
         <is>
           <t>Influence of Static and Dynamic Downwash Interactions on Multi-Quadrotor Systems</t>
         </is>
       </c>
-      <c r="C116" s="11" t="inlineStr">
+      <c r="C116" s="9" t="inlineStr">
         <is>
           <t>多旋翼系统</t>
         </is>
       </c>
-      <c r="D116" s="11" t="inlineStr">
+      <c r="D116" s="9" t="inlineStr">
         <is>
           <t>近距离飞行</t>
         </is>
       </c>
-      <c r="E116" s="6" t="inlineStr">
+      <c r="E116" s="5" t="inlineStr">
         <is>
           <t>PIV</t>
         </is>
       </c>
-      <c r="F116" s="11" t="inlineStr">
+      <c r="F116" s="9" t="inlineStr">
         <is>
           <t>动态下洗效应</t>
         </is>
       </c>
-      <c r="G116" s="11" t="inlineStr">
+      <c r="G116" s="9" t="inlineStr">
         <is>
           <t>下洗干扰</t>
         </is>
       </c>
     </row>
-    <row r="117" ht="13.5" customHeight="1" s="7">
-      <c r="A117" s="6" t="inlineStr">
+    <row r="117" ht="13.5" customHeight="1" s="6">
+      <c r="A117" s="5" t="inlineStr">
         <is>
           <t>Gripper Pose and Object Pointflow as Interfaces for Robotic Bimanual Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B117" s="6" t="inlineStr">
+      <c r="B117" s="5" t="inlineStr">
         <is>
           <t>Gripper Keypose and Object Pointflow as Interfaces for Bimanual Robotic Manipulation</t>
         </is>
       </c>
-      <c r="C117" s="11" t="inlineStr">
+      <c r="C117" s="9" t="inlineStr">
         <is>
           <t>双臂机器人操作</t>
         </is>
       </c>
-      <c r="D117" s="11" t="inlineStr">
+      <c r="D117" s="9" t="inlineStr">
         <is>
           <t>机器人抓取</t>
         </is>
       </c>
-      <c r="E117" s="11" t="inlineStr">
+      <c r="E117" s="9" t="inlineStr">
         <is>
           <t>扩散模型</t>
         </is>
       </c>
-      <c r="F117" s="11" t="inlineStr">
+      <c r="F117" s="9" t="inlineStr">
         <is>
           <t>接口设计</t>
         </is>
       </c>
     </row>
-    <row r="118" ht="13.5" customHeight="1" s="7">
-      <c r="A118" s="6" t="inlineStr">
+    <row r="118" ht="13.5" customHeight="1" s="6">
+      <c r="A118" s="5" t="inlineStr">
         <is>
           <t>Neural Inertial Odometry from Lie Events.pdf</t>
         </is>
       </c>
-      <c r="B118" s="6" t="inlineStr">
+      <c r="B118" s="5" t="inlineStr">
         <is>
           <t>Neural Inertial Odometry from Lie Events</t>
         </is>
       </c>
-      <c r="C118" s="11" t="inlineStr">
+      <c r="C118" s="9" t="inlineStr">
         <is>
           <t>惯性导航</t>
         </is>
       </c>
-      <c r="D118" s="11" t="inlineStr">
+      <c r="D118" s="9" t="inlineStr">
         <is>
           <t>增强现实</t>
         </is>
       </c>
-      <c r="E118" s="11" t="inlineStr">
+      <c r="E118" s="9" t="inlineStr">
         <is>
           <t>李群事件</t>
         </is>
       </c>
-      <c r="F118" s="11" t="inlineStr">
+      <c r="F118" s="9" t="inlineStr">
         <is>
           <t>李极性</t>
         </is>
       </c>
-      <c r="G118" s="11" t="inlineStr">
+      <c r="G118" s="9" t="inlineStr">
         <is>
           <t>轨迹误差降低</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="13.5" customHeight="1" s="7">
-      <c r="A119" s="6" t="inlineStr">
+    <row r="119" ht="13.5" customHeight="1" s="6">
+      <c r="A119" s="5" t="inlineStr">
         <is>
           <t>Demonstrating Multi-Suction Item Picking at Scale via Multi-Modal Learning of Pick Success.pdf</t>
         </is>
       </c>
-      <c r="B119" s="6" t="inlineStr">
+      <c r="B119" s="5" t="inlineStr">
         <is>
           <t>Demonstrating Multi-Suction Item Picking at Scale via Multi-Modal Learning of Pick Success</t>
         </is>
       </c>
-      <c r="C119" s="11" t="inlineStr">
+      <c r="C119" s="9" t="inlineStr">
         <is>
           <t>机器人抓取</t>
         </is>
       </c>
-      <c r="D119" s="11" t="inlineStr">
+      <c r="D119" s="9" t="inlineStr">
         <is>
           <t>仓库拣选</t>
         </is>
       </c>
-      <c r="E119" s="11" t="inlineStr">
+      <c r="E119" s="9" t="inlineStr">
         <is>
           <t>多模态学习</t>
         </is>
       </c>
-      <c r="F119" s="11" t="inlineStr">
+      <c r="F119" s="9" t="inlineStr">
         <is>
           <t>多吸盘抓取</t>
         </is>
       </c>
-      <c r="G119" s="11" t="inlineStr">
+      <c r="G119" s="9" t="inlineStr">
         <is>
           <t>抓取成功率预测</t>
         </is>
       </c>
     </row>
-    <row r="120" ht="13.5" customHeight="1" s="7">
-      <c r="A120" s="6" t="inlineStr">
+    <row r="120" ht="13.5" customHeight="1" s="6">
+      <c r="A120" s="5" t="inlineStr">
         <is>
           <t>Novel Demonstration Generation with Gaussian Splatting Enables Robust One-Shot Manipulation.pdf</t>
         </is>
       </c>
-      <c r="B120" s="6" t="inlineStr">
+      <c r="B120" s="5" t="inlineStr">
         <is>
           <t>Novel Demonstration Generation with Gaussian Splatting Enables Robust One-Shot Manipulation</t>
         </is>
       </c>
-      <c r="C120" s="11" t="inlineStr">
+      <c r="C120" s="9" t="inlineStr">
         <is>
           <t>机器人操作</t>
         </is>
       </c>
-      <c r="D120" s="11" t="inlineStr">
+      <c r="D120" s="9" t="inlineStr">
         <is>
           <t>单次演示</t>
         </is>
       </c>
-      <c r="E120" s="11" t="inlineStr">
+      <c r="E120" s="9" t="inlineStr">
         <is>
           <t>高斯明暗渲染</t>
         </is>
       </c>
-      <c r="F120" s="11" t="inlineStr">
+      <c r="F120" s="9" t="inlineStr">
         <is>
           <t>高保真场景重建</t>
         </is>
       </c>
-      <c r="G120" s="11" t="inlineStr">
+      <c r="G120" s="9" t="inlineStr">
         <is>
           <t>泛化能力</t>
         </is>
       </c>
     </row>
-    <row r="121" ht="13.5" customHeight="1" s="7">
-      <c r="A121" s="6" t="inlineStr">
+    <row r="121" ht="13.5" customHeight="1" s="6">
+      <c r="A121" s="5" t="inlineStr">
         <is>
           <t>RUKA Rethinking the Design of Humanoid Hands with Learning.pdf</t>
         </is>
       </c>
-      <c r="B121" s="6" t="inlineStr">
+      <c r="B121" s="5" t="inlineStr">
         <is>
           <t>Hands with Learning</t>
         </is>
       </c>
-      <c r="C121" s="11" t="inlineStr">
+      <c r="C121" s="9" t="inlineStr">
         <is>
           <t>机器人手</t>
         </is>
       </c>
-      <c r="D121" s="11" t="inlineStr">
+      <c r="D121" s="9" t="inlineStr">
         <is>
           <t>机器人学习</t>
         </is>
       </c>
-      <c r="E121" s="11" t="inlineStr">
+      <c r="E121" s="9" t="inlineStr">
         <is>
           <t>学习控制</t>
         </is>
       </c>
-      <c r="F121" s="11" t="inlineStr">
+      <c r="F121" s="9" t="inlineStr">
         <is>
           <t>低成本</t>
         </is>
       </c>
     </row>
-    <row r="122" ht="13.5" customHeight="1" s="7">
-      <c r="A122" s="6" t="inlineStr">
+    <row r="122" ht="13.5" customHeight="1" s="6">
+      <c r="A122" s="5" t="inlineStr">
         <is>
           <t>APEX-MR Multi-Robot Asynchronous Planning and Execution for Cooperative Assembly.pdf</t>
         </is>
       </c>
-      <c r="B122" s="6" t="inlineStr">
+      <c r="B122" s="5" t="inlineStr">
         <is>
           <t>Asynchronous Planning and Execution for Cooperative Assembly</t>
         </is>
       </c>
-      <c r="C122" s="11" t="inlineStr">
+      <c r="C122" s="9" t="inlineStr">
         <is>
           <t>多机器人协作装配</t>
         </is>
       </c>
-      <c r="D122" s="11" t="inlineStr">
+      <c r="D122" s="9" t="inlineStr">
         <is>
           <t>乐高装配</t>
         </is>
       </c>
-      <c r="E122" s="11" t="inlineStr">
+      <c r="E122" s="9" t="inlineStr">
         <is>
           <t>异步规划与执行框架</t>
         </is>
       </c>
-      <c r="F122" s="11" t="inlineStr">
+      <c r="F122" s="9" t="inlineStr">
         <is>
           <t>多模态时间规划图</t>
         </is>
       </c>
-      <c r="G122" s="11" t="inlineStr">
+      <c r="G122" s="9" t="inlineStr">
         <is>
           <t>执行时间缩短</t>
         </is>
       </c>
     </row>
-    <row r="123" ht="16.65" customHeight="1" s="7">
-      <c r="A123" s="6" t="inlineStr">
-        <is>
-          <t>How to Coordinate UAVs and UGVs for Efficient Mission Planning Optimizing Energy-Constrained Coopera.pdf</t>
-        </is>
-      </c>
-      <c r="B123" s="6" t="inlineStr">
-        <is>
-          <t>How to Coordinate UAVs and UGVs for Efficient Mission Planning? Optimizing Energy-Constrained Cooperative Routing with a DRL Framework</t>
-        </is>
-      </c>
-      <c r="C123" s="6" t="inlineStr">
-        <is>
-          <t>UAV-UGV协同路径规划</t>
-        </is>
-      </c>
-      <c r="D123" s="11" t="inlineStr">
-        <is>
-          <t>灾难响应, 搜索和救援, 环境监测</t>
-        </is>
-      </c>
-      <c r="E123" s="11" t="inlineStr">
-        <is>
-          <t>深度强化学习, 变压器架构, 政策梯度方法</t>
-        </is>
-      </c>
-      <c r="F123" s="11" t="inlineStr">
-        <is>
-          <t>编码器-解码器变压器架构, 一趟一智能体策略, 能量约束协同路径规划</t>
-        </is>
-      </c>
-      <c r="G123" s="11" t="inlineStr">
-        <is>
-          <t>任务完成时间优化, 协同效率提升, 动态任务规划</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="6" t="inlineStr">
+    <row r="123" ht="13.5" customHeight="1" s="6">
+      <c r="A123" s="5" t="inlineStr">
         <is>
           <t>Sense and Sensibility What makes an social robot convincing to high-school students.pdf</t>
         </is>
       </c>
-      <c r="B124" s="6" t="inlineStr">
+      <c r="B123" s="5" t="inlineStr">
         <is>
           <t>Sense and Sensibility: What makes a social robot convincing to high-school students?</t>
         </is>
       </c>
-      <c r="C124" s="6" t="inlineStr">
-        <is>
-          <t>社会机器人教育, 学生决策, 信任</t>
-        </is>
-      </c>
-      <c r="D124" s="6" t="inlineStr">
-        <is>
-          <t>高中教育, 电路知识</t>
-        </is>
-      </c>
-      <c r="E124" s="6" t="inlineStr">
-        <is>
-          <t>实验设计, 信息处理理论, 论证模型</t>
-        </is>
-      </c>
-      <c r="F124" s="6" t="inlineStr">
-        <is>
-          <t>机器人确定性表达, 多模态信号</t>
-        </is>
-      </c>
-      <c r="G124" s="6" t="inlineStr">
-        <is>
-          <t>学生易受影响, 确定性表达的重要性</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="6" t="inlineStr">
+      <c r="C123" s="9" t="inlineStr">
+        <is>
+          <t>社会机器人</t>
+        </is>
+      </c>
+      <c r="D123" s="9" t="inlineStr">
+        <is>
+          <t>高中教育</t>
+        </is>
+      </c>
+      <c r="E123" s="9" t="inlineStr">
+        <is>
+          <t>实验设计</t>
+        </is>
+      </c>
+      <c r="F123" s="9" t="inlineStr">
+        <is>
+          <t>机器人确定性表达</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="inlineStr">
+        <is>
+          <t>学生易受影响</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="13.5" customHeight="1" s="6">
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>V-HOP Visuo-Haptic 6D Object Pose Tracking.pdf</t>
+        </is>
+      </c>
+      <c r="B124" s="5" t="inlineStr">
+        <is>
+          <t>V-HOP: A Visuo-Haptic 6D Object Pose Tracker</t>
+        </is>
+      </c>
+      <c r="C124" s="5" t="inlineStr">
+        <is>
+          <t>6D object pose tracking</t>
+        </is>
+      </c>
+      <c r="D124" s="5" t="inlineStr">
+        <is>
+          <t>robotic manipulation</t>
+        </is>
+      </c>
+      <c r="E124" s="5" t="inlineStr">
+        <is>
+          <t>visuo-haptic transformer</t>
+        </is>
+      </c>
+      <c r="F124" s="5" t="inlineStr">
+        <is>
+          <t>unified haptic representation</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="inlineStr">
+        <is>
+          <t>generalizable visuo-haptic pose tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="13.5" customHeight="1" s="6">
+      <c r="A125" s="5" t="inlineStr">
+        <is>
+          <t>A Unified and General Humanoid Whole-Body Controller for Fine-Grained Locomotion.pdf</t>
+        </is>
+      </c>
+      <c r="B125" s="5" t="inlineStr">
+        <is>
+          <t>A Unified and General Humanoid Whole-Body Controller for Versatile Locomotion</t>
+        </is>
+      </c>
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>Humanoid Locomotion</t>
+        </is>
+      </c>
+      <c r="D125" s="5" t="inlineStr">
+        <is>
+          <t>Real-world humanoid robots</t>
+        </is>
+      </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>Reinforcement Learning</t>
+        </is>
+      </c>
+      <c r="F125" s="5" t="inlineStr">
+        <is>
+          <t>Extended command space</t>
+        </is>
+      </c>
+      <c r="G125" s="5" t="inlineStr">
+        <is>
+          <t>Versatile locomotion behaviors</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="13.5" customHeight="1" s="6">
+      <c r="A126" s="5" t="inlineStr">
+        <is>
+          <t>FAST Efficient Action Tokenization for Vision-Language-Action Models.pdf</t>
+        </is>
+      </c>
+      <c r="B126" s="5" t="inlineStr">
+        <is>
+          <t>Vision-Language-Action Models</t>
+        </is>
+      </c>
+      <c r="C126" s="5" t="inlineStr">
+        <is>
+          <t>Vision-Language-Action Model</t>
+        </is>
+      </c>
+      <c r="D126" s="5" t="inlineStr">
+        <is>
+          <t>Robot control</t>
+        </is>
+      </c>
+      <c r="E126" s="5" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="F126" s="5" t="inlineStr">
+        <is>
+          <t>Discrete cosine transform</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="inlineStr">
+        <is>
+          <t>Autoregressive VLAs</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="13.5" customHeight="1" s="6">
+      <c r="A127" s="5" t="inlineStr">
+        <is>
+          <t>Bridging Model Predictive Control and Deep Learning for Scalable Reachability Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B127" s="5" t="inlineStr">
+        <is>
+          <t>Bridging Model Predictive Control and Deep Learning for Scalable Reachability Analysis</t>
+        </is>
+      </c>
+      <c r="C127" s="5" t="inlineStr">
+        <is>
+          <t>Reachability Analysis</t>
+        </is>
+      </c>
+      <c r="D127" s="5" t="inlineStr">
+        <is>
+          <t>Autonomous Systems</t>
+        </is>
+      </c>
+      <c r="E127" s="5" t="inlineStr">
+        <is>
+          <t>Model Predictive Control</t>
+        </is>
+      </c>
+      <c r="F127" s="5" t="inlineStr">
+        <is>
+          <t>Hybrid Training Algorithm</t>
+        </is>
+      </c>
+      <c r="G127" s="5" t="inlineStr">
+        <is>
+          <t>Safety Value Function Learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="13.5" customHeight="1" s="6">
+      <c r="A128" s="5" t="inlineStr">
+        <is>
+          <t>Demonstrating ViSafe Vision-enabled Safety for High-speed Detect and Avoid.pdf</t>
+        </is>
+      </c>
+      <c r="B128" s="5" t="inlineStr">
+        <is>
+          <t>ViSafe: Vision-enabled Safety for High-speed Detect and Avoid</t>
+        </is>
+      </c>
+      <c r="C128" s="5" t="inlineStr">
+        <is>
+          <t>Detect and Avoid</t>
+        </is>
+      </c>
+      <c r="D128" s="5" t="inlineStr">
+        <is>
+          <t>High-speed</t>
+        </is>
+      </c>
+      <c r="E128" s="5" t="inlineStr">
+        <is>
+          <t>Control Barrier Functions</t>
+        </is>
+      </c>
+      <c r="F128" s="5" t="inlineStr">
+        <is>
+          <t>Vision-only</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="inlineStr">
+        <is>
+          <t>Collision Avoidance</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="13.5" customHeight="1" s="6">
+      <c r="A129" s="5" t="inlineStr">
+        <is>
+          <t>Flow Matching Ergodic Coverage.pdf</t>
+        </is>
+      </c>
+      <c r="B129" s="5" t="inlineStr">
+        <is>
+          <t>Flow Matching Ergodic Coverage</t>
+        </is>
+      </c>
+      <c r="C129" s="5" t="inlineStr">
+        <is>
+          <t>ergodic coverage</t>
+        </is>
+      </c>
+      <c r="D129" s="5" t="inlineStr">
+        <is>
+          <t>exploratory behaviors</t>
+        </is>
+      </c>
+      <c r="E129" s="5" t="inlineStr">
+        <is>
+          <t>flow matching</t>
+        </is>
+      </c>
+      <c r="F129" s="5" t="inlineStr">
+        <is>
+          <t>alternative ergodic metrics</t>
+        </is>
+      </c>
+      <c r="G129" s="5" t="inlineStr">
+        <is>
+          <t>optimal ergodic trajectories</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="13.5" customHeight="1" s="6">
+      <c r="A130" s="5" t="inlineStr">
+        <is>
+          <t>Dynamic Rank Adjustment in Diffusion Policies for Efficient and Flexible Training.pdf</t>
+        </is>
+      </c>
+      <c r="B130" s="5" t="inlineStr">
+        <is>
+          <t>Dynamic Rank Adjustment in Diffusion Policies for Efficient and Flexible Training</t>
+        </is>
+      </c>
+      <c r="C130" s="5" t="inlineStr">
+        <is>
+          <t>Diffusion Policies</t>
+        </is>
+      </c>
+      <c r="D130" s="5" t="inlineStr">
+        <is>
+          <t>Robot Motion Generation</t>
+        </is>
+      </c>
+      <c r="E130" s="5" t="inlineStr">
+        <is>
+          <t>Dynamic Rank Adjustment</t>
+        </is>
+      </c>
+      <c r="F130" s="5" t="inlineStr">
+        <is>
+          <t>Rank Modulation</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="inlineStr">
+        <is>
+          <t>Training Efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="13.5" customHeight="1" s="6">
+      <c r="A131" s="5" t="inlineStr">
+        <is>
+          <t>Learning Getting-Up Policies for Real-World Humanoid Robots.pdf</t>
+        </is>
+      </c>
+      <c r="B131" s="5" t="inlineStr">
+        <is>
+          <t>Learning Getting-Up Policies for Real-World Humanoid Robots</t>
+        </is>
+      </c>
+      <c r="C131" s="5" t="inlineStr">
+        <is>
+          <t>Humanoid Getting-Up</t>
+        </is>
+      </c>
+      <c r="D131" s="5" t="inlineStr">
+        <is>
+          <t>Real-World Humanoid Robots</t>
+        </is>
+      </c>
+      <c r="E131" s="5" t="inlineStr">
+        <is>
+          <t>Two-Stage Reinforcement Learning</t>
+        </is>
+      </c>
+      <c r="F131" s="5" t="inlineStr">
+        <is>
+          <t>Sim-to-Real Transfer</t>
+        </is>
+      </c>
+      <c r="G131" s="5" t="inlineStr">
+        <is>
+          <t>Automatic Fall Recovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="13.5" customHeight="1" s="6">
+      <c r="A132" s="5" t="inlineStr">
+        <is>
+          <t>CordViP Correspondence-based Visuomotor Policy for Dexterous Manipulation in Real-World.pdf</t>
+        </is>
+      </c>
+      <c r="B132" s="5" t="inlineStr">
+        <is>
+          <t>CordViP: A Correspondence-based Visuomotor Policy for Dexterous Manipulation in the Real World</t>
+        </is>
+      </c>
+      <c r="C132" s="5" t="inlineStr">
+        <is>
+          <t>Dexterous Manipulation</t>
+        </is>
+      </c>
+      <c r="D132" s="5" t="inlineStr">
+        <is>
+          <t>Real-World</t>
+        </is>
+      </c>
+      <c r="E132" s="5" t="inlineStr">
+        <is>
+          <t>Correspondence-based Visuomotor Policy</t>
+        </is>
+      </c>
+      <c r="F132" s="5" t="inlineStr">
+        <is>
+          <t>Interaction-aware Point Clouds</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="inlineStr">
+        <is>
+          <t>State-of-the-Art Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="13.5" customHeight="1" s="6">
+      <c r="A133" s="5" t="inlineStr">
+        <is>
+          <t>DexterityGen  Foundation Controller for Unprecedented Dexterity.pdf</t>
+        </is>
+      </c>
+      <c r="B133" s="5" t="inlineStr">
+        <is>
+          <t>Foundation Controller for Unprecedented Dexterity</t>
+        </is>
+      </c>
+      <c r="C133" s="5" t="inlineStr">
+        <is>
+          <t>Dexterity</t>
+        </is>
+      </c>
+      <c r="D133" s="5" t="inlineStr">
+        <is>
+          <t>Teleoperation</t>
+        </is>
+      </c>
+      <c r="E133" s="5" t="inlineStr">
+        <is>
+          <t>Generative Model</t>
+        </is>
+      </c>
+      <c r="F133" s="5" t="inlineStr">
+        <is>
+          <t>Foundation Controller</t>
+        </is>
+      </c>
+      <c r="G133" s="5" t="inlineStr">
+        <is>
+          <t>Unprecedented Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="13.5" customHeight="1" s="6">
+      <c r="A134" s="5" t="inlineStr">
+        <is>
+          <t>Certifiably-Correct Mapping for Safe Navigation Despite Odometry Drift.pdf</t>
+        </is>
+      </c>
+      <c r="B134" s="5" t="inlineStr">
+        <is>
+          <t>Certifiably-Correct Mapping for Safe Navigation Despite Odometry Drift</t>
+        </is>
+      </c>
+      <c r="C134" s="5" t="inlineStr">
+        <is>
+          <t>Certifiably-Correct Mapping</t>
+        </is>
+      </c>
+      <c r="D134" s="5" t="inlineStr">
+        <is>
+          <t>Safe Navigation</t>
+        </is>
+      </c>
+      <c r="E134" s="5" t="inlineStr">
+        <is>
+          <t>Deflation</t>
+        </is>
+      </c>
+      <c r="F134" s="5" t="inlineStr">
+        <is>
+          <t>Certified ESDF</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="inlineStr">
+        <is>
+          <t>Odometry Drift Correction</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="13.5" customHeight="1" s="6">
+      <c r="A135" s="5" t="inlineStr">
+        <is>
+          <t>Action Flow Matching for Lifelong Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="inlineStr">
+        <is>
+          <t>Action Flow Matching for Continual Robot Learning</t>
+        </is>
+      </c>
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>Continual learning</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr">
+        <is>
+          <t>Robotics</t>
+        </is>
+      </c>
+      <c r="E135" s="5" t="inlineStr">
+        <is>
+          <t>Action Flow Matching</t>
+        </is>
+      </c>
+      <c r="F135" s="5" t="inlineStr">
+        <is>
+          <t>Intent mapping</t>
+        </is>
+      </c>
+      <c r="G135" s="5" t="inlineStr">
+        <is>
+          <t>Accelerated learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="13.5" customHeight="1" s="6">
+      <c r="A136" s="5" t="inlineStr">
+        <is>
+          <t>Gait-Net-augmented Implicit Kino-dynamic MPC for Dynamic Variable-frequency Humanoid Locomotion over.pdf</t>
+        </is>
+      </c>
+      <c r="B136" s="5" t="inlineStr">
+        <is>
+          <t>Gait-Net-augmented Implicit Kino-dynamic MPC for Dynamic Variable-frequency Humanoid Locomotion over Discrete Terrains</t>
+        </is>
+      </c>
+      <c r="C136" s="5" t="inlineStr">
+        <is>
+          <t>Humanoid Locomotion</t>
+        </is>
+      </c>
+      <c r="D136" s="5" t="inlineStr">
+        <is>
+          <t>Discrete Terrains</t>
+        </is>
+      </c>
+      <c r="E136" s="5" t="inlineStr">
+        <is>
+          <t>Kino-dynamic MPC</t>
+        </is>
+      </c>
+      <c r="F136" s="5" t="inlineStr">
+        <is>
+          <t>Gait-Net</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="inlineStr">
+        <is>
+          <t>Variable-frequency Walking</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="13.5" customHeight="1" s="6">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Doppler Correspondence Non-Iterative Scan Matching With Doppler Velocity-Based Correspondence.pdf</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
+        <is>
+          <t>Doppler Correspondence: Non-Iterative Scan Matching With Doppler Velocity-Based Correspondence</t>
+        </is>
+      </c>
+      <c r="C137" s="5" t="inlineStr">
+        <is>
+          <t>Doppler</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
+        <is>
+          <t>Odometry</t>
+        </is>
+      </c>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>Scan Matching</t>
+        </is>
+      </c>
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>Non-Iterative</t>
+        </is>
+      </c>
+      <c r="G137" s="5" t="inlineStr">
+        <is>
+          <t>Robustness</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="13.5" customHeight="1" s="6">
+      <c r="A138" s="5" t="inlineStr">
+        <is>
+          <t>Learning Humanoid Standing-up Control across Diverse Postures.pdf</t>
+        </is>
+      </c>
+      <c r="B138" s="5" t="inlineStr">
+        <is>
+          <t>Learning Humanoid Standing-up Control across Diverse Postures</t>
+        </is>
+      </c>
+      <c r="C138" s="5" t="inlineStr">
+        <is>
+          <t>standing-up control</t>
+        </is>
+      </c>
+      <c r="D138" s="5" t="inlineStr">
+        <is>
+          <t>humanoid robots</t>
+        </is>
+      </c>
+      <c r="E138" s="5" t="inlineStr">
+        <is>
+          <t>reinforcement learning</t>
+        </is>
+      </c>
+      <c r="F138" s="5" t="inlineStr">
+        <is>
+          <t>multi-critic architecture</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="inlineStr">
+        <is>
+          <t>real-world deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="13.5" customHeight="1" s="6">
+      <c r="A139" s="5" t="inlineStr">
+        <is>
+          <t>Kinodynamic Trajectory Following with STELA Simultaneous Trajectory Estimation &amp; Local Adaptation.pdf</t>
+        </is>
+      </c>
+      <c r="B139" s="5" t="inlineStr">
+        <is>
+          <t>Kinodynamic Trajectory Following with STELA: Simultaneous Trajectory Estimation and Local Adaptation</t>
+        </is>
+      </c>
+      <c r="C139" s="5" t="inlineStr">
+        <is>
+          <t>Kinodynamic Trajectory Following</t>
+        </is>
+      </c>
+      <c r="D139" s="5" t="inlineStr">
+        <is>
+          <t>Robot Navigation</t>
+        </is>
+      </c>
+      <c r="E139" s="5" t="inlineStr">
+        <is>
+          <t>Factor Graph Optimization</t>
+        </is>
+      </c>
+      <c r="F139" s="5" t="inlineStr">
+        <is>
+          <t>Simultaneous Trajectory Estimation and Local Adaptation</t>
+        </is>
+      </c>
+      <c r="G139" s="5" t="inlineStr">
+        <is>
+          <t>High-Frequency Control Updates</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="13.5" customHeight="1" s="6">
+      <c r="A140" s="5" t="inlineStr">
+        <is>
+          <t>On the Surprising Robustness of Sequential Convex Optimization for Contact-Implicit Motion Planning.pdf</t>
+        </is>
+      </c>
+      <c r="B140" s="5" t="inlineStr">
+        <is>
+          <t>On the Surprising Robustness of Sequential Convex Optimization for Contact-Implicit Motion Planning</t>
+        </is>
+      </c>
+      <c r="C140" s="5" t="inlineStr">
+        <is>
+          <t>Contact-Implicit Motion Planning</t>
+        </is>
+      </c>
+      <c r="D140" s="5" t="inlineStr">
+        <is>
+          <t>Robotics and Automation</t>
+        </is>
+      </c>
+      <c r="E140" s="5" t="inlineStr">
+        <is>
+          <t>Sequential Convex Optimization</t>
+        </is>
+      </c>
+      <c r="F140" s="5" t="inlineStr">
+        <is>
+          <t>Primal-Only Algorithm</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="inlineStr">
+        <is>
+          <t>Robustness and Efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="13.5" customHeight="1" s="6">
+      <c r="A141" s="5" t="inlineStr">
+        <is>
+          <t>Bilevel Learning for Bilevel Planning.pdf</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="inlineStr">
+        <is>
+          <t>Bilevel Learning for Bilevel Planning</t>
+        </is>
+      </c>
+      <c r="C141" s="5" t="inlineStr">
+        <is>
+          <t>Bilevel Planning</t>
+        </is>
+      </c>
+      <c r="D141" s="5" t="inlineStr">
+        <is>
+          <t>Robot Planning</t>
+        </is>
+      </c>
+      <c r="E141" s="5" t="inlineStr">
+        <is>
+          <t>Neuro-Symbolic Learning</t>
+        </is>
+      </c>
+      <c r="F141" s="5" t="inlineStr">
+        <is>
+          <t>Invented Neural Predicates</t>
+        </is>
+      </c>
+      <c r="G141" s="5" t="inlineStr">
+        <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="13.5" customHeight="1" s="6">
+      <c r="A142" s="5" t="inlineStr">
+        <is>
+          <t>Map Space Belief Prediction for Manipulation-Enhanced Mapping.pdf</t>
+        </is>
+      </c>
+      <c r="B142" s="5" t="inlineStr">
+        <is>
+          <t>Map Space Belief Prediction for Manipulation-Enhanced Mapping</t>
+        </is>
+      </c>
+      <c r="C142" s="5" t="inlineStr">
+        <is>
+          <t>Manipulation-Enhanced Mapping</t>
+        </is>
+      </c>
+      <c r="D142" s="5" t="inlineStr">
+        <is>
+          <t>Cluttered Environments</t>
+        </is>
+      </c>
+      <c r="E142" s="5" t="inlineStr">
+        <is>
+          <t>Calibrated Neural-Accelerated Belief Update (CNABU)</t>
+        </is>
+      </c>
+      <c r="F142" s="5" t="inlineStr">
+        <is>
+          <t>Belief Propagation</t>
+        </is>
+      </c>
+      <c r="G142" s="5" t="inlineStr">
+        <is>
+          <t>Map Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="13.5" customHeight="1" s="6">
+      <c r="A143" s="5" t="inlineStr">
+        <is>
+          <t>Geometric Gait Optimization for Kinodynamic Systems Using a Lie Group Integrator.pdf</t>
+        </is>
+      </c>
+      <c r="B143" s="5" t="inlineStr">
+        <is>
+          <t>Geometric Gait Optimization for Kinodynamic Systems Using a Lie Group Integrator</t>
+        </is>
+      </c>
+      <c r="C143" s="5" t="inlineStr">
+        <is>
+          <t>Kinodynamic Systems</t>
+        </is>
+      </c>
+      <c r="D143" s="5" t="inlineStr">
+        <is>
+          <t>Locomotion</t>
+        </is>
+      </c>
+      <c r="E143" s="5" t="inlineStr">
+        <is>
+          <t>Lie Group Integrator</t>
+        </is>
+      </c>
+      <c r="F143" s="5" t="inlineStr">
+        <is>
+          <t>Variational Gait Optimization</t>
+        </is>
+      </c>
+      <c r="G143" s="5" t="inlineStr">
+        <is>
+          <t>Motion Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="13.5" customHeight="1" s="6">
+      <c r="A144" s="5" t="inlineStr">
+        <is>
+          <t>From Foresight to Forethought VLM-In-the-Loop Policy Steering via Latent Alignment.pdf</t>
+        </is>
+      </c>
+      <c r="B144" s="5" t="inlineStr">
+        <is>
+          <t>From Foresight to Forethought: VLM-In-the-Loop Policy Steering via Latent Alignment</t>
+        </is>
+      </c>
+      <c r="C144" s="5" t="inlineStr">
+        <is>
+          <t>Policy Steering</t>
+        </is>
+      </c>
+      <c r="D144" s="5" t="inlineStr">
+        <is>
+          <t>Robot Manipulation</t>
+        </is>
+      </c>
+      <c r="E144" s="5" t="inlineStr">
+        <is>
+          <t>Latent Alignment</t>
+        </is>
+      </c>
+      <c r="F144" s="5" t="inlineStr">
+        <is>
+          <t>VLM-In-the-Loop</t>
+        </is>
+      </c>
+      <c r="G144" s="5" t="inlineStr">
+        <is>
+          <t>Latent-Aligned VLM</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="13.5" customHeight="1" s="6">
+      <c r="A145" s="5" t="inlineStr">
+        <is>
+          <t>Bridging the Sim-to-Real Gap for Athletic Loco-Manipulation.pdf</t>
+        </is>
+      </c>
+      <c r="B145" s="5" t="inlineStr">
+        <is>
+          <t>Bridging the Sim-to-Real Gap for Athletic Loco-Manipulation</t>
+        </is>
+      </c>
+      <c r="C145" s="5" t="inlineStr">
+        <is>
+          <t>Athletic Loco-Manipulation</t>
+        </is>
+      </c>
+      <c r="D145" s="5" t="inlineStr">
+        <is>
+          <t>Simulation to Real Transfer</t>
+        </is>
+      </c>
+      <c r="E145" s="5" t="inlineStr">
+        <is>
+          <t>Unsupervised Actuator Net</t>
+        </is>
+      </c>
+      <c r="F145" s="5" t="inlineStr">
+        <is>
+          <t>Real-to-Sim Calibration</t>
+        </is>
+      </c>
+      <c r="G145" s="5" t="inlineStr">
+        <is>
+          <t>Sim-to-Real Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="13.5" customHeight="1" s="6">
+      <c r="A146" s="5" t="inlineStr">
+        <is>
+          <t>Differentiable GPU-Parallelized Task and Motion Planning.pdf</t>
+        </is>
+      </c>
+      <c r="B146" s="5" t="inlineStr">
+        <is>
+          <t>Differentiable GPU-Parallelized Task and Motion Planning</t>
+        </is>
+      </c>
+      <c r="C146" s="5" t="inlineStr">
+        <is>
+          <t>Task and Motion Planning</t>
+        </is>
+      </c>
+      <c r="D146" s="5" t="inlineStr">
+        <is>
+          <t>Robot manipulation</t>
+        </is>
+      </c>
+      <c r="E146" s="5" t="inlineStr">
+        <is>
+          <t>Differentiable optimization</t>
+        </is>
+      </c>
+      <c r="F146" s="5" t="inlineStr">
+        <is>
+          <t>GPU-parallelized TAMP</t>
+        </is>
+      </c>
+      <c r="G146" s="5" t="inlineStr">
+        <is>
+          <t>Efficiently solve highly constrained problems</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="13.5" customHeight="1" s="6">
+      <c r="A147" s="5" t="inlineStr">
+        <is>
+          <t>Towards Uncertainty Unification A Case Study for Preference Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B147" s="5" t="inlineStr">
+        <is>
+          <t>Towards Uncertainty Unification: A Case Study for Preference Learning</t>
+        </is>
+      </c>
+      <c r="C147" s="5" t="inlineStr">
+        <is>
+          <t>Uncertainty Unification</t>
+        </is>
+      </c>
+      <c r="D147" s="5" t="inlineStr">
+        <is>
+          <t>Human-Robot Interaction</t>
+        </is>
+      </c>
+      <c r="E147" s="5" t="inlineStr">
+        <is>
+          <t>Gaussian Process</t>
+        </is>
+      </c>
+      <c r="F147" s="5" t="inlineStr">
+        <is>
+          <t>Human Preference Uncertainty Model</t>
+        </is>
+      </c>
+      <c r="G147" s="5" t="inlineStr">
+        <is>
+          <t>State-of-the-Art Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="13.5" customHeight="1" s="6">
+      <c r="A148" s="5" t="inlineStr">
+        <is>
+          <t>Dexonomy Synthesizing All Dexterous Grasp Types in a Grasp Taxonomy.pdf</t>
+        </is>
+      </c>
+      <c r="B148" s="5" t="inlineStr">
+        <is>
+          <t>Grasp Types in a Grasp Taxonomy</t>
+        </is>
+      </c>
+      <c r="C148" s="5" t="inlineStr">
+        <is>
+          <t>dexterous grasping</t>
+        </is>
+      </c>
+      <c r="D148" s="5" t="inlineStr">
+        <is>
+          <t>robotic grasping</t>
+        </is>
+      </c>
+      <c r="E148" s="5" t="inlineStr">
+        <is>
+          <t>sampling and optimization</t>
+        </is>
+      </c>
+      <c r="F148" s="5" t="inlineStr">
+        <is>
+          <t>type-aware grasp synthesis</t>
+        </is>
+      </c>
+      <c r="G148" s="5" t="inlineStr">
+        <is>
+          <t>high-quality grasps</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="13.5" customHeight="1" s="6">
+      <c r="A149" s="5" t="inlineStr">
+        <is>
+          <t>PINGS Gaussian Splatting Meets Distance Fields within a Point-Based Implicit Neural Map.pdf</t>
+        </is>
+      </c>
+      <c r="B149" s="5" t="inlineStr">
+        <is>
+          <t>within a Point-Based Implicit Neural Map</t>
+        </is>
+      </c>
+      <c r="C149" s="5" t="inlineStr">
+        <is>
+          <t>LiDAR-visual SLAM</t>
+        </is>
+      </c>
+      <c r="D149" s="5" t="inlineStr">
+        <is>
+          <t>large-scale environments</t>
+        </is>
+      </c>
+      <c r="E149" s="5" t="inlineStr">
+        <is>
+          <t>point-based implicit neural map</t>
+        </is>
+      </c>
+      <c r="F149" s="5" t="inlineStr">
+        <is>
+          <t>mutual geometric consistency</t>
+        </is>
+      </c>
+      <c r="G149" s="5" t="inlineStr">
+        <is>
+          <t>globally consistent mapping</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="13.5" customHeight="1" s="6">
+      <c r="A150" s="5" t="inlineStr">
+        <is>
+          <t>Users and Wizards in Conversations How WoZ Interface Choices Define Human-Robot Interactions.pdf</t>
+        </is>
+      </c>
+      <c r="B150" s="5" t="inlineStr">
+        <is>
+          <t>Users and Wizards in Conversations: How WoZ Interface Choices Define Human-Robot Interactions</t>
+        </is>
+      </c>
+      <c r="C150" s="5" t="inlineStr">
+        <is>
+          <t>Human-Robot Interaction</t>
+        </is>
+      </c>
+      <c r="D150" s="5" t="inlineStr">
+        <is>
+          <t>Social Robotics</t>
+        </is>
+      </c>
+      <c r="E150" s="5" t="inlineStr">
+        <is>
+          <t>Wizard-of-Oz</t>
+        </is>
+      </c>
+      <c r="F150" s="5" t="inlineStr">
+        <is>
+          <t>VR Telepresence Interface</t>
+        </is>
+      </c>
+      <c r="G150" s="5" t="inlineStr">
+        <is>
+          <t>Social Presence</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="13.5" customHeight="1" s="6">
+      <c r="A151" s="5" t="inlineStr">
+        <is>
+          <t>ROMAN Open-Set Object Map Alignment for Robust View-Invariant Global Localization.pdf</t>
+        </is>
+      </c>
+      <c r="B151" s="5" t="inlineStr">
+        <is>
+          <t>Robust View-Invariant Global Localization</t>
+        </is>
+      </c>
+      <c r="C151" s="5" t="inlineStr">
+        <is>
+          <t>Global Localization</t>
+        </is>
+      </c>
+      <c r="D151" s="5" t="inlineStr">
+        <is>
+          <t>Robot Navigation</t>
+        </is>
+      </c>
+      <c r="E151" s="5" t="inlineStr">
+        <is>
+          <t>Object Map Alignment</t>
+        </is>
+      </c>
+      <c r="F151" s="5" t="inlineStr">
+        <is>
+          <t>View-Invariant</t>
+        </is>
+      </c>
+      <c r="G151" s="5" t="inlineStr">
+        <is>
+          <t>Challenging Environments</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="13.5" customHeight="1" s="6">
+      <c r="A152" s="5" t="inlineStr">
+        <is>
+          <t>A Robot-Assisted Approach to Small Talk Training for Adults with ASD.pdf</t>
+        </is>
+      </c>
+      <c r="B152" s="5" t="inlineStr">
+        <is>
+          <t>A Robot-Assisted Approach to Small Talk Training for Adults with ASD</t>
+        </is>
+      </c>
+      <c r="C152" s="5" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="D152" s="5" t="inlineStr">
+        <is>
+          <t>small talk</t>
+        </is>
+      </c>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <t>robot-assisted</t>
+        </is>
+      </c>
+      <c r="F152" s="5" t="inlineStr">
+        <is>
+          <t>grounded observer</t>
+        </is>
+      </c>
+      <c r="G152" s="5" t="inlineStr">
+        <is>
+          <t>improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="13.5" customHeight="1" s="6">
+      <c r="A153" s="5" t="inlineStr">
+        <is>
+          <t>Robust Peg-in-Hole Assembly under Uncertainties via Compliant and Interactive Contact-Rich Manipulat.pdf</t>
+        </is>
+      </c>
+      <c r="B153" s="5" t="inlineStr">
+        <is>
+          <t>Robust Peg-in-Hole Assembly under Uncertainties via Compliant and Interactive Contact-Rich Manipulation</t>
+        </is>
+      </c>
+      <c r="C153" s="5" t="inlineStr">
+        <is>
+          <t>Peg-in-hole assembly</t>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
+        <is>
+          <t>Industrial applications</t>
+        </is>
+      </c>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>Compliant manipulation</t>
+        </is>
+      </c>
+      <c r="F153" s="5" t="inlineStr">
+        <is>
+          <t>Manipulation funnels</t>
+        </is>
+      </c>
+      <c r="G153" s="5" t="inlineStr">
+        <is>
+          <t>Uncertainty elimination</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="13.5" customHeight="1" s="6">
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>MISO Multiresolution Submap Optimization for Efficient Globally Consistent Neural Implicit Reconstru.pdf</t>
+        </is>
+      </c>
+      <c r="B154" s="5" t="inlineStr">
+        <is>
+          <t>Globally Consistent Neural Implicit Reconstruction</t>
+        </is>
+      </c>
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <t>Neural Implicit Reconstruction</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
+        <is>
+          <t>SLAM</t>
+        </is>
+      </c>
+      <c r="E154" s="5" t="inlineStr">
+        <is>
+          <t>Hierarchical Optimization</t>
+        </is>
+      </c>
+      <c r="F154" s="5" t="inlineStr">
+        <is>
+          <t>Multiresolution Submap Optimization</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="inlineStr">
+        <is>
+          <t>Computational Efficiency and Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="13.5" customHeight="1" s="6">
+      <c r="A155" s="5" t="inlineStr">
         <is>
           <t>Is Your Imitation Learning Policy Better than Mine Policy Comparison with Near-Optimal Stopping.pdf</t>
         </is>
       </c>
-      <c r="B125" s="6" t="inlineStr">
+      <c r="B155" s="5" t="inlineStr">
         <is>
           <t>Is Your Imitation Learning Policy Better than Mine? Policy Comparison with Near-Optimal Stopping</t>
         </is>
       </c>
-      <c r="C125" s="6" t="inlineStr">
-        <is>
-          <t>Imitation Learning, Policy Comparison, Sequential Testing</t>
-        </is>
-      </c>
-      <c r="D125" s="6" t="inlineStr">
-        <is>
-          <t>Robotics, Manipulation Tasks, Real-world Evaluation</t>
-        </is>
-      </c>
-      <c r="E125" s="6" t="inlineStr">
-        <is>
-          <t>Near-Optimal Stopping, Sequential Probability Ratio Test (SPRT), Type-I Error Control</t>
-        </is>
-      </c>
-      <c r="F125" s="6" t="inlineStr">
-        <is>
-          <t>Near-optimal stopping, Adaptive sample size, Finite-sample guarantees</t>
-        </is>
-      </c>
-      <c r="G125" s="6" t="inlineStr">
-        <is>
-          <t>Sample efficiency, Statistical validity, Policy evaluation</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="6" t="inlineStr">
-        <is>
-          <t>V-HOP Visuo-Haptic 6D Object Pose Tracking.pdf</t>
-        </is>
-      </c>
-      <c r="B126" s="6" t="inlineStr">
-        <is>
-          <t>V-HOP: A Generalizable Visuo-Haptic 6D Object Pose Tracker</t>
-        </is>
-      </c>
-      <c r="C126" s="6" t="inlineStr">
-        <is>
-          <t>6D object pose tracking</t>
-        </is>
-      </c>
-      <c r="D126" s="6" t="inlineStr">
-        <is>
-          <t>in-hand manipulation</t>
-        </is>
-      </c>
-      <c r="E126" s="6" t="inlineStr">
-        <is>
-          <t>visuo-haptic transformer</t>
-        </is>
-      </c>
-      <c r="F126" s="6" t="inlineStr">
-        <is>
-          <t>unified haptic representation</t>
-        </is>
-      </c>
-      <c r="G126" s="6" t="inlineStr">
-        <is>
-          <t>generalization across novel embodiments</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="6" t="inlineStr">
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>Policy Comparison</t>
+        </is>
+      </c>
+      <c r="D155" s="5" t="inlineStr">
+        <is>
+          <t>Robot evaluation</t>
+        </is>
+      </c>
+      <c r="E155" s="5" t="inlineStr">
+        <is>
+          <t>Sequential Testing</t>
+        </is>
+      </c>
+      <c r="F155" s="5" t="inlineStr">
+        <is>
+          <t>Near-optimal stopping</t>
+        </is>
+      </c>
+      <c r="G155" s="5" t="inlineStr">
+        <is>
+          <t>Sample efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="13.5" customHeight="1" s="6">
+      <c r="A156" s="5" t="inlineStr">
+        <is>
+          <t>GauSS-MI Gaussian Splatting Shannon Mutual Information for Active 3D Reconstruction.pdf</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="inlineStr">
+        <is>
+          <t>Information for Active 3D Reconstruction</t>
+        </is>
+      </c>
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>Active 3D Reconstruction</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr">
+        <is>
+          <t>Robotics</t>
+        </is>
+      </c>
+      <c r="E156" s="5" t="inlineStr">
+        <is>
+          <t>Gaussian Splatting Shannon Mutual Information (GauSS-MI)</t>
+        </is>
+      </c>
+      <c r="F156" s="5" t="inlineStr">
+        <is>
+          <t>Probabilistic model for 3D Gaussian Splatting map</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="inlineStr">
+        <is>
+          <t>High visual fidelity 3D reconstruction</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="13.5" customHeight="1" s="6">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>Leveling the Playing Field Carefully Comparing Classical and Learned Controllers for Quadrotor Traje.pdf</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
+        <is>
+          <t>Leveling the Playing Field: Carefully Comparing Classical and Learned Controllers for Quadrotor Trajectory Tracking</t>
+        </is>
+      </c>
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>quadrotor trajectory tracking</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
+        <is>
+          <t>aerial vehicles</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>reinforcement learning, geometric control</t>
+        </is>
+      </c>
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>fair comparison protocol</t>
+        </is>
+      </c>
+      <c r="G157" s="5" t="inlineStr">
+        <is>
+          <t>similar performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="13.5" customHeight="1" s="6">
+      <c r="A158" s="5" t="inlineStr">
+        <is>
+          <t>A Probabilistic Measure of Multi-Robot Connectivity and Ergodic Optimal Control.pdf</t>
+        </is>
+      </c>
+      <c r="B158" s="5" t="inlineStr">
+        <is>
+          <t>Probabilistic Measure of Multi-Robot Connectivity and Ergodic Optimal Control</t>
+        </is>
+      </c>
+      <c r="C158" s="5" t="inlineStr">
+        <is>
+          <t>Multi-Robot Trajectory Planning</t>
+        </is>
+      </c>
+      <c r="D158" s="5" t="inlineStr">
+        <is>
+          <t>Information Gathering</t>
+        </is>
+      </c>
+      <c r="E158" s="5" t="inlineStr">
+        <is>
+          <t>Ergodic Search</t>
+        </is>
+      </c>
+      <c r="F158" s="5" t="inlineStr">
+        <is>
+          <t>Probabilistic Measure of Inter-Robot Connectivity</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="inlineStr">
+        <is>
+          <t>Optimal Control Problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="13.5" customHeight="1" s="6">
+      <c r="A159" s="5" t="inlineStr">
+        <is>
+          <t>DemoGen Synthetic Demonstration Generation for Data-Efficient Visuomotor Policy Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B159" s="5" t="inlineStr">
+        <is>
+          <t>DemoGen: Automatic Demonstration Generation for Data-Efficient Visuomotor Policy Learning</t>
+        </is>
+      </c>
+      <c r="C159" s="5" t="inlineStr">
+        <is>
+          <t>Visuomotor Policy Learning</t>
+        </is>
+      </c>
+      <c r="D159" s="5" t="inlineStr">
+        <is>
+          <t>Real-world robotic manipulation tasks</t>
+        </is>
+      </c>
+      <c r="E159" s="5" t="inlineStr">
+        <is>
+          <t>TAMP-based action adaptation, 3D point cloud manipulation</t>
+        </is>
+      </c>
+      <c r="F159" s="5" t="inlineStr">
+        <is>
+          <t>Fully synthetic data generation, spatial generalization</t>
+        </is>
+      </c>
+      <c r="G159" s="5" t="inlineStr">
+        <is>
+          <t>Significantly improves policy performance with minimal human effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="13.5" customHeight="1" s="6">
+      <c r="A160" s="5" t="inlineStr">
+        <is>
+          <t>NaVILA Legged Robot Vision-Language-Action Model for Navigation.pdf</t>
+        </is>
+      </c>
+      <c r="B160" s="5" t="inlineStr">
+        <is>
+          <t>NaVILA: Vision-and-Language Navigation with Legged Robots</t>
+        </is>
+      </c>
+      <c r="C160" s="5" t="inlineStr">
+        <is>
+          <t>Vision-and-Language Navigation</t>
+        </is>
+      </c>
+      <c r="D160" s="5" t="inlineStr">
+        <is>
+          <t>Legged Robots</t>
+        </is>
+      </c>
+      <c r="E160" s="5" t="inlineStr">
+        <is>
+          <t>Two-level Framework</t>
+        </is>
+      </c>
+      <c r="F160" s="5" t="inlineStr">
+        <is>
+          <t>Mid-level Actions</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="inlineStr">
+        <is>
+          <t>Success Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="13.5" customHeight="1" s="6">
+      <c r="A161" s="5" t="inlineStr">
+        <is>
+          <t>Uni-NaVid A Video-based Vision-Language-Action Model for Unifying Embodied Navigation Tasks.pdf</t>
+        </is>
+      </c>
+      <c r="B161" s="5" t="inlineStr">
+        <is>
+          <t>Model for Unifying Embodied Navigation Tasks</t>
+        </is>
+      </c>
+      <c r="C161" s="5" t="inlineStr">
+        <is>
+          <t>Embodied Navigation</t>
+        </is>
+      </c>
+      <c r="D161" s="5" t="inlineStr">
+        <is>
+          <t>Open-world</t>
+        </is>
+      </c>
+      <c r="E161" s="5" t="inlineStr">
+        <is>
+          <t>Online Token Merging</t>
+        </is>
+      </c>
+      <c r="F161" s="5" t="inlineStr">
+        <is>
+          <t>Multi-task Learning</t>
+        </is>
+      </c>
+      <c r="G161" s="5" t="inlineStr">
+        <is>
+          <t>State-of-the-Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="13.5" customHeight="1" s="6">
+      <c r="A162" s="5" t="inlineStr">
+        <is>
+          <t>Fine-Tuning Vision-Language-Action Models Optimizing Speed and Success.pdf</t>
+        </is>
+      </c>
+      <c r="B162" s="5" t="inlineStr">
+        <is>
+          <t>Fine-Tuning Vision-Language-Action Models: Optimizing Speed and Success</t>
+        </is>
+      </c>
+      <c r="C162" s="5" t="inlineStr">
+        <is>
+          <t>Vision-Language-Action Models</t>
+        </is>
+      </c>
+      <c r="D162" s="5" t="inlineStr">
+        <is>
+          <t>Robotics</t>
+        </is>
+      </c>
+      <c r="E162" s="5" t="inlineStr">
+        <is>
+          <t>Optimized Fine-Tuning</t>
+        </is>
+      </c>
+      <c r="F162" s="5" t="inlineStr">
+        <is>
+          <t>Parallel decoding, Action chunking, Continuous action representations</t>
+        </is>
+      </c>
+      <c r="G162" s="5" t="inlineStr">
+        <is>
+          <t>High-frequency control, Strong task performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="5" t="inlineStr">
         <is>
           <t>Diffeomorphic Obstacle Avoidance for Contractive Dynamical Systems via Implicit Representations.pdf</t>
         </is>
       </c>
-      <c r="B127" s="6" t="inlineStr">
+      <c r="B163" s="5" t="inlineStr">
         <is>
           <t>Diffeomorphic Obstacle Avoidance for Contractive Dynamical Systems via Implicit Representations</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr">
+      <c r="C163" s="5" t="inlineStr">
         <is>
           <t>Contractive Dynamical Systems</t>
         </is>
       </c>
-      <c r="D127" s="6" t="inlineStr">
-        <is>
-          <t>Robot Motion Skills</t>
-        </is>
-      </c>
-      <c r="E127" s="6" t="inlineStr">
+      <c r="D163" s="5" t="inlineStr">
+        <is>
+          <t>Robot Motion Planning</t>
+        </is>
+      </c>
+      <c r="E163" s="5" t="inlineStr">
         <is>
           <t>Implicit Representations</t>
         </is>
       </c>
-      <c r="F127" s="6" t="inlineStr">
+      <c r="F163" s="5" t="inlineStr">
         <is>
           <t>Contraction-Preserving Obstacle Avoidance</t>
         </is>
       </c>
-      <c r="G127" s="6" t="inlineStr">
-        <is>
-          <t>Contraction Stability</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="6" t="inlineStr">
-        <is>
-          <t>A Unified and General Humanoid Whole-Body Controller for Fine-Grained Locomotion.pdf</t>
-        </is>
-      </c>
-      <c r="B128" s="6" t="inlineStr">
-        <is>
-          <t>A Unified and General Humanoid Whole-Body Controller for Versatile Locomotion</t>
-        </is>
-      </c>
-      <c r="C128" s="6" t="inlineStr">
-        <is>
-          <t>Humanoid Locomotion</t>
-        </is>
-      </c>
-      <c r="D128" s="6" t="inlineStr">
-        <is>
-          <t>Real-world Humanoid Robots</t>
-        </is>
-      </c>
-      <c r="E128" s="6" t="inlineStr">
-        <is>
-          <t>Reinforcement Learning</t>
-        </is>
-      </c>
-      <c r="F128" s="6" t="inlineStr">
-        <is>
-          <t>Extended Command Space</t>
-        </is>
-      </c>
-      <c r="G128" s="6" t="inlineStr">
-        <is>
-          <t>Versatile Gait Control</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="6" t="inlineStr">
-        <is>
-          <t>FAST Efficient Action Tokenization for Vision-Language-Action Models.pdf</t>
-        </is>
-      </c>
-      <c r="B129" s="6" t="inlineStr">
-        <is>
-          <t>Vision-Language-Action Models</t>
-        </is>
-      </c>
-      <c r="C129" s="6" t="inlineStr">
-        <is>
-          <t>Vision-Language-Action Model</t>
-        </is>
-      </c>
-      <c r="D129" s="6" t="inlineStr">
-        <is>
-          <t>Robot action tokenization</t>
-        </is>
-      </c>
-      <c r="E129" s="6" t="inlineStr">
-        <is>
-          <t>Frequency-space Action Sequence Tokenization (FAST)</t>
-        </is>
-      </c>
-      <c r="F129" s="6" t="inlineStr">
-        <is>
-          <t>Discrete cosine transform (DCT)</t>
-        </is>
-      </c>
-      <c r="G129" s="6" t="inlineStr">
-        <is>
-          <t>Autoregressive VLAs</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="6" t="inlineStr">
-        <is>
-          <t>GauSS-MI Gaussian Splatting Shannon Mutual Information for Active 3D Reconstruction.pdf</t>
-        </is>
-      </c>
-      <c r="B130" s="6" t="inlineStr">
-        <is>
-          <t>Information for Active 3D Reconstruction</t>
-        </is>
-      </c>
-      <c r="C130" s="6" t="inlineStr">
-        <is>
-          <t>Active 3D Reconstruction</t>
-        </is>
-      </c>
-      <c r="D130" s="6" t="inlineStr">
-        <is>
-          <t>Visual Quality</t>
-        </is>
-      </c>
-      <c r="E130" s="6" t="inlineStr">
-        <is>
-          <t>Gaussian Splatting Shannon Mutual Information (GauSS-MI)</t>
-        </is>
-      </c>
-      <c r="F130" s="6" t="inlineStr">
-        <is>
-          <t>Probabilistic Model for Visual Uncertainty</t>
-        </is>
-      </c>
-      <c r="G130" s="6" t="inlineStr">
-        <is>
-          <t>High Visual Fidelity Reconstruction</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="6" t="inlineStr">
-        <is>
-          <t>Bridging Model Predictive Control and Deep Learning for Scalable Reachability Analysis.pdf</t>
-        </is>
-      </c>
-      <c r="B131" s="6" t="inlineStr">
-        <is>
-          <t>Bridging Model Predictive Control and Deep Learning for Scalable Reachability Analysis</t>
-        </is>
-      </c>
-      <c r="C131" s="6" t="inlineStr">
-        <is>
-          <t>Reachability Analysis</t>
-        </is>
-      </c>
-      <c r="D131" s="6" t="inlineStr">
-        <is>
-          <t>Autonomous Systems</t>
-        </is>
-      </c>
-      <c r="E131" s="6" t="inlineStr">
-        <is>
-          <t>Model Predictive Control</t>
-        </is>
-      </c>
-      <c r="F131" s="6" t="inlineStr">
-        <is>
-          <t>Hybrid Training Algorithm</t>
-        </is>
-      </c>
-      <c r="G131" s="6" t="inlineStr">
-        <is>
-          <t>Safety Assurances</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="6" t="inlineStr">
-        <is>
-          <t>Demonstrating ViSafe Vision-enabled Safety for High-speed Detect and Avoid.pdf</t>
-        </is>
-      </c>
-      <c r="B132" s="6" t="inlineStr">
-        <is>
-          <t>Demonstrating ViSafe: Vision-enabled Safety for High-speed Detect and Avoid</t>
-        </is>
-      </c>
-      <c r="C132" s="6" t="inlineStr">
-        <is>
-          <t>Detect and Avoid</t>
-        </is>
-      </c>
-      <c r="D132" s="6" t="inlineStr">
-        <is>
-          <t>High-speed</t>
-        </is>
-      </c>
-      <c r="E132" s="6" t="inlineStr">
-        <is>
-          <t>Control Barrier Functions</t>
-        </is>
-      </c>
-      <c r="F132" s="6" t="inlineStr">
-        <is>
-          <t>Vision-only</t>
-        </is>
-      </c>
-      <c r="G132" s="6" t="inlineStr">
-        <is>
-          <t>Provably Safe Runtime Guarantees</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="6" t="inlineStr">
-        <is>
-          <t>Flow Matching Ergodic Coverage.pdf</t>
-        </is>
-      </c>
-      <c r="B133" s="6" t="inlineStr">
-        <is>
-          <t>Flow Matching Ergodic Coverage</t>
-        </is>
-      </c>
-      <c r="C133" s="6" t="inlineStr">
-        <is>
-          <t>Ergodic Coverage</t>
-        </is>
-      </c>
-      <c r="D133" s="6" t="inlineStr">
-        <is>
-          <t>Exploratory Behaviors</t>
-        </is>
-      </c>
-      <c r="E133" s="6" t="inlineStr">
-        <is>
-          <t>Flow Matching</t>
-        </is>
-      </c>
-      <c r="F133" s="6" t="inlineStr">
-        <is>
-          <t>Alternative Ergodic Metrics</t>
-        </is>
-      </c>
-      <c r="G133" s="6" t="inlineStr">
-        <is>
-          <t>Optimal Ergodic Trajectories</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="6" t="inlineStr">
-        <is>
-          <t>Dynamic Rank Adjustment in Diffusion Policies for Efficient and Flexible Training.pdf</t>
-        </is>
-      </c>
-      <c r="B134" s="6" t="inlineStr">
-        <is>
-          <t>Dynamic Rank Adjustment in Diffusion Policies for Efficient and Flexible Training</t>
-        </is>
-      </c>
-      <c r="C134" s="6" t="inlineStr">
-        <is>
-          <t>Diffusion Policies</t>
-        </is>
-      </c>
-      <c r="D134" s="6" t="inlineStr">
-        <is>
-          <t>Robot Motion Generation</t>
-        </is>
-      </c>
-      <c r="E134" s="6" t="inlineStr">
-        <is>
-          <t>Dynamic Rank Adjustment</t>
-        </is>
-      </c>
-      <c r="F134" s="6" t="inlineStr">
-        <is>
-          <t>Rank Modulation</t>
-        </is>
-      </c>
-      <c r="G134" s="6" t="inlineStr">
-        <is>
-          <t>Training Efficiency</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="6" t="inlineStr">
-        <is>
-          <t>Learning Getting-Up Policies for Real-World Humanoid Robots.pdf</t>
-        </is>
-      </c>
-      <c r="B135" s="6" t="inlineStr">
-        <is>
-          <t>Learning Getting-Up Policies for Real-World Humanoid Robots</t>
-        </is>
-      </c>
-      <c r="C135" s="6" t="inlineStr">
-        <is>
-          <t>Humanoid Getting-Up</t>
-        </is>
-      </c>
-      <c r="D135" s="6" t="inlineStr">
-        <is>
-          <t>Real-World Humanoid Robots</t>
-        </is>
-      </c>
-      <c r="E135" s="6" t="inlineStr">
-        <is>
-          <t>Two-Stage Reinforcement Learning</t>
-        </is>
-      </c>
-      <c r="F135" s="6" t="inlineStr">
-        <is>
-          <t>Sim-to-Real Transfer for Getting-Up</t>
-        </is>
-      </c>
-      <c r="G135" s="6" t="inlineStr">
-        <is>
-          <t>Automatic Fall Recovery</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="6" t="inlineStr">
-        <is>
-          <t>CordViP Correspondence-based Visuomotor Policy for Dexterous Manipulation in Real-World.pdf</t>
-        </is>
-      </c>
-      <c r="B136" s="6" t="inlineStr">
-        <is>
-          <t>CordViP: A Correspondence-based Visuomotor Policy for Dexterous Manipulation in the Real World</t>
-        </is>
-      </c>
-      <c r="C136" s="6" t="inlineStr">
-        <is>
-          <t>Dexterous Manipulation</t>
-        </is>
-      </c>
-      <c r="D136" s="6" t="inlineStr">
-        <is>
-          <t>Real-World</t>
-        </is>
-      </c>
-      <c r="E136" s="6" t="inlineStr">
-        <is>
-          <t>Correspondence-based Visuomotor Policy</t>
-        </is>
-      </c>
-      <c r="F136" s="6" t="inlineStr">
-        <is>
-          <t>Interaction-aware Point Clouds</t>
-        </is>
-      </c>
-      <c r="G136" s="6" t="inlineStr">
-        <is>
-          <t>State-of-the-Art Performance</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="6" t="inlineStr">
-        <is>
-          <t>DexterityGen  Foundation Controller for Unprecedented Dexterity.pdf</t>
-        </is>
-      </c>
-      <c r="B137" s="6" t="inlineStr">
-        <is>
-          <t>Foundation Controller for Unprecedented Dexterity</t>
-        </is>
-      </c>
-      <c r="C137" s="6" t="inlineStr">
-        <is>
-          <t>Dexterous Manipulation</t>
-        </is>
-      </c>
-      <c r="D137" s="6" t="inlineStr">
-        <is>
-          <t>Teleoperation</t>
-        </is>
-      </c>
-      <c r="E137" s="6" t="inlineStr">
-        <is>
-          <t>Generative Pretraining</t>
-        </is>
-      </c>
-      <c r="F137" s="6" t="inlineStr">
-        <is>
-          <t>Foundation Controller</t>
-        </is>
-      </c>
-      <c r="G137" s="6" t="inlineStr">
-        <is>
-          <t>Dexterous Tool Use</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="6" t="inlineStr">
-        <is>
-          <t>Certifiably-Correct Mapping for Safe Navigation Despite Odometry Drift.pdf</t>
-        </is>
-      </c>
-      <c r="B138" s="6" t="inlineStr">
-        <is>
-          <t>Certifiably-Correct Mapping for Safe Navigation Despite Odometry Drift</t>
-        </is>
-      </c>
-      <c r="C138" s="6" t="inlineStr">
-        <is>
-          <t>Certifiably correct mapping, Safe navigation, Odometry drift</t>
-        </is>
-      </c>
-      <c r="D138" s="6" t="inlineStr">
-        <is>
-          <t>Robotic navigation, Autonomous systems, obstacle avoidance</t>
-        </is>
-      </c>
-      <c r="E138" s="6" t="inlineStr">
-        <is>
-          <t>Deflation mechanism, Safe Flight Corridors (SFC), Euclidean Signed Distance Fields (ESDF)</t>
-        </is>
-      </c>
-      <c r="F138" s="6" t="inlineStr">
-        <is>
-          <t>Guaranteeing map correctness despite odometry drift, Formal proofs of correctness, Incremental deflation based on incremental odometry error</t>
-        </is>
-      </c>
-      <c r="G138" s="6" t="inlineStr">
-        <is>
-          <t>Certifiably correct obstacle maps ensure safe navigation, Reduction in violation rate and maximum violation distance, Smaller but trustworthy free space volume</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="6" t="inlineStr">
-        <is>
-          <t>Leveling the Playing Field Carefully Comparing Classical and Learned Controllers for Quadrotor Traje.pdf</t>
-        </is>
-      </c>
-      <c r="B139" s="6" t="inlineStr">
-        <is>
-          <t>Leveling the Playing Field: Carefully Comparing Classical and Learned Controllers for Quadrotor Trajectory Tracking</t>
-        </is>
-      </c>
-      <c r="C139" s="6" t="inlineStr">
-        <is>
-          <t>Quadrotor Trajectory Tracking</t>
-        </is>
-      </c>
-      <c r="D139" s="6" t="inlineStr">
-        <is>
-          <t>Aerial Manipulator</t>
-        </is>
-      </c>
-      <c r="E139" s="6" t="inlineStr">
-        <is>
-          <t>Reinforcement Learning (RL) and Geometric Control (GC)</t>
-        </is>
-      </c>
-      <c r="F139" s="6" t="inlineStr">
-        <is>
-          <t>Fair Comparison Protocol</t>
-        </is>
-      </c>
-      <c r="G139" s="6" t="inlineStr">
-        <is>
-          <t>RL and GC Performance Parity</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="6" t="inlineStr">
-        <is>
-          <t>A Probabilistic Measure of Multi-Robot Connectivity and Ergodic Optimal Control.pdf</t>
-        </is>
-      </c>
-      <c r="B140" s="6" t="inlineStr"/>
-      <c r="C140" s="6" t="inlineStr"/>
-      <c r="D140" s="6" t="inlineStr"/>
-      <c r="E140" s="6" t="inlineStr"/>
-      <c r="F140" s="6" t="inlineStr"/>
-      <c r="G140" s="6" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="6" t="inlineStr">
-        <is>
-          <t>Action Flow Matching for Lifelong Learning.pdf</t>
-        </is>
-      </c>
-      <c r="B141" s="6" t="inlineStr">
-        <is>
-          <t>Action Flow Matching for Continual Robot Learning</t>
-        </is>
-      </c>
-      <c r="C141" s="6" t="inlineStr">
-        <is>
-          <t>Continual Robot Learning</t>
-        </is>
-      </c>
-      <c r="D141" s="6" t="inlineStr">
-        <is>
-          <t>Unmanned Ground Vehicle, Quadrotor</t>
-        </is>
-      </c>
-      <c r="E141" s="6" t="inlineStr">
-        <is>
-          <t>Action Flow Matching, Model-Based Planning</t>
-        </is>
-      </c>
-      <c r="F141" s="6" t="inlineStr">
-        <is>
-          <t>Intent Mapping, Efficient Dynamics Space Reduction</t>
-        </is>
-      </c>
-      <c r="G141" s="6" t="inlineStr">
-        <is>
-          <t>Accelerated Learning, Improved Task Success Rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="6" t="inlineStr">
-        <is>
-          <t>Gait-Net-augmented Implicit Kino-dynamic MPC for Dynamic Variable-frequency Humanoid Locomotion over.pdf</t>
-        </is>
-      </c>
-      <c r="B142" s="6" t="inlineStr">
-        <is>
-          <t>Gait-Net-augmented Implicit Kino-dynamic MPC for Dynamic Variable-frequency Humanoid Locomotion over Discrete Terrains</t>
-        </is>
-      </c>
-      <c r="C142" s="6" t="inlineStr">
-        <is>
-          <t>Humanoid Locomotion</t>
-        </is>
-      </c>
-      <c r="D142" s="6" t="inlineStr">
-        <is>
-          <t>Discrete Terrains</t>
-        </is>
-      </c>
-      <c r="E142" s="6" t="inlineStr">
-        <is>
-          <t>Implicit Kino-dynamic MPC</t>
-        </is>
-      </c>
-      <c r="F142" s="6" t="inlineStr">
-        <is>
-          <t>Gait-Net</t>
-        </is>
-      </c>
-      <c r="G142" s="6" t="inlineStr">
-        <is>
-          <t>Variable-frequency Walking</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="6" t="inlineStr">
-        <is>
-          <t>DemoGen Synthetic Demonstration Generation for Data-Efficient Visuomotor Policy Learning.pdf</t>
-        </is>
-      </c>
-      <c r="B143" s="6" t="inlineStr">
-        <is>
-          <t>DemoGen:用于高效视觉运动策略学习的自动演示生成</t>
-        </is>
-      </c>
-      <c r="C143" s="6" t="inlineStr">
-        <is>
-          <t>视觉运动策略学习</t>
-        </is>
-      </c>
-      <c r="D143" s="6" t="inlineStr">
-        <is>
-          <t>机器人操作</t>
-        </is>
-      </c>
-      <c r="E143" s="6" t="inlineStr">
-        <is>
-          <t>TAMP</t>
-        </is>
-      </c>
-      <c r="F143" s="6" t="inlineStr">
-        <is>
-          <t>自动演示生成</t>
-        </is>
-      </c>
-      <c r="G143" s="6" t="inlineStr">
-        <is>
-          <t>空间泛化能力</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="6" t="inlineStr">
-        <is>
-          <t>Doppler Correspondence Non-Iterative Scan Matching With Doppler Velocity-Based Correspondence.pdf</t>
-        </is>
-      </c>
-      <c r="B144" s="6" t="inlineStr">
-        <is>
-          <t>Doppler Correspondence: Non-Iterative Scan Matching With Doppler Velocity-Based Correspondence</t>
-        </is>
-      </c>
-      <c r="C144" s="6" t="inlineStr">
-        <is>
-          <t>LiDAR odometry</t>
-        </is>
-      </c>
-      <c r="D144" s="6" t="inlineStr">
-        <is>
-          <t>repetitive geometric structures</t>
-        </is>
-      </c>
-      <c r="E144" s="6" t="inlineStr">
-        <is>
-          <t>Doppler Correspondence</t>
-        </is>
-      </c>
-      <c r="F144" s="6" t="inlineStr">
-        <is>
-          <t>non-iterative scan matching</t>
-        </is>
-      </c>
-      <c r="G144" s="6" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="6" t="inlineStr">
-        <is>
-          <t>Learning Humanoid Standing-up Control across Diverse Postures.pdf</t>
-        </is>
-      </c>
-      <c r="B145" s="6" t="inlineStr">
-        <is>
-          <t>Learning Humanoid Standing-up Control across Diverse Postures</t>
-        </is>
-      </c>
-      <c r="C145" s="6" t="inlineStr">
-        <is>
-          <t>Humanoid Standing-up Control</t>
-        </is>
-      </c>
-      <c r="D145" s="6" t="inlineStr">
-        <is>
-          <t>Real-world Environments</t>
-        </is>
-      </c>
-      <c r="E145" s="6" t="inlineStr">
-        <is>
-          <t>Reinforcement Learning</t>
-        </is>
-      </c>
-      <c r="F145" s="6" t="inlineStr">
-        <is>
-          <t>Multi-critic Architecture</t>
-        </is>
-      </c>
-      <c r="G145" s="6" t="inlineStr">
-        <is>
-          <t>Robust Standing-up Motion</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="6" t="inlineStr">
-        <is>
-          <t>Kinodynamic Trajectory Following with STELA Simultaneous Trajectory Estimation &amp; Local Adaptation.pdf</t>
-        </is>
-      </c>
-      <c r="B146" s="6" t="inlineStr">
-        <is>
-          <t>Kinodynamic Trajectory Following with STELA: Simultaneous Trajectory Estimation Local Adaptation</t>
-        </is>
-      </c>
-      <c r="C146" s="6" t="inlineStr">
-        <is>
-          <t>Kinodynamic Trajectory Following</t>
-        </is>
-      </c>
-      <c r="D146" s="6" t="inlineStr">
-        <is>
-          <t>Real-world robotic systems</t>
-        </is>
-      </c>
-      <c r="E146" s="6" t="inlineStr">
-        <is>
-          <t>Factor Graph Optimization</t>
-        </is>
-      </c>
-      <c r="F146" s="6" t="inlineStr">
-        <is>
-          <t>Simultaneous Trajectory Estimation and Local Adaptation</t>
-        </is>
-      </c>
-      <c r="G146" s="6" t="inlineStr">
-        <is>
-          <t>High-frequency control updates and robustness to noise</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="6" t="inlineStr">
-        <is>
-          <t>NaVILA Legged Robot Vision-Language-Action Model for Navigation.pdf</t>
-        </is>
-      </c>
-      <c r="B147" s="6" t="inlineStr">
-        <is>
-          <t>Model for Navigation</t>
-        </is>
-      </c>
-      <c r="C147" s="6" t="inlineStr">
-        <is>
-          <t>Vision-and-Language Navigation</t>
-        </is>
-      </c>
-      <c r="D147" s="6" t="inlineStr">
-        <is>
-          <t>Legged robots</t>
-        </is>
-      </c>
-      <c r="E147" s="6" t="inlineStr">
-        <is>
-          <t>Two-level framework</t>
-        </is>
-      </c>
-      <c r="F147" s="6" t="inlineStr">
-        <is>
-          <t>Mid-level actions</t>
-        </is>
-      </c>
-      <c r="G147" s="6" t="inlineStr">
-        <is>
-          <t>Improved success rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="6" t="inlineStr">
-        <is>
-          <t>On the Surprising Robustness of Sequential Convex Optimization for Contact-Implicit Motion Planning.pdf</t>
-        </is>
-      </c>
-      <c r="B148" s="6" t="inlineStr">
-        <is>
-          <t>On the Surprising Robustness of Sequential Convex Optimization for Contact-Implicit Motion Planning</t>
-        </is>
-      </c>
-      <c r="C148" s="6" t="inlineStr">
-        <is>
-          <t>Contact-implicit motion planning</t>
-        </is>
-      </c>
-      <c r="D148" s="6" t="inlineStr">
-        <is>
-          <t>Robotic manipulation, locomotion in rough terrains</t>
-        </is>
-      </c>
-      <c r="E148" s="6" t="inlineStr">
-        <is>
-          <t>Sequential convex programming (SCP), primal-only algorithm</t>
-        </is>
-      </c>
-      <c r="F148" s="6" t="inlineStr">
-        <is>
-          <t>Primal-only algorithm, convergence guarantees, robustness</t>
-        </is>
-      </c>
-      <c r="G148" s="6" t="inlineStr">
-        <is>
-          <t>CRISP solver can generate entirely new contact sequences from naive and even all-zero initializations</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="6" t="inlineStr">
-        <is>
-          <t>Bilevel Learning for Bilevel Planning.pdf</t>
-        </is>
-      </c>
-      <c r="B149" s="6" t="inlineStr">
-        <is>
-          <t>Bilevel Learning for Bilevel Planning</t>
-        </is>
-      </c>
-      <c r="C149" s="6" t="inlineStr">
-        <is>
-          <t>Bilevel Planning</t>
-        </is>
-      </c>
-      <c r="D149" s="6" t="inlineStr">
-        <is>
-          <t>Robot Planning</t>
-        </is>
-      </c>
-      <c r="E149" s="6" t="inlineStr">
-        <is>
-          <t>Neuro-Symbolic Learning</t>
-        </is>
-      </c>
-      <c r="F149" s="6" t="inlineStr">
-        <is>
-          <t>Invented Neural Predicates</t>
-        </is>
-      </c>
-      <c r="G149" s="6" t="inlineStr">
-        <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="6" t="inlineStr">
-        <is>
-          <t>Map Space Belief Prediction for Manipulation-Enhanced Mapping.pdf</t>
-        </is>
-      </c>
-      <c r="B150" s="6" t="inlineStr">
-        <is>
-          <t>Map Space Belief Prediction for Manipulation-Enhanced Mapping</t>
-        </is>
-      </c>
-      <c r="C150" s="6" t="inlineStr">
-        <is>
-          <t>Manipulation-Enhanced Mapping</t>
-        </is>
-      </c>
-      <c r="D150" s="6" t="inlineStr">
-        <is>
-          <t>Cluttered Environments</t>
-        </is>
-      </c>
-      <c r="E150" s="6" t="inlineStr">
-        <is>
-          <t>Calibrated Neural-Accelerated Belief Update (CNABU)</t>
-        </is>
-      </c>
-      <c r="F150" s="6" t="inlineStr">
-        <is>
-          <t>Belief Updates in Map-Space</t>
-        </is>
-      </c>
-      <c r="G150" s="6" t="inlineStr">
-        <is>
-          <t>Improved Map Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="6" t="inlineStr">
-        <is>
-          <t>Uni-NaVid A Video-based Vision-Language-Action Model for Unifying Embodied Navigation Tasks.pdf</t>
-        </is>
-      </c>
-      <c r="B151" s="6" t="inlineStr">
-        <is>
-          <t>Model for Unifying Embodied Navigation Tasks</t>
-        </is>
-      </c>
-      <c r="C151" s="6" t="inlineStr">
-        <is>
-          <t>Embodied Navigation</t>
-        </is>
-      </c>
-      <c r="D151" s="6" t="inlineStr">
-        <is>
-          <t>Real-world Environments</t>
-        </is>
-      </c>
-      <c r="E151" s="6" t="inlineStr">
-        <is>
-          <t>Vision-and-language navigation</t>
-        </is>
-      </c>
-      <c r="F151" s="6" t="inlineStr">
-        <is>
-          <t>Online token merge mechanism</t>
-        </is>
-      </c>
-      <c r="G151" s="6" t="inlineStr">
-        <is>
-          <t>State-of-the-art performance</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="6" t="inlineStr">
-        <is>
-          <t>Geometric Gait Optimization for Kinodynamic Systems Using a Lie Group Integrator.pdf</t>
-        </is>
-      </c>
-      <c r="B152" s="6" t="inlineStr">
-        <is>
-          <t>Geometric Gait Optimization for Kinodynamic Systems Using a Lie Group Integrator</t>
-        </is>
-      </c>
-      <c r="C152" s="6" t="inlineStr">
-        <is>
-          <t>Kinodynamic Systems</t>
-        </is>
-      </c>
-      <c r="D152" s="6" t="inlineStr">
-        <is>
-          <t>Locomotion</t>
-        </is>
-      </c>
-      <c r="E152" s="6" t="inlineStr">
-        <is>
-          <t>Lie Group Integrator</t>
-        </is>
-      </c>
-      <c r="F152" s="6" t="inlineStr">
-        <is>
-          <t>Variational Gait Optimization</t>
-        </is>
-      </c>
-      <c r="G152" s="6" t="inlineStr">
-        <is>
-          <t>Motion Planning</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="6" t="inlineStr">
-        <is>
-          <t>From Foresight to Forethought VLM-In-the-Loop Policy Steering via Latent Alignment.pdf</t>
-        </is>
-      </c>
-      <c r="B153" s="6" t="inlineStr">
-        <is>
-          <t>From Foresight to Forethought: VLM-In-the-Loop Policy Steering via Latent Alignment</t>
-        </is>
-      </c>
-      <c r="C153" s="6" t="inlineStr">
-        <is>
-          <t>Policy Steering</t>
-        </is>
-      </c>
-      <c r="D153" s="6" t="inlineStr">
-        <is>
-          <t>Robot Manipulation</t>
-        </is>
-      </c>
-      <c r="E153" s="6" t="inlineStr">
-        <is>
-          <t>Latent Alignment</t>
-        </is>
-      </c>
-      <c r="F153" s="6" t="inlineStr">
-        <is>
-          <t>VLM-in-the-Loop</t>
-        </is>
-      </c>
-      <c r="G153" s="6" t="inlineStr">
-        <is>
-          <t>Latent-Text Alignment</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="6" t="inlineStr">
-        <is>
-          <t>Bridging the Sim-to-Real Gap for Athletic Loco-Manipulation.pdf</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
-        <is>
-          <t>Bridging the Sim-to-Real Gap for Athletic Loco-Manipulation</t>
-        </is>
-      </c>
-      <c r="C154" s="6" t="inlineStr">
-        <is>
-          <t>Athletic Loco-Manipulation</t>
-        </is>
-      </c>
-      <c r="D154" s="6" t="inlineStr">
-        <is>
-          <t>Quadruped Manipulators</t>
-        </is>
-      </c>
-      <c r="E154" s="6" t="inlineStr">
-        <is>
-          <t>Reinforcement Learning</t>
-        </is>
-      </c>
-      <c r="F154" s="6" t="inlineStr">
-        <is>
-          <t>Unsupervised Actuator Net (UAN)</t>
-        </is>
-      </c>
-      <c r="G154" s="6" t="inlineStr">
-        <is>
-          <t>Sim-to-Real Transfer</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="6" t="inlineStr">
-        <is>
-          <t>Differentiable GPU-Parallelized Task and Motion Planning.pdf</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
-        <is>
-          <t>Differentiable GPU-Parallelized Task and Motion Planning</t>
-        </is>
-      </c>
-      <c r="C155" s="6" t="inlineStr">
-        <is>
-          <t>Task and Motion Planning (TAMP)</t>
-        </is>
-      </c>
-      <c r="D155" s="6" t="inlineStr">
-        <is>
-          <t>Robot manipulation planning</t>
-        </is>
-      </c>
-      <c r="E155" s="6" t="inlineStr">
-        <is>
-          <t>Differentiable optimization</t>
-        </is>
-      </c>
-      <c r="F155" s="6" t="inlineStr">
-        <is>
-          <t>GPU-parallelized TAMP planner</t>
-        </is>
-      </c>
-      <c r="G155" s="6" t="inlineStr">
-        <is>
-          <t>Massively parallel exploration of TAMP solutions</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="6" t="inlineStr">
-        <is>
-          <t>Towards Uncertainty Unification A Case Study for Preference Learning.pdf</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr">
-        <is>
-          <t>Towards Uncertainty Unification: A Case Study for Preference Learning</t>
-        </is>
-      </c>
-      <c r="C156" s="6" t="inlineStr">
-        <is>
-          <t>Uncertainty Unification</t>
-        </is>
-      </c>
-      <c r="D156" s="6" t="inlineStr">
-        <is>
-          <t>Human-Robot Interaction</t>
-        </is>
-      </c>
-      <c r="E156" s="6" t="inlineStr">
-        <is>
-          <t>Gaussian Process</t>
-        </is>
-      </c>
-      <c r="F156" s="6" t="inlineStr">
-        <is>
-          <t>Human Preference Uncertainty Model</t>
-        </is>
-      </c>
-      <c r="G156" s="6" t="inlineStr">
-        <is>
-          <t>Preference Learning</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="6" t="inlineStr">
-        <is>
-          <t>Dexonomy Synthesizing All Dexterous Grasp Types in a Grasp Taxonomy.pdf</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr">
-        <is>
-          <t>Grasp Types in a Grasp Taxonomy</t>
-        </is>
-      </c>
-      <c r="C157" s="6" t="inlineStr">
-        <is>
-          <t>Dexterous Grasping</t>
-        </is>
-      </c>
-      <c r="D157" s="6" t="inlineStr">
-        <is>
-          <t>Robotics</t>
-        </is>
-      </c>
-      <c r="E157" s="6" t="inlineStr">
-        <is>
-          <t>Sampling and Optimization</t>
-        </is>
-      </c>
-      <c r="F157" s="6" t="inlineStr">
-        <is>
-          <t>Type-Aware Grasp Synthesis</t>
-        </is>
-      </c>
-      <c r="G157" s="6" t="inlineStr">
-        <is>
-          <t>High-Quality Grasp Synthesis</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="6" t="inlineStr">
-        <is>
-          <t>PINGS Gaussian Splatting Meets Distance Fields within a Point-Based Implicit Neural Map.pdf</t>
-        </is>
-      </c>
-      <c r="B158" s="6" t="inlineStr">
-        <is>
-          <t>PINGS: Point-Based Implicit Neural Map for LiDAR-Visual SLAM</t>
-        </is>
-      </c>
-      <c r="C158" s="6" t="inlineStr">
-        <is>
-          <t>LiDAR-visual SLAM</t>
-        </is>
-      </c>
-      <c r="D158" s="6" t="inlineStr">
-        <is>
-          <t>large-scale environments</t>
-        </is>
-      </c>
-      <c r="E158" s="6" t="inlineStr">
-        <is>
-          <t>point-based implicit neural map</t>
-        </is>
-      </c>
-      <c r="F158" s="6" t="inlineStr">
-        <is>
-          <t>unifying distance field and radiance field</t>
-        </is>
-      </c>
-      <c r="G158" s="6" t="inlineStr">
-        <is>
-          <t>globally consistent mapping</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="6" t="inlineStr">
-        <is>
-          <t>Fine-Tuning Vision-Language-Action Models Optimizing Speed and Success.pdf</t>
-        </is>
-      </c>
-      <c r="B159" s="6" t="inlineStr">
-        <is>
-          <t>Fine-Tuning Vision-Language-Action Models: Optimizing Speed and Success</t>
-        </is>
-      </c>
-      <c r="C159" s="6" t="inlineStr">
-        <is>
-          <t>Vision-Language-Action Models</t>
-        </is>
-      </c>
-      <c r="D159" s="6" t="inlineStr">
-        <is>
-          <t>Robotics, High-Frequency Control</t>
-        </is>
-      </c>
-      <c r="E159" s="6" t="inlineStr">
-        <is>
-          <t>Optimized Fine-Tuning (OFT)</t>
-        </is>
-      </c>
-      <c r="F159" s="6" t="inlineStr">
-        <is>
-          <t>Parallel decoding, Action chunking, Continuous action representations, L1 regression objective</t>
-        </is>
-      </c>
-      <c r="G159" s="6" t="inlineStr">
-        <is>
-          <t>State-of-the-art performance in LIBERO benchmark, High success rates in real-world ALOHA robot tasks</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="6" t="inlineStr">
-        <is>
-          <t>Users and Wizards in Conversations How WoZ Interface Choices Define Human-Robot Interactions.pdf</t>
-        </is>
-      </c>
-      <c r="B160" s="6" t="inlineStr">
-        <is>
-          <t>Users and Wizards in Conversations: How WoZ Interface Choices Define Human-Robot Interactions</t>
-        </is>
-      </c>
-      <c r="C160" s="6" t="inlineStr">
-        <is>
-          <t>Human-Robot Interaction</t>
-        </is>
-      </c>
-      <c r="D160" s="6" t="inlineStr">
-        <is>
-          <t>Social Robotics</t>
-        </is>
-      </c>
-      <c r="E160" s="6" t="inlineStr">
-        <is>
-          <t>Wizard-of-Oz</t>
-        </is>
-      </c>
-      <c r="F160" s="6" t="inlineStr">
-        <is>
-          <t>VR Telepresence Interface</t>
-        </is>
-      </c>
-      <c r="G160" s="6" t="inlineStr">
-        <is>
-          <t>Social Presence</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="6" t="inlineStr">
-        <is>
-          <t>ROMAN Open-Set Object Map Alignment for Robust View-Invariant Global Localization.pdf</t>
-        </is>
-      </c>
-      <c r="B161" s="6" t="inlineStr">
-        <is>
-          <t>Robust View-Invariant Global Localization</t>
-        </is>
-      </c>
-      <c r="C161" s="6" t="inlineStr">
-        <is>
-          <t>Global localization</t>
-        </is>
-      </c>
-      <c r="D161" s="6" t="inlineStr">
-        <is>
-          <t>Unstructured environments</t>
-        </is>
-      </c>
-      <c r="E161" s="6" t="inlineStr">
-        <is>
-          <t>Graph-theoretic data association</t>
-        </is>
-      </c>
-      <c r="F161" s="6" t="inlineStr">
-        <is>
-          <t>Open-set object mapping</t>
-        </is>
-      </c>
-      <c r="G161" s="6" t="inlineStr">
-        <is>
-          <t>View-invariant global localization</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="6" t="inlineStr">
-        <is>
-          <t>A Robot-Assisted Approach to Small Talk Training for Adults with ASD.pdf</t>
-        </is>
-      </c>
-      <c r="B162" s="6" t="inlineStr">
-        <is>
-          <t>A Robot-Assisted Approach to Small Talk Training for Adults with ASD</t>
-        </is>
-      </c>
-      <c r="C162" s="6" t="inlineStr">
-        <is>
-          <t>Autism Spectrum Disorder (ASD)</t>
-        </is>
-      </c>
-      <c r="D162" s="6" t="inlineStr">
-        <is>
-          <t>Small Talk Training</t>
-        </is>
-      </c>
-      <c r="E162" s="6" t="inlineStr">
-        <is>
-          <t>Social Robotics</t>
-        </is>
-      </c>
-      <c r="F162" s="6" t="inlineStr">
-        <is>
-          <t>Grounded Observer Model</t>
-        </is>
-      </c>
-      <c r="G162" s="6" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="6" t="inlineStr">
-        <is>
-          <t>Robust Peg-in-Hole Assembly under Uncertainties via Compliant and Interactive Contact-Rich Manipulat.pdf</t>
-        </is>
-      </c>
-      <c r="B163" s="6" t="inlineStr">
-        <is>
-          <t>Robust Peg-in-Hole Assembly under Uncertainties via Compliant and Interactive Contact-Rich Manipulation</t>
-        </is>
-      </c>
-      <c r="C163" s="6" t="inlineStr">
-        <is>
-          <t>Peg-in-hole assembly</t>
-        </is>
-      </c>
-      <c r="D163" s="6" t="inlineStr">
-        <is>
-          <t>Industrial applications</t>
-        </is>
-      </c>
-      <c r="E163" s="6" t="inlineStr">
-        <is>
-          <t>Manipulation funnels</t>
-        </is>
-      </c>
-      <c r="F163" s="6" t="inlineStr">
-        <is>
-          <t>Compliant interactions</t>
-        </is>
-      </c>
-      <c r="G163" s="6" t="inlineStr">
-        <is>
-          <t>Uncertainty elimination</t>
+      <c r="G163" s="5" t="inlineStr">
+        <is>
+          <t>Preservation of Contraction Stability</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MISO Multiresolution Submap Optimization for Efficient Globally Consistent Neural Implicit Reconstru.pdf</t>
+          <t>How to Coordinate UAVs and UGVs for Efficient Mission Planning Optimizing Energy-Constrained Coopera.pdf</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Globally Consistent Neural Implicit Reconstruction</t>
+          <t>How to Coordinate UAVs and UGVs for Efficient Mission Planning? Optimizing Energy-Constrained Cooperative Routing with a DRL Framework</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Neural Implicit Reconstruction</t>
+          <t>UAV-UGV协同路径规划</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Simultaneous Localization and Mapping (SLAM)</t>
+          <t>灾难响应</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Multiresolution Submap Optimization</t>
+          <t>深度强化学习</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Hierarchical Optimization</t>
+          <t>编码器-解码器Transformer架构</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Efficient and Scalable Reconstruction</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048380" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048381" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048382" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048383" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048384" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048385" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048386" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048387" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048388" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048389" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048390" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048391" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048392" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048393" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048394" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048395" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048396" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048397" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048398" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048399" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048400" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048401" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048402" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048403" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048404" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048405" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048406" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048407" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048408" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048409" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048410" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048411" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048412" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048413" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048414" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048415" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048416" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048417" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048418" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048419" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048420" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048421" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048422" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048423" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048424" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048425" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048426" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048427" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048428" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048429" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048430" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048431" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048432" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048433" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048434" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048435" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048436" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048437" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048438" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048439" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048440" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048441" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048442" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048443" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048444" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048445" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048446" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048447" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048448" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048449" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048450" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048451" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048452" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048453" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048454" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048455" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048456" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048457" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048458" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048459" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048460" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048461" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048462" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048463" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048464" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048465" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048466" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048467" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048468" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048469" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048470" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048471" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048472" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048473" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048474" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048475" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048476" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048477" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048478" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048479" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048480" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048481" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048482" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048483" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048484" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048485" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048486" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048487" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048488" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048489" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048490" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048491" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048492" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048493" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048494" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048495" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048496" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048497" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048498" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048499" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048500" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048501" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048502" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048503" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048504" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048505" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048506" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048507" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048508" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048509" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048510" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048511" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048512" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048513" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048514" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048515" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048516" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048517" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048518" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048519" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048520" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048521" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048522" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048523" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048524" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048525" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048526" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048527" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048528" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048529" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048530" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048531" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048532" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048533" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048534" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048535" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048536" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048537" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048538" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048539" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048540" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048541" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048542" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048543" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048544" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048545" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048546" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048547" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048548" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048549" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048550" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048551" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048552" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048553" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048554" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048555" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048556" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048557" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048558" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048559" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048560" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048561" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048562" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048563" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048564" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048565" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048566" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048567" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048568" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048569" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048570" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048571" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048572" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048573" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048574" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
+          <t>任务完成时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048326" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048327" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048328" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048329" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048330" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048331" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048332" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048333" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048334" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048335" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048336" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048337" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048338" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048339" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048340" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048341" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048342" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048343" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048344" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048345" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048346" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048347" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048348" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048349" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048350" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048351" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048352" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048353" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048354" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048355" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048356" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048357" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048358" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048359" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048360" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048361" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048362" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048363" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048364" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048365" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048366" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048367" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048368" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048369" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048370" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048371" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048372" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048373" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048374" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048375" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048376" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048377" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048378" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048379" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048380" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048381" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048382" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048383" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048384" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048385" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048386" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048387" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048388" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048389" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048390" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048391" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048392" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048393" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048394" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048395" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048396" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048397" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048398" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048399" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048400" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048401" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048402" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048403" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048404" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048405" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048406" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048407" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048408" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048409" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048410" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048411" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048412" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048413" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048414" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048415" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048416" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048417" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048418" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048419" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048420" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048421" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048422" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048423" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048424" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048425" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048426" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048427" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048428" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048429" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048430" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048431" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048432" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048433" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048434" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048435" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048436" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048437" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048438" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048439" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048440" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048441" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048442" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048443" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048444" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048445" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048446" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048447" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048448" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048449" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048450" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048451" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048452" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048453" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048454" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048455" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048456" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048457" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048458" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048459" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048460" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048461" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048462" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048463" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048464" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048465" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048466" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048467" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048468" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048469" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048470" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048471" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048472" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048473" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048474" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048475" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048476" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048477" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048478" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048479" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048480" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048481" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048482" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048483" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048484" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048485" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048486" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048487" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048488" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048489" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048490" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048491" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048492" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048493" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048494" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048495" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048496" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048497" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048498" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048499" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048500" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048501" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048502" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048503" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048504" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048505" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048506" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048507" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048508" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048509" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048510" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048511" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048512" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048513" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048514" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048515" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048516" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048517" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048518" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048519" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048520" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048521" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048522" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048523" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048524" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048525" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048526" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048527" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048528" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048529" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048530" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048531" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048532" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048533" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048534" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048535" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048536" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048537" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048538" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048539" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048540" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048541" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048542" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048543" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048544" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048545" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048546" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048547" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048548" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048549" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048550" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048551" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048552" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048553" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048554" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048555" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048556" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048557" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048558" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048559" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048560" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048561" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048562" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048563" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048564" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048565" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048566" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048567" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048568" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048569" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048570" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048573" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="6"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="6"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/PR_Data/PaperRead_RSS2025.xlsx
+++ b/Data/PR_Data/PaperRead_RSS2025.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="947">
   <si>
     <r>
       <rPr>
@@ -2405,21 +2405,6 @@
     <t xml:space="preserve">大规模数据生成</t>
   </si>
   <si>
-    <t xml:space="preserve">Online Competitive Information Gathering for Partially Observable Trajectory Games.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Competitive Information Gathering for Partially Observable Trajectory Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">信息收集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模型预测博弈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主动信息收集</t>
-  </si>
-  <si>
     <t xml:space="preserve">Debiasing 6-DOF IMU via Hierarchical Learning of Continuous Bias Dynamics.pdf</t>
   </si>
   <si>
@@ -2666,22 +2651,22 @@
     <t xml:space="preserve">Is Your Imitation Learning Policy Better than Mine Policy Comparison with Near-Optimal Stopping.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Is Your Imitation Learning Policy Better than Mine? Policy Comparison with Near-Optimal Stopping</t>
+    <t xml:space="preserve">Is Your Imitation Learning Policy Better than Mine?</t>
   </si>
   <si>
     <t xml:space="preserve">统计测试</t>
   </si>
   <si>
-    <t xml:space="preserve">序列测试</t>
+    <t xml:space="preserve">近最优停止</t>
   </si>
   <si>
     <t xml:space="preserve">V-HOP Visuo-Haptic 6D Object Pose Tracking.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Visuo-haptic 6D Object Pose Tracking with Unified Haptic Representation and Transformer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">感知</t>
+    <t xml:space="preserve">Visuo-Haptic 6D Object Pose Tracking with Unified Haptic Representation and Transformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抓取</t>
   </si>
   <si>
     <t xml:space="preserve">Transformer</t>
@@ -2690,7 +2675,7 @@
     <t xml:space="preserve">统一</t>
   </si>
   <si>
-    <t xml:space="preserve">跟踪</t>
+    <t xml:space="preserve">融合</t>
   </si>
   <si>
     <t xml:space="preserve">Diffeomorphic Obstacle Avoidance for Contractive Dynamical Systems via Implicit Representations.pdf</t>
@@ -2702,12 +2687,12 @@
     <t xml:space="preserve">动态系统</t>
   </si>
   <si>
+    <t xml:space="preserve">保收缩性</t>
+  </si>
+  <si>
     <t xml:space="preserve">障碍规避</t>
   </si>
   <si>
-    <t xml:space="preserve">稳定性</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Unified and General Humanoid Whole-Body Controller for Fine-Grained Locomotion.pdf</t>
   </si>
   <si>
@@ -2717,10 +2702,10 @@
     <t xml:space="preserve">行走</t>
   </si>
   <si>
-    <t xml:space="preserve">统一控制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高鲁棒性</t>
+    <t xml:space="preserve">对称性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">控制</t>
   </si>
   <si>
     <t xml:space="preserve">FAST Efficient Action Tokenization for Vision-Language-Action Models.pdf</t>
@@ -2735,393 +2720,423 @@
     <t xml:space="preserve">压缩</t>
   </si>
   <si>
-    <t xml:space="preserve">变换</t>
+    <t xml:space="preserve">离散余弦变换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">训练</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GauSS-MI Gaussian Splatting Shannon Mutual Information for Active 3D Reconstruction.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information for Active 3D Reconstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridging Model Predictive Control and Deep Learning for Scalable Reachability Analysis.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridging Model Predictive Control and Deep Learning for Scalable Reachability Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reachability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demonstrating ViSafe Vision-enabled Safety for High-speed Detect and Avoid.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ViSafe: Vision-enabled Safety for High-speed Detect and Avoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">碰撞避免</t>
+  </si>
+  <si>
+    <t xml:space="preserve">控制屏障函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">视觉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow Matching Ergodic Coverage.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow Matching Ergodic Coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">覆盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">匹配</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成</t>
   </si>
   <si>
     <t xml:space="preserve">性能</t>
   </si>
   <si>
-    <t xml:space="preserve">GauSS-MI Gaussian Splatting Shannon Mutual Information for Active 3D Reconstruction.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information for Active 3D Reconstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重建</t>
+    <t xml:space="preserve">Dynamic Rank Adjustment in Diffusion Policies for Efficient and Flexible Training.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Rank Adjustment in Diffusion Policies for Efficient and Flexible Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机器人运动生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">动态秩调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve">低秩结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">训练效率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Getting-Up Policies for Real-World Humanoid Robots.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Getting-Up Policies for Real-World Humanoid Robots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地形</t>
+  </si>
+  <si>
+    <t xml:space="preserve">两阶段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部署</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CordViP Correspondence-based Visuomotor Policy for Dexterous Manipulation in Real-World.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CordViP: A Correspondence-based Visuomotor Policy for Dexterous Manipulation in the Real World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真实世界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对应关系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DexterityGen  Foundation Controller for Unprecedented Dexterity.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundation Controller for Unprecedented Dexterity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certifiably-Correct Mapping for Safe Navigation Despite Odometry Drift.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certifiably-Correct Mapping for Safe Navigation Despite Odometry Drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">导航</t>
+  </si>
+  <si>
+    <t xml:space="preserve">映射</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正确性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leveling the Playing Field Carefully Comparing Classical and Learned Controllers for Quadrotor Traje.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leveling the Playing Field: Carefully Comparing Classical and Learned Controllers for Quadrotor Trajectory Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">控制器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四旋翼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比较</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Probabilistic Measure of Multi-Robot Connectivity and Ergodic Optimal Control.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Probabilistic Measure of Multi-Robot Connectivity and Ergodic Optimal Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多机器人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">探索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最优控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平衡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Flow Matching for Lifelong Learning.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Flow Matching for Continual Robot Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">动作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gait-Net-augmented Implicit Kino-dynamic MPC for Dynamic Variable-frequency Humanoid Locomotion over.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gait-Net-augmented Implicit Kino-dynamic MPC for Dynamic Variable-frequency Humanoid Locomotion over Discrete Terrains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">步态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神经网络</t>
+  </si>
+  <si>
+    <t xml:space="preserve">步态频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DemoGen Synthetic Demonstration Generation for Data-Efficient Visuomotor Policy Learning.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DemoGen: A Low-Cost, Fully Synthetic Approach for Automatic Demonstration Generation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点云</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">单演示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空间泛化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppler Correspondence Non-Iterative Scan Matching With Doppler Velocity-Based Correspondence.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppler Correspondence: Non-Iterative Scan Matching With Doppler Velocity-Based Correspondence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Iterative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Humanoid Standing-up Control across Diverse Postures.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Humanoid Standing-up Control across Diverse Postures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">站立</t>
+  </si>
+  <si>
+    <t xml:space="preserve">户外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多批评家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">稳定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinodynamic Trajectory Following with STELA Simultaneous Trajectory Estimation &amp; Local Adaptation.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinodynamic Trajectory Following with STELA: Simultaneous Trajectory Estimation Local Adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">轨迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">适应</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaVILA Legged Robot Vision-Language-Action Model for Navigation.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model for Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">语言</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Surprising Robustness of Sequential Convex Optimization for Contact-Implicit Motion Planning.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential Convex Optimization for Contact-Implicit Motion Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接触序列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilevel Learning for Bilevel Planning.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilevel Learning for Bilevel Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">规划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抽象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泛化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map Space Belief Prediction for Manipulation-Enhanced Mapping.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map Space Belief Prediction for Manipulation-Enhanced Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">语义映射</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深度学习</t>
   </si>
   <si>
     <t xml:space="preserve">不确定性</t>
   </si>
   <si>
-    <t xml:space="preserve">信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">质量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridging Model Predictive Control and Deep Learning for Scalable Reachability Analysis.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridging Model Predictive Control and Deep Learning for Scalable Reachability Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">控制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">准确</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrating ViSafe Vision-enabled Safety for High-speed Detect and Avoid.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demonstrating ViSafe: Vision-enabled Safety for High-speed Detect and Avoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">飞行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">融合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow Matching Ergodic Coverage.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow Matching Ergodic Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">覆盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">匹配</t>
-  </si>
-  <si>
-    <t xml:space="preserve">流</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Rank Adjustment in Diffusion Policies for Efficient and Flexible Training.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Rank Adjustment in Diffusion Policies for Efcient and Flexible Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇异值分解</t>
-  </si>
-  <si>
-    <t xml:space="preserve">动态调整</t>
+    <t xml:space="preserve">信息增益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uni-NaVid A Video-based Vision-Language-Action Model for Unifying Embodied Navigation Tasks.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model for Unifying Embodied Navigation Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometric Gait Optimization for Kinodynamic Systems Using a Lie Group Integrator.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometric Gait Optimization for Kinodynamic Systems Using a Lie Group Integrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">动力学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">几何</t>
+  </si>
+  <si>
+    <t xml:space="preserve">运动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Foresight to Forethought VLM-In-the-Loop Policy Steering via Latent Alignment.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Foresight to Forethought: VLM-In-the-Loop Policy Steering via Latent Alignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对齐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">隐式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鲁棒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridging the Sim-to-Real Gap for Athletic Loco-Manipulation.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridging the Sim-to-Real Gap for Athletic Loco-Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无监督</t>
+  </si>
+  <si>
+    <t xml:space="preserve">转移</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differentiable GPU-Parallelized Task and Motion Planning.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differentiable GPU-Parallelized Task and Motion Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任务规划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">并行</t>
   </si>
   <si>
     <t xml:space="preserve">效率</t>
   </si>
   <si>
-    <t xml:space="preserve">Learning Getting-Up Policies for Real-World Humanoid Robots.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Getting-Up Policies for Real-World Humanoid Robots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地形</t>
-  </si>
-  <si>
-    <t xml:space="preserve">两阶段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">起立</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CordViP Correspondence-based Visuomotor Policy for Dexterous Manipulation in Real-World.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CordViP: A Correspondence-based Visuomotor Policy for Dexterous Manipulation in Real-World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">视觉模仿学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对应关系</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DexterityGen  Foundation Controller for Unprecedented Dexterity.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foundation Controller for Unprecedented Dexterity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灵巧性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certifiably-Correct Mapping for Safe Navigation Despite Odometry Drift.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certifiably-Correct Mapping for Safe Navigation Despite Odometry Drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">导航</t>
-  </si>
-  <si>
-    <t xml:space="preserve">映射</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正确性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leveling the Playing Field Carefully Comparing Classical and Learned Controllers for Quadrotor Traje.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leveling the Playing Field: Carefully Comparing Classical and Learned Controllers for Quadrotor Trajectory Tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">控制器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四旋翼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比较</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Probabilistic Measure of Multi-Robot Connectivity and Ergodic Optimal Control.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Probabilistic Measure of Multi-Robot Connectivity and Ergodic Optimal Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多机器人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">探索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平衡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action Flow Matching for Lifelong Learning.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action Flow Matching for Continual Robot Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无人车</t>
-  </si>
-  <si>
-    <t xml:space="preserve">动作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gait-Net-augmented Implicit Kino-dynamic MPC for Dynamic Variable-frequency Humanoid Locomotion over.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gait-Net-augmented Implicit Kino-dynamic MPC for Dynamic Variable-frequency Humanoid Locomotion over Discrete Terrains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">步态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神经网络</t>
-  </si>
-  <si>
-    <t xml:space="preserve">适应性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DemoGen Synthetic Demonstration Generation for Data-Efficient Visuomotor Policy Learning.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data-Efficient Visuomotor Policy Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">增强</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doppler Correspondence Non-Iterative Scan Matching With Doppler Velocity-Based Correspondence.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doppler Correspondence: Non-Iterative Scan Matching With Doppler Velocity-Based Correspondence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doppler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LiDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非迭代</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Humanoid Standing-up Control across Diverse Postures.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Humanoid Standing-up Control across Diverse Postures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">站立</t>
-  </si>
-  <si>
-    <t xml:space="preserve">户外</t>
-  </si>
-  <si>
-    <t xml:space="preserve">强化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">适应</t>
-  </si>
-  <si>
-    <t xml:space="preserve">稳定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinodynamic Trajectory Following with STELA Simultaneous Trajectory Estimation &amp; Local Adaptation.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinodynamic Trajectory Following with STELA: Simultaneous Trajectory Estimation Local Adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">轨迹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaVILA Legged Robot Vision-Language-Action Model for Navigation.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model for Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">语言</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the Surprising Robustness of Sequential Convex Optimization for Contact-Implicit Motion Planning.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequential Convex Optimization for Contact-Implicit Motion Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">接触</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilevel Learning for Bilevel Planning.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilevel Learning for Bilevel Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神经符号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">抽象</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泛化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map Space Belief Prediction for Manipulation-Enhanced Mapping.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map Space Belief Prediction for Manipulation-Enhanced Mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">语义映射</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深度学习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校准</t>
-  </si>
-  <si>
-    <t xml:space="preserve">准确性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uni-NaVid A Video-based Vision-Language-Action Model for Unifying Embodied Navigation Tasks.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model for Unifying Embodied Navigation Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometric Gait Optimization for Kinodynamic Systems Using a Lie Group Integrator.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometric Gait Optimization for Kinodynamic Systems Using a Lie Group Integrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">几何</t>
-  </si>
-  <si>
-    <t xml:space="preserve">变分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">运动</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Foresight to Forethought VLM-In-the-Loop Policy Steering via Latent Alignment.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Foresight to Forethought: VLM-In-the-Loop Policy Steering via Latent Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服务</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对齐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解耦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提升</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridging the Sim-to-Real Gap for Athletic Loco-Manipulation.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridging the Sim-to-Real Gap for Athletic Loco-Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无监督</t>
-  </si>
-  <si>
-    <t xml:space="preserve">转移</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differentiable GPU-Parallelized Task and Motion Planning.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differentiable GPU-Parallelized Task and Motion Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任务规划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">并行</t>
-  </si>
-  <si>
     <t xml:space="preserve">Towards Uncertainty Unification A Case Study for Preference Learning.pdf</t>
   </si>
   <si>
@@ -3131,21 +3146,21 @@
     <t xml:space="preserve">高斯过程</t>
   </si>
   <si>
+    <t xml:space="preserve">不确定性统一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预测准确率</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dexonomy Synthesizing All Dexterous Grasp Types in a Grasp Taxonomy.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Grasp Types in a Grasp Taxonomy</t>
   </si>
   <si>
-    <t xml:space="preserve">抓取</t>
-  </si>
-  <si>
     <t xml:space="preserve">模板</t>
   </si>
   <si>
-    <t xml:space="preserve">数据集</t>
-  </si>
-  <si>
     <t xml:space="preserve">PINGS Gaussian Splatting Meets Distance Fields within a Point-Based Implicit Neural Map.pdf</t>
   </si>
   <si>
@@ -3158,7 +3173,19 @@
     <t xml:space="preserve">Fine-Tuning Vision-Language-Action Models: Optimizing Speed and Success</t>
   </si>
   <si>
-    <t xml:space="preserve">微调</t>
+    <t xml:space="preserve">vision-language-action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fine-tuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel decoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">success rate</t>
   </si>
   <si>
     <t xml:space="preserve">Users and Wizards in Conversations How WoZ Interface Choices Define Human-Robot Interactions.pdf</t>
@@ -3167,13 +3194,16 @@
     <t xml:space="preserve">Users and Wizards in Conversations: How WoZ Interface Choices Define Human-Robot Interactions</t>
   </si>
   <si>
+    <t xml:space="preserve">交互</t>
+  </si>
+  <si>
+    <t xml:space="preserve">界面</t>
+  </si>
+  <si>
     <t xml:space="preserve">虚拟现实</t>
   </si>
   <si>
-    <t xml:space="preserve">沉浸式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">社交连接</t>
+    <t xml:space="preserve">沉浸感</t>
   </si>
   <si>
     <t xml:space="preserve">ROMAN Open-Set Object Map Alignment for Robust View-Invariant Global Localization.pdf</t>
@@ -3191,6 +3221,9 @@
     <t xml:space="preserve">语义</t>
   </si>
   <si>
+    <t xml:space="preserve">精度</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Robot-Assisted Approach to Small Talk Training for Adults with ASD.pdf</t>
   </si>
   <si>
@@ -3200,13 +3233,10 @@
     <t xml:space="preserve">社交</t>
   </si>
   <si>
-    <t xml:space="preserve">职场</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辅助</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进步</t>
+    <t xml:space="preserve">工作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技能</t>
   </si>
   <si>
     <t xml:space="preserve">Robust Peg-in-Hole Assembly under Uncertainties via Compliant and Interactive Contact-Rich Manipulat.pdf</t>
@@ -3219,15 +3249,6 @@
   </si>
   <si>
     <t xml:space="preserve">工业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">交互</t>
-  </si>
-  <si>
-    <t xml:space="preserve">约束</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鲁棒</t>
   </si>
   <si>
     <t xml:space="preserve">MISO Multiresolution Submap Optimization for Efficient Globally Consistent Neural Implicit Reconstru.pdf</t>
@@ -3396,8 +3417,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G113" activeCellId="0" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5987,38 +6008,41 @@
         <v>264</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>686</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="1" t="s">
         <v>688</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>491</v>
+        <v>689</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>691</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>694</v>
+        <v>139</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>695</v>
@@ -6026,7 +6050,7 @@
       <c r="F114" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="4" t="s">
         <v>697</v>
       </c>
     </row>
@@ -6038,79 +6062,79 @@
         <v>699</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>138</v>
+        <v>700</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>705</v>
+        <v>323</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="E116" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>545</v>
-      </c>
       <c r="E117" s="4" t="s">
-        <v>133</v>
+        <v>712</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>715</v>
+        <v>545</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>717</v>
+        <v>587</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>718</v>
@@ -6127,19 +6151,19 @@
         <v>721</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>545</v>
+        <v>112</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>722</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>587</v>
+        <v>723</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>724</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6150,148 +6174,148 @@
         <v>726</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>112</v>
+        <v>474</v>
       </c>
       <c r="D120" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>728</v>
-      </c>
       <c r="F120" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="D121" s="4" t="s">
         <v>731</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>732</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>320</v>
+        <v>733</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D124" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="C124" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>753</v>
+      <c r="G124" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="1" t="s">
         <v>756</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>757</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>340</v>
+        <v>758</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>761</v>
+      <c r="E126" s="5" t="s">
+        <v>593</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>762</v>
@@ -6308,13 +6332,13 @@
         <v>765</v>
       </c>
       <c r="C127" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="E127" s="5" t="s">
-        <v>593</v>
+        <v>140</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>767</v>
@@ -6331,849 +6355,867 @@
         <v>770</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>364</v>
+        <v>491</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>771</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>140</v>
+        <v>772</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D129" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="C129" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="D129" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="E129" s="1" t="s">
         <v>779</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E130" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="C130" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="D130" s="1" t="s">
         <v>785</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C131" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="G131" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>118</v>
+        <v>796</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>793</v>
+        <v>491</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>798</v>
+        <v>73</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>491</v>
+        <v>802</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>73</v>
+        <v>491</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>491</v>
+        <v>808</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>804</v>
+        <v>140</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>491</v>
+        <v>72</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>811</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>72</v>
+        <v>491</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>814</v>
+        <v>140</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>815</v>
+        <v>684</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>235</v>
+        <v>768</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>684</v>
+        <v>820</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>665</v>
+        <v>821</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>768</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>491</v>
+        <v>825</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>822</v>
+        <v>140</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>118</v>
+        <v>799</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>779</v>
+        <v>833</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>831</v>
+        <v>138</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>832</v>
+        <v>491</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>833</v>
+        <v>193</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>491</v>
+        <v>840</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>838</v>
+        <v>364</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>789</v>
+        <v>842</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>842</v>
+        <v>655</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>39</v>
+        <v>112</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="G143" s="5" t="s">
         <v>849</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>858</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>799</v>
+        <v>140</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>859</v>
+        <v>491</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>862</v>
+        <v>799</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>865</v>
+        <v>819</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>779</v>
+        <v>869</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>821</v>
+        <v>185</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>868</v>
+        <v>296</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>869</v>
+        <v>165</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>185</v>
+        <v>875</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>296</v>
+        <v>837</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>165</v>
+        <v>876</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>789</v>
+        <v>880</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>881</v>
+        <v>819</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>882</v>
+        <v>491</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>884</v>
+        <v>757</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>885</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>821</v>
+        <v>889</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>762</v>
+        <v>890</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>779</v>
+        <v>891</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>801</v>
+        <v>491</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>491</v>
+        <v>771</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>491</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>896</v>
+        <v>140</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C154" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>892</v>
-      </c>
       <c r="E154" s="5" t="s">
-        <v>140</v>
+        <v>864</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>491</v>
+        <v>410</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>801</v>
+        <v>908</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>909</v>
+        <v>864</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>762</v>
+        <v>913</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>790</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>912</v>
+        <v>915</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>801</v>
+        <v>841</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>913</v>
+        <v>339</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>914</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>339</v>
+        <v>918</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>801</v>
+        <v>925</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>870</v>
+        <v>928</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>410</v>
+        <v>931</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="D161" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="E161" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E161" s="5" t="s">
-        <v>928</v>
-      </c>
       <c r="F161" s="5" t="s">
-        <v>929</v>
+        <v>774</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>790</v>
+        <v>939</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>491</v>
+        <v>925</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>934</v>
+        <v>882</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>935</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>938</v>
+        <v>945</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>939</v>
+        <v>491</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>940</v>
+        <v>864</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1048245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7464,7 +7506,7 @@
     <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
